--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_392.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_392.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g29125-d12392421-Reviews-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>88</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Home2-Suites-By-Hilton-Azusa.h19656467.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_392.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_392.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="387">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1045 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r591219877-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>29125</t>
+  </si>
+  <si>
+    <t>12392421</t>
+  </si>
+  <si>
+    <t>591219877</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>Great Room for a Great Price!</t>
+  </si>
+  <si>
+    <t>This was my first time staying in a Home2 Suites room and it was a really great experience.   The small suite was comfortable, plenty of room, very clean, and very well appointed, with almost a full kitchen, minus a stove/oven.    The words that came to mind when I first walked in were MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Leo F, General Manager at Home2 Suites by Hilton Azusa, responded to this reviewResponded 6 days ago</t>
+  </si>
+  <si>
+    <t>Responded 6 days ago</t>
+  </si>
+  <si>
+    <t>This was my first time staying in a Home2 Suites room and it was a really great experience.   The small suite was comfortable, plenty of room, very clean, and very well appointed, with almost a full kitchen, minus a stove/oven.    The words that came to mind when I first walked in were More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r591164088-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>591164088</t>
+  </si>
+  <si>
+    <t>Business trip</t>
+  </si>
+  <si>
+    <t>First time at a Home2, and was worth the chance, as the price and condition of this facility was excellent. Breakfast item choice was a little sparse, but consdiering it was free, better than not having an option. Coffee available all the time!MoreShow less</t>
+  </si>
+  <si>
+    <t>First time at a Home2, and was worth the chance, as the price and condition of this facility was excellent. Breakfast item choice was a little sparse, but consdiering it was free, better than not having an option. Coffee available all the time!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r590675315-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>590675315</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t>Best in the area for sure</t>
+  </si>
+  <si>
+    <t>This is rather new hotel and I would say a good 1 night stay.The rooms are basic but it's economy design is pretty smart so that you feel very comfortable. And also colourful design gives you a feeling of higher class.We have arrived rather late so the bar was closed.The breakfast area is basic and offering really economic. I recommend to skip it.In general it is a very good value hotel as it really reasonable priced.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>This is rather new hotel and I would say a good 1 night stay.The rooms are basic but it's economy design is pretty smart so that you feel very comfortable. And also colourful design gives you a feeling of higher class.We have arrived rather late so the bar was closed.The breakfast area is basic and offering really economic. I recommend to skip it.In general it is a very good value hotel as it really reasonable priced.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r589124108-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>589124108</t>
+  </si>
+  <si>
+    <t>06/20/2018</t>
+  </si>
+  <si>
+    <t>Fantastic</t>
+  </si>
+  <si>
+    <t>Everything went smooth clean, fancy, and i would say best hotel within 20 miles. I enjoyed the pool with the two grills they had. The breakfast and staff where as good as could be. I will stay there again soon.                                      MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Everything went smooth clean, fancy, and i would say best hotel within 20 miles. I enjoyed the pool with the two grills they had. The breakfast and staff where as good as could be. I will stay there again soon.                                      More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r589064551-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>589064551</t>
+  </si>
+  <si>
+    <t>06/19/2018</t>
+  </si>
+  <si>
+    <t>Clean and exceptional customer service.</t>
+  </si>
+  <si>
+    <t>The staff are exceptional! The place was clean and cleaning services were provided daily, unlike most hotels. The price was low compared to area hotels and the rooms were much larger. This is the best hotel in the area! MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff are exceptional! The place was clean and cleaning services were provided daily, unlike most hotels. The price was low compared to area hotels and the rooms were much larger. This is the best hotel in the area! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r588543500-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>588543500</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>A hidden gem in Azusa</t>
+  </si>
+  <si>
+    <t>We always stay here when visiting our son at Azusa Pacific University.  It's close to the school, close to the freeway.  The hotel is clean.  They offer free breakfast.  Rooms are good size and have all the amenities for an extended stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Leo F, General Manager at Home2 Suites by Hilton Azusa, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>We always stay here when visiting our son at Azusa Pacific University.  It's close to the school, close to the freeway.  The hotel is clean.  They offer free breakfast.  Rooms are good size and have all the amenities for an extended stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r586083297-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>586083297</t>
+  </si>
+  <si>
+    <t>06/08/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>Hotel close to everything.  Staff is very friendly and parking is easy. Lobby is nice and breakfast was good. Lots of room to work in lobby and snacks and waters were close by. Restaurants are in walking distance MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel close to everything.  Staff is very friendly and parking is easy. Lobby is nice and breakfast was good. Lots of room to work in lobby and snacks and waters were close by. Restaurants are in walking distance More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r586081672-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>586081672</t>
+  </si>
+  <si>
+    <t>Second time stay</t>
+  </si>
+  <si>
+    <t>Second time I stay. As exceptional as the first. Rooms are quiet, beds are comfortable, staff is nice. Good food close by, continental breakfast was good, and even though I210 is close by you cannot year the noise. MoreShow less</t>
+  </si>
+  <si>
+    <t>Second time I stay. As exceptional as the first. Rooms are quiet, beds are comfortable, staff is nice. Good food close by, continental breakfast was good, and even though I210 is close by you cannot year the noise. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r585671579-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>585671579</t>
+  </si>
+  <si>
+    <t>06/06/2018</t>
+  </si>
+  <si>
+    <t>Most impressive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spacious and roomy. Excellent amenities for room and and kitchen. Not a wide breakfast selection, yet excellent coffee and superb staff. Loved the digital key and auto check in.  Would highly recommend to everyone. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r579653936-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>579653936</t>
+  </si>
+  <si>
+    <t>05/12/2018</t>
+  </si>
+  <si>
+    <t>Awesome hotel!</t>
+  </si>
+  <si>
+    <t>This hotel met all of our expectations.   It was roomy, clean, great location, and priced right.  The staff was courteous, friendly, and helpful.   We loved the fact that the in room there was plenty of light and everything was easily accessible.  MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Leo F, General Manager at Home2 Suites by Hilton Azusa, responded to this reviewResponded May 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2018</t>
+  </si>
+  <si>
+    <t>This hotel met all of our expectations.   It was roomy, clean, great location, and priced right.  The staff was courteous, friendly, and helpful.   We loved the fact that the in room there was plenty of light and everything was easily accessible.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r579322561-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>579322561</t>
+  </si>
+  <si>
+    <t>05/10/2018</t>
+  </si>
+  <si>
+    <t>APU parent</t>
+  </si>
+  <si>
+    <t>Booked this hotel due to location, near Azusa Pacific University. It was my first time staying in this hotel. It was very clean, the staff was great and a nice breakfast was included. I will definitely stay again. And, it's located right off I-210.MoreShow less</t>
+  </si>
+  <si>
+    <t>Leo F, General Manager at Home2 Suites by Hilton Azusa, responded to this reviewResponded May 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2018</t>
+  </si>
+  <si>
+    <t>Booked this hotel due to location, near Azusa Pacific University. It was my first time staying in this hotel. It was very clean, the staff was great and a nice breakfast was included. I will definitely stay again. And, it's located right off I-210.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r579062429-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>579062429</t>
+  </si>
+  <si>
+    <t>05/09/2018</t>
+  </si>
+  <si>
+    <t>Home2</t>
+  </si>
+  <si>
+    <t>Very pleasant atmosphere with an efficiency-type apartment. The room was very clean and I was especially pleased with the cleanliness of the bathroom. I liked having the soap and shampoo in dispensers in the shower.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very pleasant atmosphere with an efficiency-type apartment. The room was very clean and I was especially pleased with the cleanliness of the bathroom. I liked having the soap and shampoo in dispensers in the shower.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r572532603-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>572532603</t>
+  </si>
+  <si>
+    <t>04/10/2018</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>This people were super friendly. The suite was roomy with a clean kitchen and a sofa sleeper. The bed was comfortable and clean. The location was perfect, easy access to freeway and to a variety of restaurants! I would definitely stay her again! MoreShow less</t>
+  </si>
+  <si>
+    <t>Leo F, General Manager at Home2 Suites by Hilton Azusa, responded to this reviewResponded April 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2018</t>
+  </si>
+  <si>
+    <t>This people were super friendly. The suite was roomy with a clean kitchen and a sofa sleeper. The bed was comfortable and clean. The location was perfect, easy access to freeway and to a variety of restaurants! I would definitely stay her again! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r571936402-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>571936402</t>
+  </si>
+  <si>
+    <t>04/08/2018</t>
+  </si>
+  <si>
+    <t>bite by bed bugs</t>
+  </si>
+  <si>
+    <t>Please check your room for bed bugs!! staff did nothing to help me find other accomodations...Oh wait, I did get 5 large garbage bags for my troubles....They stated they were going to call an exterminator &amp; mngmt was going to call me ... no one has called me yet!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Please check your room for bed bugs!! staff did nothing to help me find other accomodations...Oh wait, I did get 5 large garbage bags for my troubles....They stated they were going to call an exterminator &amp; mngmt was going to call me ... no one has called me yet!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r571542634-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>571542634</t>
+  </si>
+  <si>
+    <t>04/06/2018</t>
+  </si>
+  <si>
+    <t>Business Trip</t>
+  </si>
+  <si>
+    <t>Hotel is clean and easy to access from the freeway. Staff are friendly and generally accommodating. Nice complementary breakfast but they do not offer dinner or a Managers Evening Social during the week. Rooms are new, clean and have nice kitchen area. MoreShow less</t>
+  </si>
+  <si>
+    <t>Leo F, General Manager at Home2 Suites by Hilton Azusa, responded to this reviewResponded April 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2018</t>
+  </si>
+  <si>
+    <t>Hotel is clean and easy to access from the freeway. Staff are friendly and generally accommodating. Nice complementary breakfast but they do not offer dinner or a Managers Evening Social during the week. Rooms are new, clean and have nice kitchen area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r566585686-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>566585686</t>
+  </si>
+  <si>
+    <t>03/14/2018</t>
+  </si>
+  <si>
+    <t>Amazing!</t>
+  </si>
+  <si>
+    <t>It was amazing especially for the price! I was here for four nights and only paid 549. Although the window was dirty overall I had a great experience. I definitely recommend this hotel and if you don’t want to have breakfast at the hotel McDonalds is literally a few steps away.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r566080293-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>566080293</t>
+  </si>
+  <si>
+    <t>03/12/2018</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>verall the hotel was nice. Clean rooms (aside from trash from previous guest left behind) Sheets were amazing!! I want to buy some for my house. UNBELIEVABLE comfy bed. Slept well, which is rare for a hotel experience.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r565451872-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>565451872</t>
+  </si>
+  <si>
+    <t>03/09/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Very clean...I would stay again.  Good location as well and though I did not not have time to eat breakfast, it looked like it would have been above average quality and selection.  I did try the coffee which was excellent.  Well appointed rooms.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r561797281-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>561797281</t>
+  </si>
+  <si>
+    <t>02/20/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attractive but not comfortable </t>
+  </si>
+  <si>
+    <t>First, the good: Very modern attractive lobby and room decor matches the photos. All staff are very helpful. Front desk, housekeeping, all very friendly, pleasant and helpful.  Full supply of attractive dishes and flatware in kitchenette. Neutrogena amenities in room. Though the shower gel dispenser in shower was empty.   Now the challenges.  Bed was ok, but bedding was an odd mixture. 100% polyester sheets very soft but don’t breathe.  Covers consisted of upper sheet with what looked like a flanged mattress pad sandwiched between the sheet and the bedspread.  Have stayed in lots of hotels. Never seen that one. Shower water pressure was poor (water regulations apply, but not to that degree). Dehumidifier runs all the time, blowing cold air. Heater only turns on when set at a high temp. When you turn the heat off, it gets cold.  Bathroom always cold. Toilet paper and tissue were thin and had a sandpaper effect. About the cheapest available. Breakfast largely inedible. Stay away from the bagel, watery orange juice and coffee. Better to go with the English muffins or perhaps cereal. Would avoid this hotel in future, though the staff is so nice that it’s ok for one night. Hilton can do better. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>First, the good: Very modern attractive lobby and room decor matches the photos. All staff are very helpful. Front desk, housekeeping, all very friendly, pleasant and helpful.  Full supply of attractive dishes and flatware in kitchenette. Neutrogena amenities in room. Though the shower gel dispenser in shower was empty.   Now the challenges.  Bed was ok, but bedding was an odd mixture. 100% polyester sheets very soft but don’t breathe.  Covers consisted of upper sheet with what looked like a flanged mattress pad sandwiched between the sheet and the bedspread.  Have stayed in lots of hotels. Never seen that one. Shower water pressure was poor (water regulations apply, but not to that degree). Dehumidifier runs all the time, blowing cold air. Heater only turns on when set at a high temp. When you turn the heat off, it gets cold.  Bathroom always cold. Toilet paper and tissue were thin and had a sandpaper effect. About the cheapest available. Breakfast largely inedible. Stay away from the bagel, watery orange juice and coffee. Better to go with the English muffins or perhaps cereal. Would avoid this hotel in future, though the staff is so nice that it’s ok for one night. Hilton can do better. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r561620868-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>561620868</t>
+  </si>
+  <si>
+    <t>02/19/2018</t>
+  </si>
+  <si>
+    <t>Customer Service Lacking</t>
+  </si>
+  <si>
+    <t>Check in was a breeze and the hotel is new, which is nice. My issue lies within my room location, the breakfast service and how customer service handled my issue. My room was on the first floor and shared a wall with the breakfast prep area that the staff uses to set up for the complimentary breakfast. Early in the morning, I was woken up by noise that sounded like plates tossed left and right, doors slammed and everything else in between. When I called the front desk, the only thing the agent could come up with was to move me to another room. Considering check out was in 4 hours, that was a pointless resolve. I asked for a late checkout and she only offered until 1 p.m., the standard late checkout time. I really wish they could have done more to resolve this inconvenience. BEWARE if you are placed on the first floor...MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Leo F, General Manager at Home2 Suites by Hilton Azusa, responded to this reviewResponded February 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2018</t>
+  </si>
+  <si>
+    <t>Check in was a breeze and the hotel is new, which is nice. My issue lies within my room location, the breakfast service and how customer service handled my issue. My room was on the first floor and shared a wall with the breakfast prep area that the staff uses to set up for the complimentary breakfast. Early in the morning, I was woken up by noise that sounded like plates tossed left and right, doors slammed and everything else in between. When I called the front desk, the only thing the agent could come up with was to move me to another room. Considering check out was in 4 hours, that was a pointless resolve. I asked for a late checkout and she only offered until 1 p.m., the standard late checkout time. I really wish they could have done more to resolve this inconvenience. BEWARE if you are placed on the first floor...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r558891789-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>558891789</t>
+  </si>
+  <si>
+    <t>02/06/2018</t>
+  </si>
+  <si>
+    <t>Wonderfully modern hotel</t>
+  </si>
+  <si>
+    <t>We booked this hotel as a weekend getaway for our family.  We were looking for something near home and inexpensive and this hotel exceeded our expectations.  The hotel was very modern, very clean and very comfortable.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Nicole H, Director of Sales at Home2 Suites by Hilton Azusa, responded to this reviewResponded February 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2018</t>
+  </si>
+  <si>
+    <t>We booked this hotel as a weekend getaway for our family.  We were looking for something near home and inexpensive and this hotel exceeded our expectations.  The hotel was very modern, very clean and very comfortable.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r557230022-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>557230022</t>
+  </si>
+  <si>
+    <t>01/29/2018</t>
+  </si>
+  <si>
+    <t>Big Group</t>
+  </si>
+  <si>
+    <t>Home2 Suite provides great accommodation for the price. Location was great. There is a McDonald located in the parking lot, an In and Out across the street and a Mongolia BBQ next door. I wish the staff would not have scare me by telling me that they did not have my credit card authorization on file when they did. Making large group accommodation should not be this stressful.   MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Nicole H, Director of Sales at Home2 Suites by Hilton Azusa, responded to this reviewResponded January 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2018</t>
+  </si>
+  <si>
+    <t>Home2 Suite provides great accommodation for the price. Location was great. There is a McDonald located in the parking lot, an In and Out across the street and a Mongolia BBQ next door. I wish the staff would not have scare me by telling me that they did not have my credit card authorization on file when they did. Making large group accommodation should not be this stressful.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r557181204-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>557181204</t>
+  </si>
+  <si>
+    <t>Great hotel and close to Azusa Pacific College.</t>
+  </si>
+  <si>
+    <t>The hotel is new so everything worked great and the staff were very accommodating. The hotel is close to everything you could need.  The breakfast is OK but could have a few more protein choices. The location is by a freeway but we did not hear it in the room.   MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is new so everything worked great and the staff were very accommodating. The hotel is close to everything you could need.  The breakfast is OK but could have a few more protein choices. The location is by a freeway but we did not hear it in the room.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r556748793-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>556748793</t>
+  </si>
+  <si>
+    <t>01/27/2018</t>
+  </si>
+  <si>
+    <t>PLEASANT STAY</t>
+  </si>
+  <si>
+    <t>I'll definitely be coming back here.  This hotel is new. Looks modern. Isn't outdated. Loved everything about this place. Only thing I have negative to say the complimentary continental breakfast could've had more of a selection MoreShow less</t>
+  </si>
+  <si>
+    <t>Nicole H, Director of Sales at Home2 Suites by Hilton Azusa, responded to this reviewResponded February 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2018</t>
+  </si>
+  <si>
+    <t>I'll definitely be coming back here.  This hotel is new. Looks modern. Isn't outdated. Loved everything about this place. Only thing I have negative to say the complimentary continental breakfast could've had more of a selection More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r554283209-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>554283209</t>
+  </si>
+  <si>
+    <t>01/16/2018</t>
+  </si>
+  <si>
+    <t>Gem of the Foothills</t>
+  </si>
+  <si>
+    <t>I'm going to to admit that I was hesitant about staying here because this part of Azusa is a bit run down and not known for great hotels... until now.  From the moment I walked in I was pleasantly surprised.  The staff was courteous, the rooms were clean, the bed was very comfortable, and the complimentary breakfast was great for people on the go.  I only wish I didn't have to leave early so I could enjoy it a bit longer. I would definitely recommend and return.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nicole H, Director of Sales at Home2 Suites by Hilton Azusa, responded to this reviewResponded January 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2018</t>
+  </si>
+  <si>
+    <t>I'm going to to admit that I was hesitant about staying here because this part of Azusa is a bit run down and not known for great hotels... until now.  From the moment I walked in I was pleasantly surprised.  The staff was courteous, the rooms were clean, the bed was very comfortable, and the complimentary breakfast was great for people on the go.  I only wish I didn't have to leave early so I could enjoy it a bit longer. I would definitely recommend and return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r552403171-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>552403171</t>
+  </si>
+  <si>
+    <t>01/08/2018</t>
+  </si>
+  <si>
+    <t>Clean, new, &amp; friendly</t>
+  </si>
+  <si>
+    <t>Stayed in a king suite on the 4th floor. Very quiet despite next to fwy.Gas station in front, McDonald’s next door-handy.Pool is a small rectangle and was mildly heated.Staff was EXCELLENT. Automated blackout shades were great!Included breakfast was good with lots of options. Beds were comfy; sheets were soft &amp; pillows were plenty.Kitchen was ok-not a “full” kitchen as it didn’t have an oven or stove, but there is a microwave, dishwasher, coffeemaker, and full size fridge. And toaster. My only real complaint was a very tiny bottle of shampoo :(Otherwise a good place if you need to stay for business. Free WiFi MoreShow less</t>
+  </si>
+  <si>
+    <t>Nicole H, Director of Sales at Home2 Suites by Hilton Azusa, responded to this reviewResponded January 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2018</t>
+  </si>
+  <si>
+    <t>Stayed in a king suite on the 4th floor. Very quiet despite next to fwy.Gas station in front, McDonald’s next door-handy.Pool is a small rectangle and was mildly heated.Staff was EXCELLENT. Automated blackout shades were great!Included breakfast was good with lots of options. Beds were comfy; sheets were soft &amp; pillows were plenty.Kitchen was ok-not a “full” kitchen as it didn’t have an oven or stove, but there is a microwave, dishwasher, coffeemaker, and full size fridge. And toaster. My only real complaint was a very tiny bottle of shampoo :(Otherwise a good place if you need to stay for business. Free WiFi More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r552021257-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>552021257</t>
+  </si>
+  <si>
+    <t>01/06/2018</t>
+  </si>
+  <si>
+    <t>A very pleasant surprise!</t>
+  </si>
+  <si>
+    <t>On a whim, we decide to spend the night in southern California so we could go to Santa Anita to see the races. We found this hotel on our Hilton app. We'd never even heard of a Home2 Suites. I have to say, it was awesome! Clean, nicely decorated, good breakfast, and friendly staff. I would stay there again and again!MoreShow less</t>
+  </si>
+  <si>
+    <t>On a whim, we decide to spend the night in southern California so we could go to Santa Anita to see the races. We found this hotel on our Hilton app. We'd never even heard of a Home2 Suites. I have to say, it was awesome! Clean, nicely decorated, good breakfast, and friendly staff. I would stay there again and again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r551074839-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>551074839</t>
+  </si>
+  <si>
+    <t>01/02/2018</t>
+  </si>
+  <si>
+    <t>AMAZING!!</t>
+  </si>
+  <si>
+    <t>I came here for a little gateway and it was very nice to be in a place as clean as my home.... Thank you for making our stay very good and comfy. I will send my friends and family to have an equal or better experience. I would like to thank the staff for making us feel appreciated and valued. We are very low maintenance people.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nicole H, Director of Sales at Home2 Suites by Hilton Azusa, responded to this reviewResponded January 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2018</t>
+  </si>
+  <si>
+    <t>I came here for a little gateway and it was very nice to be in a place as clean as my home.... Thank you for making our stay very good and comfy. I will send my friends and family to have an equal or better experience. I would like to thank the staff for making us feel appreciated and valued. We are very low maintenance people.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r550534459-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>550534459</t>
+  </si>
+  <si>
+    <t>12/31/2017</t>
+  </si>
+  <si>
+    <t>Wow, Wow, Wow!!</t>
+  </si>
+  <si>
+    <t>This is a wonderful clean new hotel. It had more amenities than most Hilton properties and is perfect if you are staying more than a few days. The rooms have large refrigerators, full size microwave ovens, dishwasher, all the kitchen items you would ever need. A cool pull out table. Comfy beds and lots of plug ins!Breakfast had more offerings than Hampton inns do. Loved the Jimmy Dean breakfast items to cook in the microwave. Oatmeal with a lot of toppings. Waffle maker with lots of different syrups. Staff were very helpful and made us feel like a valued customer. We would definitely stay here again and will remember this new Hilton concept for the future!MoreShow less</t>
+  </si>
+  <si>
+    <t>Nicole H, Director of Sales at Home2 Suites by Hilton Azusa, responded to this reviewResponded January 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2018</t>
+  </si>
+  <si>
+    <t>This is a wonderful clean new hotel. It had more amenities than most Hilton properties and is perfect if you are staying more than a few days. The rooms have large refrigerators, full size microwave ovens, dishwasher, all the kitchen items you would ever need. A cool pull out table. Comfy beds and lots of plug ins!Breakfast had more offerings than Hampton inns do. Loved the Jimmy Dean breakfast items to cook in the microwave. Oatmeal with a lot of toppings. Waffle maker with lots of different syrups. Staff were very helpful and made us feel like a valued customer. We would definitely stay here again and will remember this new Hilton concept for the future!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r549420334-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>549420334</t>
+  </si>
+  <si>
+    <t>12/26/2017</t>
+  </si>
+  <si>
+    <t>Improve Please</t>
+  </si>
+  <si>
+    <t>You Have seen my Review. Your hotel was not the Best in any means. We had No Choice but to stay there. I hope Not to stay in another one of your hotels, especially if I have to stay there for weeks. Please be advised everyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>You Have seen my Review. Your hotel was not the Best in any means. We had No Choice but to stay there. I hope Not to stay in another one of your hotels, especially if I have to stay there for weeks. Please be advised everyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r543099103-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>543099103</t>
+  </si>
+  <si>
+    <t>11/24/2017</t>
+  </si>
+  <si>
+    <t>When I first walk into the hotel lobby is had a very freh look to it and was brightly lit.  Te check in process was efficient.  The room was quite satisfactory.  The complimentary breakfast items were sufficient.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Nicole H, Director of Sales at Home2 Suites by Hilton Azusa, responded to this reviewResponded December 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2017</t>
+  </si>
+  <si>
+    <t>When I first walk into the hotel lobby is had a very freh look to it and was brightly lit.  Te check in process was efficient.  The room was quite satisfactory.  The complimentary breakfast items were sufficient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r542300170-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>542300170</t>
+  </si>
+  <si>
+    <t>11/20/2017</t>
+  </si>
+  <si>
+    <t>Loved the suite the room was clean and relaxing. The breakfast waas great good and easy. I plan to stay again.</t>
+  </si>
+  <si>
+    <t>The suite was Beautiful and clean. I loved the breakfast. Obplan to stay again. I would like to try a different area. That is the least negative of my stay. All was great and totally revcomemd to my friends.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>The suite was Beautiful and clean. I loved the breakfast. Obplan to stay again. I would like to try a different area. That is the least negative of my stay. All was great and totally revcomemd to my friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r541485451-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>541485451</t>
+  </si>
+  <si>
+    <t>11/16/2017</t>
+  </si>
+  <si>
+    <t>Handicap accessible room (3.5 star) better than regular rooms (2 stars).</t>
+  </si>
+  <si>
+    <t>Convenient location for Azusa Pacific University visits, but not much else.
+The handicap accessible 1 bedroom suite room is much larger and nicer than the regular/standard sized room, since the spacious bathroom with a full tub is great. In contrast, the space between the toilet and the shower in the standard, regular rooms is extremely narrow and makes it awkward just to enter and exit the small shower.  The handicap room has a bathtub with multiple options for water sources depending upon a person's needs. The window shade in the regular room was slightly broken, and could not be pulled to close and cover the bright lights of the gas station, parking lot, and McDonald's. The solution was to climb up onto the heater and manually straighten out and pull down the window shade--after that we were able to use the shade pull properly to open and close the shade. In the handicap room there was an automated button control on the wall to open and close the shade, and it worked. Of the room selection offered, would definitely pay more and go for the one bedroom suite.
+The beds were fine, but the doors aren't soundproof, and hallway noise and conversations may be heard. 
+The parking lot is a bit dangerous because the adjacent McDonald's Drive Thru has cars speeding through the same /shared parking lot to exit. The parking spaces on the quieter back side of the hotel...Convenient location for Azusa Pacific University visits, but not much else.The handicap accessible 1 bedroom suite room is much larger and nicer than the regular/standard sized room, since the spacious bathroom with a full tub is great. In contrast, the space between the toilet and the shower in the standard, regular rooms is extremely narrow and makes it awkward just to enter and exit the small shower.  The handicap room has a bathtub with multiple options for water sources depending upon a person's needs. The window shade in the regular room was slightly broken, and could not be pulled to close and cover the bright lights of the gas station, parking lot, and McDonald's. The solution was to climb up onto the heater and manually straighten out and pull down the window shade--after that we were able to use the shade pull properly to open and close the shade. In the handicap room there was an automated button control on the wall to open and close the shade, and it worked. Of the room selection offered, would definitely pay more and go for the one bedroom suite.The beds were fine, but the doors aren't soundproof, and hallway noise and conversations may be heard. The parking lot is a bit dangerous because the adjacent McDonald's Drive Thru has cars speeding through the same /shared parking lot to exit. The parking spaces on the quieter back side of the hotel has some lighting, but also seems like an easy spot for people to smash and grab break-in to guests' cars.  Breakfast is not good, but complimentary, and the seating is insufficient for the large number of guests.  The microwaves to heat these frozen breakfast sandwiches sometimes does not work, and they are just processed food type sandwiches--not fresh. Too many guests, esp. unsupervised children, make a mess, and it's not the hotel staff's fault when one spill they clean up gets replaced by a new dribbling mess of juice or waffle batter mix, and so on.  The neighborhood ambience is slightly mixed, and one morning when we were in the lobby we saw two police officers speak to the front desk staff discussing an apparent fight or issue that occurred on the premises the night before, but didn't make it feel all that safe.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Convenient location for Azusa Pacific University visits, but not much else.
+The handicap accessible 1 bedroom suite room is much larger and nicer than the regular/standard sized room, since the spacious bathroom with a full tub is great. In contrast, the space between the toilet and the shower in the standard, regular rooms is extremely narrow and makes it awkward just to enter and exit the small shower.  The handicap room has a bathtub with multiple options for water sources depending upon a person's needs. The window shade in the regular room was slightly broken, and could not be pulled to close and cover the bright lights of the gas station, parking lot, and McDonald's. The solution was to climb up onto the heater and manually straighten out and pull down the window shade--after that we were able to use the shade pull properly to open and close the shade. In the handicap room there was an automated button control on the wall to open and close the shade, and it worked. Of the room selection offered, would definitely pay more and go for the one bedroom suite.
+The beds were fine, but the doors aren't soundproof, and hallway noise and conversations may be heard. 
+The parking lot is a bit dangerous because the adjacent McDonald's Drive Thru has cars speeding through the same /shared parking lot to exit. The parking spaces on the quieter back side of the hotel...Convenient location for Azusa Pacific University visits, but not much else.The handicap accessible 1 bedroom suite room is much larger and nicer than the regular/standard sized room, since the spacious bathroom with a full tub is great. In contrast, the space between the toilet and the shower in the standard, regular rooms is extremely narrow and makes it awkward just to enter and exit the small shower.  The handicap room has a bathtub with multiple options for water sources depending upon a person's needs. The window shade in the regular room was slightly broken, and could not be pulled to close and cover the bright lights of the gas station, parking lot, and McDonald's. The solution was to climb up onto the heater and manually straighten out and pull down the window shade--after that we were able to use the shade pull properly to open and close the shade. In the handicap room there was an automated button control on the wall to open and close the shade, and it worked. Of the room selection offered, would definitely pay more and go for the one bedroom suite.The beds were fine, but the doors aren't soundproof, and hallway noise and conversations may be heard. The parking lot is a bit dangerous because the adjacent McDonald's Drive Thru has cars speeding through the same /shared parking lot to exit. The parking spaces on the quieter back side of the hotel has some lighting, but also seems like an easy spot for people to smash and grab break-in to guests' cars.  Breakfast is not good, but complimentary, and the seating is insufficient for the large number of guests.  The microwaves to heat these frozen breakfast sandwiches sometimes does not work, and they are just processed food type sandwiches--not fresh. Too many guests, esp. unsupervised children, make a mess, and it's not the hotel staff's fault when one spill they clean up gets replaced by a new dribbling mess of juice or waffle batter mix, and so on.  The neighborhood ambience is slightly mixed, and one morning when we were in the lobby we saw two police officers speak to the front desk staff discussing an apparent fight or issue that occurred on the premises the night before, but didn't make it feel all that safe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r540560744-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>540560744</t>
+  </si>
+  <si>
+    <t>11/12/2017</t>
+  </si>
+  <si>
+    <t>Great staff and a convenient Hotel</t>
+  </si>
+  <si>
+    <t>Spent one night here with business at Azusa Pacific. It's very convenient to the school and center. Seemed like a safe area with a McDonald's right across the parking lot and other places to eat close to the hotel. Staff were very helpful and the rooms are awesome! Clean hotel. My only issues were the shower ran out of soap (wall mounted) and no water pressure in the kitchen faucet. To be fair, had I mentioned these to the staff I'm sure they would have fixed them. So I would highly recommend this hotel to business and family and would definitely stay here again! No major complaints! MoreShow less</t>
+  </si>
+  <si>
+    <t>Spent one night here with business at Azusa Pacific. It's very convenient to the school and center. Seemed like a safe area with a McDonald's right across the parking lot and other places to eat close to the hotel. Staff were very helpful and the rooms are awesome! Clean hotel. My only issues were the shower ran out of soap (wall mounted) and no water pressure in the kitchen faucet. To be fair, had I mentioned these to the staff I'm sure they would have fixed them. So I would highly recommend this hotel to business and family and would definitely stay here again! No major complaints! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r540532377-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>540532377</t>
+  </si>
+  <si>
+    <t>No Ruby Slippers Needed...</t>
+  </si>
+  <si>
+    <t>Have you ever been traveling and wished you were back home - sleeping in your own bed or fixing a meal in your own kitchen? Well now you can have the next best thing! And you don't have to wear ruby slippers to get there (unless that's your thing)!
+My family and I had the pleasure of trying out the recently-opened (may 2017) Home2 Suites by Hilton in Azusa CA, and it is (quite literally) a home away from home. Our visit wasn't the usual 1 or 2 day stay, but a full week. So I had plenty of time to experience many of the amenities offered by this exceptional home away from home. The suites are set up like a small apartment, complete with a large flat screen TV; work desk and seating area; dishes, silverware and glasses; a refrigerator (not a tiny dorm room size either); a microwave; a kitchen sink; and, all the pots, pans and other kitchen accessories needed to make your stay amazing. The bathrooms are spacious, the showers large and equipped for people like my 88 year old dad, and the in-shower shampoo and body wash dispensers are filled with Neutrogena products!
+The facilities include a fully equipped exercise room - complete with a filtered water dispenser, and a rack full of fresh, clean towels!; a laundry room with 2 washers and 2 dryers; a fairly well stocked "pantry" store; and outdoor seating area...Have you ever been traveling and wished you were back home - sleeping in your own bed or fixing a meal in your own kitchen? Well now you can have the next best thing! And you don't have to wear ruby slippers to get there (unless that's your thing)!My family and I had the pleasure of trying out the recently-opened (may 2017) Home2 Suites by Hilton in Azusa CA, and it is (quite literally) a home away from home. Our visit wasn't the usual 1 or 2 day stay, but a full week. So I had plenty of time to experience many of the amenities offered by this exceptional home away from home. The suites are set up like a small apartment, complete with a large flat screen TV; work desk and seating area; dishes, silverware and glasses; a refrigerator (not a tiny dorm room size either); a microwave; a kitchen sink; and, all the pots, pans and other kitchen accessories needed to make your stay amazing. The bathrooms are spacious, the showers large and equipped for people like my 88 year old dad, and the in-shower shampoo and body wash dispensers are filled with Neutrogena products!The facilities include a fully equipped exercise room - complete with a filtered water dispenser, and a rack full of fresh, clean towels!; a laundry room with 2 washers and 2 dryers; a fairly well stocked "pantry" store; and outdoor seating area with fire pit; and, a very relaxing and comfortable front lounging area equipped with sofas and lounge chairs. There is also a set of high stool dining tables in the area adjacent to the front lobby where they serve a very respectable breakfast in the morning, including make it yourself wheat waffles, a variety of cereals, oatmeal, fruit, yogurt, breads, drinks, boiled eggs, an assortment of heat-n-serve items, and more.But all of the amenities pale in comparison to the way staff treats you! Honestly - it only our walking in the door before everyone was treating us like family!! And I know why. We had the opportunity to meet the hotel's manager - Leo Flores, and he explained his hiring philosophy. Rather than hire people with years of hotel experience, he looks for people with exceptional customer service experience and great personalities. An=d it has REALLY paid off!!! If there was anything we needed, all we had to do was ask and the staff was there to help in every way possible. From the front desk, to the room service staff, and all the way to the maintenance crew, every single person on staff asked the same question, "How can I serve you?"In a 5-star rating system, this place gets 7.5 stars for being well-priced, exceptionally well planned, tailored to meet the needs of an individual or family, and for going far beyond any expectation to make you feel right at home... make that - "...right at Home2!"If you are   ANYWHERE NEAR Azusa   and looking for a place to stay - stop in, ask for Leo, take a quick tour, and you'll be glad you did!MoreShow less</t>
+  </si>
+  <si>
+    <t>Have you ever been traveling and wished you were back home - sleeping in your own bed or fixing a meal in your own kitchen? Well now you can have the next best thing! And you don't have to wear ruby slippers to get there (unless that's your thing)!
+My family and I had the pleasure of trying out the recently-opened (may 2017) Home2 Suites by Hilton in Azusa CA, and it is (quite literally) a home away from home. Our visit wasn't the usual 1 or 2 day stay, but a full week. So I had plenty of time to experience many of the amenities offered by this exceptional home away from home. The suites are set up like a small apartment, complete with a large flat screen TV; work desk and seating area; dishes, silverware and glasses; a refrigerator (not a tiny dorm room size either); a microwave; a kitchen sink; and, all the pots, pans and other kitchen accessories needed to make your stay amazing. The bathrooms are spacious, the showers large and equipped for people like my 88 year old dad, and the in-shower shampoo and body wash dispensers are filled with Neutrogena products!
+The facilities include a fully equipped exercise room - complete with a filtered water dispenser, and a rack full of fresh, clean towels!; a laundry room with 2 washers and 2 dryers; a fairly well stocked "pantry" store; and outdoor seating area...Have you ever been traveling and wished you were back home - sleeping in your own bed or fixing a meal in your own kitchen? Well now you can have the next best thing! And you don't have to wear ruby slippers to get there (unless that's your thing)!My family and I had the pleasure of trying out the recently-opened (may 2017) Home2 Suites by Hilton in Azusa CA, and it is (quite literally) a home away from home. Our visit wasn't the usual 1 or 2 day stay, but a full week. So I had plenty of time to experience many of the amenities offered by this exceptional home away from home. The suites are set up like a small apartment, complete with a large flat screen TV; work desk and seating area; dishes, silverware and glasses; a refrigerator (not a tiny dorm room size either); a microwave; a kitchen sink; and, all the pots, pans and other kitchen accessories needed to make your stay amazing. The bathrooms are spacious, the showers large and equipped for people like my 88 year old dad, and the in-shower shampoo and body wash dispensers are filled with Neutrogena products!The facilities include a fully equipped exercise room - complete with a filtered water dispenser, and a rack full of fresh, clean towels!; a laundry room with 2 washers and 2 dryers; a fairly well stocked "pantry" store; and outdoor seating area with fire pit; and, a very relaxing and comfortable front lounging area equipped with sofas and lounge chairs. There is also a set of high stool dining tables in the area adjacent to the front lobby where they serve a very respectable breakfast in the morning, including make it yourself wheat waffles, a variety of cereals, oatmeal, fruit, yogurt, breads, drinks, boiled eggs, an assortment of heat-n-serve items, and more.But all of the amenities pale in comparison to the way staff treats you! Honestly - it only our walking in the door before everyone was treating us like family!! And I know why. We had the opportunity to meet the hotel's manager - Leo Flores, and he explained his hiring philosophy. Rather than hire people with years of hotel experience, he looks for people with exceptional customer service experience and great personalities. An=d it has REALLY paid off!!! If there was anything we needed, all we had to do was ask and the staff was there to help in every way possible. From the front desk, to the room service staff, and all the way to the maintenance crew, every single person on staff asked the same question, "How can I serve you?"In a 5-star rating system, this place gets 7.5 stars for being well-priced, exceptionally well planned, tailored to meet the needs of an individual or family, and for going far beyond any expectation to make you feel right at home... make that - "...right at Home2!"If you are   ANYWHERE NEAR Azusa   and looking for a place to stay - stop in, ask for Leo, take a quick tour, and you'll be glad you did!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r540038057-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>540038057</t>
+  </si>
+  <si>
+    <t>11/10/2017</t>
+  </si>
+  <si>
+    <t>Modern, clean, friendly hotel in decent location</t>
+  </si>
+  <si>
+    <t>It was evident this was a fairly new hotel (opened in May 2017) and has all the modern amenities you expect in a all-suites hotel.  It was very clean and the staff was friendly.  There was some noise from the road because my room was on the front side of the hotel facing the busy street, but the room was otherwise comfortable and provided a great night's sleep before my early morning marathon.MoreShow less</t>
+  </si>
+  <si>
+    <t>It was evident this was a fairly new hotel (opened in May 2017) and has all the modern amenities you expect in a all-suites hotel.  It was very clean and the staff was friendly.  There was some noise from the road because my room was on the front side of the hotel facing the busy street, but the room was otherwise comfortable and provided a great night's sleep before my early morning marathon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r539297011-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>539297011</t>
+  </si>
+  <si>
+    <t>11/07/2017</t>
+  </si>
+  <si>
+    <t>best hotel in azusa for Marathon</t>
+  </si>
+  <si>
+    <t>I've stay here during my Revel Cayon Marathon Race.  Great service and the shuttle come is very punctual .. I recommend this hotel for business or personal stay.  However the breakfast can be better then bagels or bread.  As a runner I love to see more eggs, protein of some kind.  Water dispenser..MoreShow less</t>
+  </si>
+  <si>
+    <t>I've stay here during my Revel Cayon Marathon Race.  Great service and the shuttle come is very punctual .. I recommend this hotel for business or personal stay.  However the breakfast can be better then bagels or bread.  As a runner I love to see more eggs, protein of some kind.  Water dispenser..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r538071876-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>538071876</t>
+  </si>
+  <si>
+    <t>11/03/2017</t>
+  </si>
+  <si>
+    <t>Unhelpful people</t>
+  </si>
+  <si>
+    <t>I waa going to leave agood rwview until i mistakenly left my room keycard in my room when i went down for coffee in the morning.  Woman at the front desk wanted ID in addition to all the other verification info that it was really me trying to get into my room. Of course I didnt have my ID since it was in my wallet along with my room card. She was a complete !@#$% and I ened up having to wake up my family to het back into the room, which I was trying to avoid. It is nice that they want to verify who you are, but this chick wrnt to far. I just wonder what the outcome would have been if I had been alone or we all came down and left everything in the room. That chick turned my good review into a bad one.MoreShow less</t>
+  </si>
+  <si>
+    <t>I waa going to leave agood rwview until i mistakenly left my room keycard in my room when i went down for coffee in the morning.  Woman at the front desk wanted ID in addition to all the other verification info that it was really me trying to get into my room. Of course I didnt have my ID since it was in my wallet along with my room card. She was a complete !@#$% and I ened up having to wake up my family to het back into the room, which I was trying to avoid. It is nice that they want to verify who you are, but this chick wrnt to far. I just wonder what the outcome would have been if I had been alone or we all came down and left everything in the room. That chick turned my good review into a bad one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r537605952-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>537605952</t>
+  </si>
+  <si>
+    <t>11/01/2017</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>This place was great! We loved the spacious one bedroom suite and large bathroom.The pull out sofa was smaller than expected but still comfortable.Staff was very friendly.Location was nice and easily accessible from freeway but a little sketchy of people wandering around parking lot due to the McDonald's next door.Breakfast had a great variety.We had to stay at a residence inn the next night in Beverly Hills and our Home2Suites made Beverly Hills VERY disappointing in comparison! Will definitely stay here againMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>This place was great! We loved the spacious one bedroom suite and large bathroom.The pull out sofa was smaller than expected but still comfortable.Staff was very friendly.Location was nice and easily accessible from freeway but a little sketchy of people wandering around parking lot due to the McDonald's next door.Breakfast had a great variety.We had to stay at a residence inn the next night in Beverly Hills and our Home2Suites made Beverly Hills VERY disappointing in comparison! Will definitely stay here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r537268791-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>537268791</t>
+  </si>
+  <si>
+    <t>10/30/2017</t>
+  </si>
+  <si>
+    <t>Great Location.  New Hotel.</t>
+  </si>
+  <si>
+    <t>Hotel nice and clean.  Very Friendly Staff.Breakfast Area Staff Unable to keep up with demand with poor selection and not clean during the morning.  Hotel very quiet at nite.  Parking Space was great for the area when coming in late at nite.   Access to Interstate 210 great!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel nice and clean.  Very Friendly Staff.Breakfast Area Staff Unable to keep up with demand with poor selection and not clean during the morning.  Hotel very quiet at nite.  Parking Space was great for the area when coming in late at nite.   Access to Interstate 210 great!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r537311525-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>537311525</t>
+  </si>
+  <si>
+    <t>Rough Night</t>
+  </si>
+  <si>
+    <t>Rough night because of the loud street noise through the night.  Also, we called twice for a blanket and pillows to be delivered to the room for our guests - sadly they which never arrived.  When we called a 2nd time they did tell us they were busy.  By midnight we went to sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rough night because of the loud street noise through the night.  Also, we called twice for a blanket and pillows to be delivered to the room for our guests - sadly they which never arrived.  When we called a 2nd time they did tell us they were busy.  By midnight we went to sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r535825135-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>535825135</t>
+  </si>
+  <si>
+    <t>10/24/2017</t>
+  </si>
+  <si>
+    <t>2017 LA Vacation</t>
+  </si>
+  <si>
+    <t>Great staff. Loved the hot breakfast options. Could use a couple more cereal choices. Fully stocked kitchen with plates, bowls, utensils, dish washer, microwave and full size refrigerator. Convenient to Los Angeles, Hollywood, Beverly Hills, the pacific coast and mountains.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great staff. Loved the hot breakfast options. Could use a couple more cereal choices. Fully stocked kitchen with plates, bowls, utensils, dish washer, microwave and full size refrigerator. Convenient to Los Angeles, Hollywood, Beverly Hills, the pacific coast and mountains.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r533929998-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>533929998</t>
+  </si>
+  <si>
+    <t>10/17/2017</t>
+  </si>
+  <si>
+    <t>great value</t>
+  </si>
+  <si>
+    <t>My family of 4 really enjoyed our one night stay here while we were in town for a quick visit with family.  The room was clean and well laid out, and I thought the full kitchen would have been very useful for a longer stay.  The bed was comfortable, the pull-out couch was perfect for the kids, and even the blinds were in good working order and easy to use (amazingly something that doesn't happen often).  The bathroom shower was big with a high shower head and a good strong water pressure.  Overall, the breakfast had a lot of options and lots of tables.  I wish there had been more fresh fruit and scrambled eggs.  We did not use the pool, but having a spa would be nice since evenings get cold.  I would definitely stay here again, just because everything was clean, in good working order, and the rooms pack a lot of organized function into a small space.MoreShow less</t>
+  </si>
+  <si>
+    <t>My family of 4 really enjoyed our one night stay here while we were in town for a quick visit with family.  The room was clean and well laid out, and I thought the full kitchen would have been very useful for a longer stay.  The bed was comfortable, the pull-out couch was perfect for the kids, and even the blinds were in good working order and easy to use (amazingly something that doesn't happen often).  The bathroom shower was big with a high shower head and a good strong water pressure.  Overall, the breakfast had a lot of options and lots of tables.  I wish there had been more fresh fruit and scrambled eggs.  We did not use the pool, but having a spa would be nice since evenings get cold.  I would definitely stay here again, just because everything was clean, in good working order, and the rooms pack a lot of organized function into a small space.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r527726154-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>527726154</t>
+  </si>
+  <si>
+    <t>09/26/2017</t>
+  </si>
+  <si>
+    <t>Nice new hotel</t>
+  </si>
+  <si>
+    <t>Close to Azusa Pacific to visit my daughter. Beds were super comfy and the sheets were so soft. I want some of those! Not much in the area but shopping is not that far away. Would stay here again. Rooms were nice and clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>Close to Azusa Pacific to visit my daughter. Beds were super comfy and the sheets were so soft. I want some of those! Not much in the area but shopping is not that far away. Would stay here again. Rooms were nice and clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r525289157-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>525289157</t>
+  </si>
+  <si>
+    <t>09/17/2017</t>
+  </si>
+  <si>
+    <t>Decent stay for a good deal</t>
+  </si>
+  <si>
+    <t>Really enjoyed the stay, customer service was good and so was housekeeping. I enjoyed the breakfast also. Good internet service and there's a pool and work out area. Would recommend to anyone coming to this area. MoreShow less</t>
+  </si>
+  <si>
+    <t>Really enjoyed the stay, customer service was good and so was housekeeping. I enjoyed the breakfast also. Good internet service and there's a pool and work out area. Would recommend to anyone coming to this area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r521498313-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>521498313</t>
+  </si>
+  <si>
+    <t>09/05/2017</t>
+  </si>
+  <si>
+    <t>Love it!</t>
+  </si>
+  <si>
+    <t>First, this hotel just completed about two months.    Everything about it was great!   Nice and refreshing from the lobby to the room.    I would defintely stay here again, but they just need a quieter A/C unit in the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>First, this hotel just completed about two months.    Everything about it was great!   Nice and refreshing from the lobby to the room.    I would defintely stay here again, but they just need a quieter A/C unit in the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r521616175-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>521616175</t>
+  </si>
+  <si>
+    <t>$125 pet fee is not a deposit</t>
+  </si>
+  <si>
+    <t>We evacuated our house due to the large fire in Los Angeles this past labor day weekend.  When booking the room with a reservation specialist over the phone and were told there was a $125 pet fee, which I had her clarify as a deposit that would be returned should our dog not make a mess.  After checking in to the hotel, the staff noticed my do and said I will need to pay a mandatory $125 pet fee.  I explained about being told it was a deposit and after some back and forth they reduced my fee to $100 and eventually $75.  I appreciate that they reduced the fee and they were very nice to deal with.  However I feel the fee should've been waived as there was a communication error on their part.    Aside from the pet fee mishap, the hotel was clean, and the suite was great.  The immediate area wasn't very nice but we weren't on vacation, but escaping a wild fire.MoreShow less</t>
+  </si>
+  <si>
+    <t>We evacuated our house due to the large fire in Los Angeles this past labor day weekend.  When booking the room with a reservation specialist over the phone and were told there was a $125 pet fee, which I had her clarify as a deposit that would be returned should our dog not make a mess.  After checking in to the hotel, the staff noticed my do and said I will need to pay a mandatory $125 pet fee.  I explained about being told it was a deposit and after some back and forth they reduced my fee to $100 and eventually $75.  I appreciate that they reduced the fee and they were very nice to deal with.  However I feel the fee should've been waived as there was a communication error on their part.    Aside from the pet fee mishap, the hotel was clean, and the suite was great.  The immediate area wasn't very nice but we weren't on vacation, but escaping a wild fire.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r516145831-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>516145831</t>
+  </si>
+  <si>
+    <t>08/21/2017</t>
+  </si>
+  <si>
+    <t>I love it!</t>
+  </si>
+  <si>
+    <t>Everything was brand new and super clean.  Felt like home.  Peace and quiet. The photos online does not do justice.  We originally booked for one night, but we ended up staying for two nights.  Definitely will be back!</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r514621301-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>514621301</t>
+  </si>
+  <si>
+    <t>08/17/2017</t>
+  </si>
+  <si>
+    <t>New hotel - great staff - ALLOWS DOGS!</t>
+  </si>
+  <si>
+    <t>This hotel had only opened in the last two weeks.  We could still smell the paint/construction orders, but it wasn't too bad - it was just noticeable.    We were expecting a better area for our dog to go pee.  There are no grass areas nearby, so we used the small parking lot islands (covered with bark).  They should consider a better solution.  The free breakfast was pretty good.  I liked having more than just bagels, cereal, and hard boiled eggs to choose from.    The service was GREAT.  The staff was very friendly and helpful with all of our requests.  You did a very good job on the training and hiring for such a recently opened hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel had only opened in the last two weeks.  We could still smell the paint/construction orders, but it wasn't too bad - it was just noticeable.    We were expecting a better area for our dog to go pee.  There are no grass areas nearby, so we used the small parking lot islands (covered with bark).  They should consider a better solution.  The free breakfast was pretty good.  I liked having more than just bagels, cereal, and hard boiled eggs to choose from.    The service was GREAT.  The staff was very friendly and helpful with all of our requests.  You did a very good job on the training and hiring for such a recently opened hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r511649102-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>511649102</t>
+  </si>
+  <si>
+    <t>08/11/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>This is one of my favorite hotels "HOME2" I search for them in every town I stay in. Always so clean, the staff is fantastic and the complimentary breakfast is phenomenal. We will always return! The rooms have full size fridges and dishwashers for longer term stays and a kitchen sink which is great for kids and food.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is one of my favorite hotels "HOME2" I search for them in every town I stay in. Always so clean, the staff is fantastic and the complimentary breakfast is phenomenal. We will always return! The rooms have full size fridges and dishwashers for longer term stays and a kitchen sink which is great for kids and food.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r509912122-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>509912122</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>This hotel was close to our son's college, APU, so we thought we would try it out.  Very clean, love the sheets (need some for my home), breakfast options were great, service was great, room was spacious, lots of kitchen benefits if someone is here for extended stay.  Would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was close to our son's college, APU, so we thought we would try it out.  Very clean, love the sheets (need some for my home), breakfast options were great, service was great, room was spacious, lots of kitchen benefits if someone is here for extended stay.  Would definitely stay here again!More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1687,3507 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>54</v>
+      </c>
+      <c r="X5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>54</v>
+      </c>
+      <c r="X6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>88</v>
+      </c>
+      <c r="X7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>88</v>
+      </c>
+      <c r="X8" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>88</v>
+      </c>
+      <c r="X9" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" t="s">
+        <v>107</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>114</v>
+      </c>
+      <c r="X11" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>113</v>
+      </c>
+      <c r="O12" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>122</v>
+      </c>
+      <c r="X12" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s">
+        <v>129</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>113</v>
+      </c>
+      <c r="O13" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>122</v>
+      </c>
+      <c r="X13" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" t="s">
+        <v>134</v>
+      </c>
+      <c r="L14" t="s">
+        <v>135</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>67</v>
+      </c>
+      <c r="O14" t="s">
+        <v>107</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>136</v>
+      </c>
+      <c r="X14" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>136</v>
+      </c>
+      <c r="X15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" t="s">
+        <v>150</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>67</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>151</v>
+      </c>
+      <c r="X16" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" t="s">
+        <v>157</v>
+      </c>
+      <c r="L17" t="s">
+        <v>158</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>144</v>
+      </c>
+      <c r="O17" t="s">
+        <v>107</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>160</v>
+      </c>
+      <c r="J18" t="s">
+        <v>161</v>
+      </c>
+      <c r="K18" t="s">
+        <v>162</v>
+      </c>
+      <c r="L18" t="s">
+        <v>163</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>144</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" t="s">
+        <v>166</v>
+      </c>
+      <c r="K19" t="s">
+        <v>167</v>
+      </c>
+      <c r="L19" t="s">
+        <v>168</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>144</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>170</v>
+      </c>
+      <c r="J20" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" t="s">
+        <v>172</v>
+      </c>
+      <c r="L20" t="s">
+        <v>173</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>174</v>
+      </c>
+      <c r="O20" t="s">
+        <v>107</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>151</v>
+      </c>
+      <c r="X20" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>176</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>177</v>
+      </c>
+      <c r="J21" t="s">
+        <v>178</v>
+      </c>
+      <c r="K21" t="s">
+        <v>179</v>
+      </c>
+      <c r="L21" t="s">
+        <v>180</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>174</v>
+      </c>
+      <c r="O21" t="s">
+        <v>181</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>182</v>
+      </c>
+      <c r="X21" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>185</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>186</v>
+      </c>
+      <c r="J22" t="s">
+        <v>187</v>
+      </c>
+      <c r="K22" t="s">
+        <v>188</v>
+      </c>
+      <c r="L22" t="s">
+        <v>189</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>174</v>
+      </c>
+      <c r="O22" t="s">
+        <v>74</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>190</v>
+      </c>
+      <c r="X22" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>193</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>194</v>
+      </c>
+      <c r="J23" t="s">
+        <v>195</v>
+      </c>
+      <c r="K23" t="s">
+        <v>196</v>
+      </c>
+      <c r="L23" t="s">
+        <v>197</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>198</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>199</v>
+      </c>
+      <c r="X23" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>202</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>203</v>
+      </c>
+      <c r="J24" t="s">
+        <v>195</v>
+      </c>
+      <c r="K24" t="s">
+        <v>204</v>
+      </c>
+      <c r="L24" t="s">
+        <v>205</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>198</v>
+      </c>
+      <c r="O24" t="s">
+        <v>107</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>199</v>
+      </c>
+      <c r="X24" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>208</v>
+      </c>
+      <c r="J25" t="s">
+        <v>209</v>
+      </c>
+      <c r="K25" t="s">
+        <v>210</v>
+      </c>
+      <c r="L25" t="s">
+        <v>211</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>198</v>
+      </c>
+      <c r="O25" t="s">
+        <v>74</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>212</v>
+      </c>
+      <c r="X25" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>215</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>216</v>
+      </c>
+      <c r="J26" t="s">
+        <v>217</v>
+      </c>
+      <c r="K26" t="s">
+        <v>218</v>
+      </c>
+      <c r="L26" t="s">
+        <v>219</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>198</v>
+      </c>
+      <c r="O26" t="s">
+        <v>107</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>220</v>
+      </c>
+      <c r="X26" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>223</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>224</v>
+      </c>
+      <c r="J27" t="s">
+        <v>225</v>
+      </c>
+      <c r="K27" t="s">
+        <v>226</v>
+      </c>
+      <c r="L27" t="s">
+        <v>227</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>198</v>
+      </c>
+      <c r="O27" t="s">
+        <v>74</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>228</v>
+      </c>
+      <c r="X27" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>231</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>232</v>
+      </c>
+      <c r="J28" t="s">
+        <v>233</v>
+      </c>
+      <c r="K28" t="s">
+        <v>234</v>
+      </c>
+      <c r="L28" t="s">
+        <v>235</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>87</v>
+      </c>
+      <c r="O28" t="s">
+        <v>74</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>228</v>
+      </c>
+      <c r="X28" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>237</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>238</v>
+      </c>
+      <c r="J29" t="s">
+        <v>239</v>
+      </c>
+      <c r="K29" t="s">
+        <v>240</v>
+      </c>
+      <c r="L29" t="s">
+        <v>241</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>87</v>
+      </c>
+      <c r="O29" t="s">
+        <v>107</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>242</v>
+      </c>
+      <c r="X29" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>245</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>246</v>
+      </c>
+      <c r="J30" t="s">
+        <v>247</v>
+      </c>
+      <c r="K30" t="s">
+        <v>248</v>
+      </c>
+      <c r="L30" t="s">
+        <v>249</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>250</v>
+      </c>
+      <c r="X30" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>253</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>254</v>
+      </c>
+      <c r="J31" t="s">
+        <v>255</v>
+      </c>
+      <c r="K31" t="s">
+        <v>256</v>
+      </c>
+      <c r="L31" t="s">
+        <v>257</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>87</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>250</v>
+      </c>
+      <c r="X31" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>259</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>260</v>
+      </c>
+      <c r="J32" t="s">
+        <v>261</v>
+      </c>
+      <c r="K32" t="s">
+        <v>59</v>
+      </c>
+      <c r="L32" t="s">
+        <v>262</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>263</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>264</v>
+      </c>
+      <c r="X32" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>267</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>268</v>
+      </c>
+      <c r="J33" t="s">
+        <v>269</v>
+      </c>
+      <c r="K33" t="s">
+        <v>270</v>
+      </c>
+      <c r="L33" t="s">
+        <v>271</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>263</v>
+      </c>
+      <c r="O33" t="s">
+        <v>272</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>264</v>
+      </c>
+      <c r="X33" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>274</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>275</v>
+      </c>
+      <c r="J34" t="s">
+        <v>276</v>
+      </c>
+      <c r="K34" t="s">
+        <v>277</v>
+      </c>
+      <c r="L34" t="s">
+        <v>278</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>279</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>264</v>
+      </c>
+      <c r="X34" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>281</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>282</v>
+      </c>
+      <c r="J35" t="s">
+        <v>283</v>
+      </c>
+      <c r="K35" t="s">
+        <v>284</v>
+      </c>
+      <c r="L35" t="s">
+        <v>285</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>263</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>264</v>
+      </c>
+      <c r="X35" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>287</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>288</v>
+      </c>
+      <c r="J36" t="s">
+        <v>283</v>
+      </c>
+      <c r="K36" t="s">
+        <v>289</v>
+      </c>
+      <c r="L36" t="s">
+        <v>290</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>263</v>
+      </c>
+      <c r="O36" t="s">
+        <v>74</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>264</v>
+      </c>
+      <c r="X36" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>292</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>293</v>
+      </c>
+      <c r="J37" t="s">
+        <v>294</v>
+      </c>
+      <c r="K37" t="s">
+        <v>295</v>
+      </c>
+      <c r="L37" t="s">
+        <v>296</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>263</v>
+      </c>
+      <c r="O37" t="s">
+        <v>272</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>264</v>
+      </c>
+      <c r="X37" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>298</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>299</v>
+      </c>
+      <c r="J38" t="s">
+        <v>300</v>
+      </c>
+      <c r="K38" t="s">
+        <v>301</v>
+      </c>
+      <c r="L38" t="s">
+        <v>302</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>263</v>
+      </c>
+      <c r="O38" t="s">
+        <v>272</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>264</v>
+      </c>
+      <c r="X38" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>304</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>305</v>
+      </c>
+      <c r="J39" t="s">
+        <v>306</v>
+      </c>
+      <c r="K39" t="s">
+        <v>307</v>
+      </c>
+      <c r="L39" t="s">
+        <v>308</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>263</v>
+      </c>
+      <c r="O39" t="s">
+        <v>74</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>264</v>
+      </c>
+      <c r="X39" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>310</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>311</v>
+      </c>
+      <c r="J40" t="s">
+        <v>312</v>
+      </c>
+      <c r="K40" t="s">
+        <v>313</v>
+      </c>
+      <c r="L40" t="s">
+        <v>314</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>315</v>
+      </c>
+      <c r="O40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>264</v>
+      </c>
+      <c r="X40" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>317</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>318</v>
+      </c>
+      <c r="J41" t="s">
+        <v>319</v>
+      </c>
+      <c r="K41" t="s">
+        <v>320</v>
+      </c>
+      <c r="L41" t="s">
+        <v>321</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>315</v>
+      </c>
+      <c r="O41" t="s">
+        <v>74</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>264</v>
+      </c>
+      <c r="X41" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>323</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>324</v>
+      </c>
+      <c r="J42" t="s">
+        <v>319</v>
+      </c>
+      <c r="K42" t="s">
+        <v>325</v>
+      </c>
+      <c r="L42" t="s">
+        <v>326</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>315</v>
+      </c>
+      <c r="O42" t="s">
+        <v>181</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>264</v>
+      </c>
+      <c r="X42" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>328</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>329</v>
+      </c>
+      <c r="J43" t="s">
+        <v>330</v>
+      </c>
+      <c r="K43" t="s">
+        <v>331</v>
+      </c>
+      <c r="L43" t="s">
+        <v>332</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>315</v>
+      </c>
+      <c r="O43" t="s">
+        <v>74</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>264</v>
+      </c>
+      <c r="X43" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>334</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>335</v>
+      </c>
+      <c r="J44" t="s">
+        <v>336</v>
+      </c>
+      <c r="K44" t="s">
+        <v>337</v>
+      </c>
+      <c r="L44" t="s">
+        <v>338</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>315</v>
+      </c>
+      <c r="O44" t="s">
+        <v>74</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>264</v>
+      </c>
+      <c r="X44" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>340</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>341</v>
+      </c>
+      <c r="J45" t="s">
+        <v>342</v>
+      </c>
+      <c r="K45" t="s">
+        <v>343</v>
+      </c>
+      <c r="L45" t="s">
+        <v>344</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>279</v>
+      </c>
+      <c r="O45" t="s">
+        <v>74</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>264</v>
+      </c>
+      <c r="X45" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>346</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>347</v>
+      </c>
+      <c r="J46" t="s">
+        <v>348</v>
+      </c>
+      <c r="K46" t="s">
+        <v>349</v>
+      </c>
+      <c r="L46" t="s">
+        <v>350</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>279</v>
+      </c>
+      <c r="O46" t="s">
+        <v>107</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>264</v>
+      </c>
+      <c r="X46" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>352</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>353</v>
+      </c>
+      <c r="J47" t="s">
+        <v>354</v>
+      </c>
+      <c r="K47" t="s">
+        <v>355</v>
+      </c>
+      <c r="L47" t="s">
+        <v>356</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>279</v>
+      </c>
+      <c r="O47" t="s">
+        <v>74</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>264</v>
+      </c>
+      <c r="X47" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>358</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>359</v>
+      </c>
+      <c r="J48" t="s">
+        <v>354</v>
+      </c>
+      <c r="K48" t="s">
+        <v>360</v>
+      </c>
+      <c r="L48" t="s">
+        <v>361</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>279</v>
+      </c>
+      <c r="O48" t="s">
+        <v>74</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>2</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>264</v>
+      </c>
+      <c r="X48" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>363</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>364</v>
+      </c>
+      <c r="J49" t="s">
+        <v>365</v>
+      </c>
+      <c r="K49" t="s">
+        <v>366</v>
+      </c>
+      <c r="L49" t="s">
+        <v>367</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>368</v>
+      </c>
+      <c r="O49" t="s">
+        <v>107</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>369</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>370</v>
+      </c>
+      <c r="J50" t="s">
+        <v>371</v>
+      </c>
+      <c r="K50" t="s">
+        <v>372</v>
+      </c>
+      <c r="L50" t="s">
+        <v>373</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>368</v>
+      </c>
+      <c r="O50" t="s">
+        <v>74</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>264</v>
+      </c>
+      <c r="X50" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>375</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>376</v>
+      </c>
+      <c r="J51" t="s">
+        <v>377</v>
+      </c>
+      <c r="K51" t="s">
+        <v>378</v>
+      </c>
+      <c r="L51" t="s">
+        <v>379</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>368</v>
+      </c>
+      <c r="O51" t="s">
+        <v>74</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>264</v>
+      </c>
+      <c r="X51" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>381</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>382</v>
+      </c>
+      <c r="J52" t="s">
+        <v>383</v>
+      </c>
+      <c r="K52" t="s">
+        <v>384</v>
+      </c>
+      <c r="L52" t="s">
+        <v>385</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>368</v>
+      </c>
+      <c r="O52" t="s">
+        <v>74</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>264</v>
+      </c>
+      <c r="X52" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>386</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_392.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_392.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="437">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>lceco</t>
+  </si>
+  <si>
     <t>07/04/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>This was my first time staying in a Home2 Suites room and it was a really great experience.   The small suite was comfortable, plenty of room, very clean, and very well appointed, with almost a full kitchen, minus a stove/oven.    The words that came to mind when I first walked in were More</t>
   </si>
   <si>
+    <t>Zefin G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r591164088-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>First time at a Home2, and was worth the chance, as the price and condition of this facility was excellent. Breakfast item choice was a little sparse, but consdiering it was free, better than not having an option. Coffee available all the time!More</t>
   </si>
   <si>
+    <t>George1133</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r590675315-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t>This is rather new hotel and I would say a good 1 night stay.The rooms are basic but it's economy design is pretty smart so that you feel very comfortable. And also colourful design gives you a feeling of higher class.We have arrived rather late so the bar was closed.The breakfast area is basic and offering really economic. I recommend to skip it.In general it is a very good value hotel as it really reasonable priced.More</t>
   </si>
   <si>
+    <t>kyleeandpapa143</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r589124108-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -246,6 +258,9 @@
     <t>Everything went smooth clean, fancy, and i would say best hotel within 20 miles. I enjoyed the pool with the two grills they had. The breakfast and staff where as good as could be. I will stay there again soon.                                      More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r589064551-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -264,6 +279,9 @@
     <t>The staff are exceptional! The place was clean and cleaning services were provided daily, unlike most hotels. The price was low compared to area hotels and the rooms were much larger. This is the best hotel in the area! More</t>
   </si>
   <si>
+    <t>Julie F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r588543500-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -291,6 +309,9 @@
     <t>We always stay here when visiting our son at Azusa Pacific University.  It's close to the school, close to the freeway.  The hotel is clean.  They offer free breakfast.  Rooms are good size and have all the amenities for an extended stay.More</t>
   </si>
   <si>
+    <t>SusieP0728</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r586083297-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -309,6 +330,9 @@
     <t>Hotel close to everything.  Staff is very friendly and parking is easy. Lobby is nice and breakfast was good. Lots of room to work in lobby and snacks and waters were close by. Restaurants are in walking distance More</t>
   </si>
   <si>
+    <t>pioquinto216</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r586081672-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -324,6 +348,9 @@
     <t>Second time I stay. As exceptional as the first. Rooms are quiet, beds are comfortable, staff is nice. Good food close by, continental breakfast was good, and even though I210 is close by you cannot year the noise. More</t>
   </si>
   <si>
+    <t>tiggermm2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r585671579-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -342,6 +369,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Toni H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r579653936-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -369,6 +399,9 @@
     <t>This hotel met all of our expectations.   It was roomy, clean, great location, and priced right.  The staff was courteous, friendly, and helpful.   We loved the fact that the in room there was plenty of light and everything was easily accessible.  More</t>
   </si>
   <si>
+    <t>smiller0152</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r579322561-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -393,6 +426,9 @@
     <t>Booked this hotel due to location, near Azusa Pacific University. It was my first time staying in this hotel. It was very clean, the staff was great and a nice breakfast was included. I will definitely stay again. And, it's located right off I-210.More</t>
   </si>
   <si>
+    <t>cdbrussow</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r579062429-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -411,6 +447,9 @@
     <t>Very pleasant atmosphere with an efficiency-type apartment. The room was very clean and I was especially pleased with the cleanliness of the bathroom. I liked having the soap and shampoo in dispensers in the shower.More</t>
   </si>
   <si>
+    <t>miluska2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r572532603-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -435,6 +474,9 @@
     <t>This people were super friendly. The suite was roomy with a clean kitchen and a sofa sleeper. The bed was comfortable and clean. The location was perfect, easy access to freeway and to a variety of restaurants! I would definitely stay her again! More</t>
   </si>
   <si>
+    <t>Denise M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r571936402-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -456,6 +498,9 @@
     <t>Please check your room for bed bugs!! staff did nothing to help me find other accomodations...Oh wait, I did get 5 large garbage bags for my troubles....They stated they were going to call an exterminator &amp; mngmt was going to call me ... no one has called me yet!!!More</t>
   </si>
   <si>
+    <t>ken3212018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r571542634-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -480,6 +525,9 @@
     <t>Hotel is clean and easy to access from the freeway. Staff are friendly and generally accommodating. Nice complementary breakfast but they do not offer dinner or a Managers Evening Social during the week. Rooms are new, clean and have nice kitchen area. More</t>
   </si>
   <si>
+    <t>Yelitza C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r566585686-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -495,6 +543,9 @@
     <t>It was amazing especially for the price! I was here for four nights and only paid 549. Although the window was dirty overall I had a great experience. I definitely recommend this hotel and if you don’t want to have breakfast at the hotel McDonalds is literally a few steps away.</t>
   </si>
   <si>
+    <t>destinivarrin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r566080293-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -510,6 +561,9 @@
     <t>verall the hotel was nice. Clean rooms (aside from trash from previous guest left behind) Sheets were amazing!! I want to buy some for my house. UNBELIEVABLE comfy bed. Slept well, which is rare for a hotel experience.</t>
   </si>
   <si>
+    <t>art14244</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r565451872-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -525,6 +579,9 @@
     <t>Very clean...I would stay again.  Good location as well and though I did not not have time to eat breakfast, it looked like it would have been above average quality and selection.  I did try the coffee which was excellent.  Well appointed rooms.</t>
   </si>
   <si>
+    <t>hav2trvl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r561797281-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -546,6 +603,9 @@
     <t>First, the good: Very modern attractive lobby and room decor matches the photos. All staff are very helpful. Front desk, housekeeping, all very friendly, pleasant and helpful.  Full supply of attractive dishes and flatware in kitchenette. Neutrogena amenities in room. Though the shower gel dispenser in shower was empty.   Now the challenges.  Bed was ok, but bedding was an odd mixture. 100% polyester sheets very soft but don’t breathe.  Covers consisted of upper sheet with what looked like a flanged mattress pad sandwiched between the sheet and the bedspread.  Have stayed in lots of hotels. Never seen that one. Shower water pressure was poor (water regulations apply, but not to that degree). Dehumidifier runs all the time, blowing cold air. Heater only turns on when set at a high temp. When you turn the heat off, it gets cold.  Bathroom always cold. Toilet paper and tissue were thin and had a sandpaper effect. About the cheapest available. Breakfast largely inedible. Stay away from the bagel, watery orange juice and coffee. Better to go with the English muffins or perhaps cereal. Would avoid this hotel in future, though the staff is so nice that it’s ok for one night. Hilton can do better. More</t>
   </si>
   <si>
+    <t>Greg J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r561620868-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -573,6 +633,9 @@
     <t>Check in was a breeze and the hotel is new, which is nice. My issue lies within my room location, the breakfast service and how customer service handled my issue. My room was on the first floor and shared a wall with the breakfast prep area that the staff uses to set up for the complimentary breakfast. Early in the morning, I was woken up by noise that sounded like plates tossed left and right, doors slammed and everything else in between. When I called the front desk, the only thing the agent could come up with was to move me to another room. Considering check out was in 4 hours, that was a pointless resolve. I asked for a late checkout and she only offered until 1 p.m., the standard late checkout time. I really wish they could have done more to resolve this inconvenience. BEWARE if you are placed on the first floor...More</t>
   </si>
   <si>
+    <t>mkR2463AE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r558891789-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -597,6 +660,9 @@
     <t>We booked this hotel as a weekend getaway for our family.  We were looking for something near home and inexpensive and this hotel exceeded our expectations.  The hotel was very modern, very clean and very comfortable.  More</t>
   </si>
   <si>
+    <t>483jennat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r557230022-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -624,6 +690,9 @@
     <t>Home2 Suite provides great accommodation for the price. Location was great. There is a McDonald located in the parking lot, an In and Out across the street and a Mongolia BBQ next door. I wish the staff would not have scare me by telling me that they did not have my credit card authorization on file when they did. Making large group accommodation should not be this stressful.   More</t>
   </si>
   <si>
+    <t>Gary W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r557181204-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -639,6 +708,9 @@
     <t>The hotel is new so everything worked great and the staff were very accommodating. The hotel is close to everything you could need.  The breakfast is OK but could have a few more protein choices. The location is by a freeway but we did not hear it in the room.   More</t>
   </si>
   <si>
+    <t>armandoh746</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r556748793-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -663,6 +735,9 @@
     <t>I'll definitely be coming back here.  This hotel is new. Looks modern. Isn't outdated. Loved everything about this place. Only thing I have negative to say the complimentary continental breakfast could've had more of a selection More</t>
   </si>
   <si>
+    <t>gbarron01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r554283209-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -687,6 +762,9 @@
     <t>I'm going to to admit that I was hesitant about staying here because this part of Azusa is a bit run down and not known for great hotels... until now.  From the moment I walked in I was pleasantly surprised.  The staff was courteous, the rooms were clean, the bed was very comfortable, and the complimentary breakfast was great for people on the go.  I only wish I didn't have to leave early so I could enjoy it a bit longer. I would definitely recommend and return.More</t>
   </si>
   <si>
+    <t>Laura H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r552403171-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -711,6 +789,9 @@
     <t>Stayed in a king suite on the 4th floor. Very quiet despite next to fwy.Gas station in front, McDonald’s next door-handy.Pool is a small rectangle and was mildly heated.Staff was EXCELLENT. Automated blackout shades were great!Included breakfast was good with lots of options. Beds were comfy; sheets were soft &amp; pillows were plenty.Kitchen was ok-not a “full” kitchen as it didn’t have an oven or stove, but there is a microwave, dishwasher, coffeemaker, and full size fridge. And toaster. My only real complaint was a very tiny bottle of shampoo :(Otherwise a good place if you need to stay for business. Free WiFi More</t>
   </si>
   <si>
+    <t>KSHfromCA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r552021257-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -729,6 +810,9 @@
     <t>On a whim, we decide to spend the night in southern California so we could go to Santa Anita to see the races. We found this hotel on our Hilton app. We'd never even heard of a Home2 Suites. I have to say, it was awesome! Clean, nicely decorated, good breakfast, and friendly staff. I would stay there again and again!More</t>
   </si>
   <si>
+    <t>716angelicas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r551074839-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -753,6 +837,9 @@
     <t>I came here for a little gateway and it was very nice to be in a place as clean as my home.... Thank you for making our stay very good and comfy. I will send my friends and family to have an equal or better experience. I would like to thank the staff for making us feel appreciated and valued. We are very low maintenance people.More</t>
   </si>
   <si>
+    <t>GweninTX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r550534459-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -777,6 +864,9 @@
     <t>This is a wonderful clean new hotel. It had more amenities than most Hilton properties and is perfect if you are staying more than a few days. The rooms have large refrigerators, full size microwave ovens, dishwasher, all the kitchen items you would ever need. A cool pull out table. Comfy beds and lots of plug ins!Breakfast had more offerings than Hampton inns do. Loved the Jimmy Dean breakfast items to cook in the microwave. Oatmeal with a lot of toppings. Waffle maker with lots of different syrups. Staff were very helpful and made us feel like a valued customer. We would definitely stay here again and will remember this new Hilton concept for the future!More</t>
   </si>
   <si>
+    <t>T9035LBlizc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r549420334-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -795,6 +885,9 @@
     <t>You Have seen my Review. Your hotel was not the Best in any means. We had No Choice but to stay there. I hope Not to stay in another one of your hotels, especially if I have to stay there for weeks. Please be advised everyone.More</t>
   </si>
   <si>
+    <t>B6605HWkevinc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r543099103-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -819,6 +912,9 @@
     <t>When I first walk into the hotel lobby is had a very freh look to it and was brightly lit.  Te check in process was efficient.  The room was quite satisfactory.  The complimentary breakfast items were sufficient.More</t>
   </si>
   <si>
+    <t>786darlened</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r542300170-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -838,6 +934,9 @@
   </si>
   <si>
     <t>The suite was Beautiful and clean. I loved the breakfast. Obplan to stay again. I would like to try a different area. That is the least negative of my stay. All was great and totally revcomemd to my friends.More</t>
+  </si>
+  <si>
+    <t>radfahrenfaireduvelo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r541485451-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
@@ -867,6 +966,9 @@
 The parking lot is a bit dangerous because the adjacent McDonald's Drive Thru has cars speeding through the same /shared parking lot to exit. The parking spaces on the quieter back side of the hotel...Convenient location for Azusa Pacific University visits, but not much else.The handicap accessible 1 bedroom suite room is much larger and nicer than the regular/standard sized room, since the spacious bathroom with a full tub is great. In contrast, the space between the toilet and the shower in the standard, regular rooms is extremely narrow and makes it awkward just to enter and exit the small shower.  The handicap room has a bathtub with multiple options for water sources depending upon a person's needs. The window shade in the regular room was slightly broken, and could not be pulled to close and cover the bright lights of the gas station, parking lot, and McDonald's. The solution was to climb up onto the heater and manually straighten out and pull down the window shade--after that we were able to use the shade pull properly to open and close the shade. In the handicap room there was an automated button control on the wall to open and close the shade, and it worked. Of the room selection offered, would definitely pay more and go for the one bedroom suite.The beds were fine, but the doors aren't soundproof, and hallway noise and conversations may be heard. The parking lot is a bit dangerous because the adjacent McDonald's Drive Thru has cars speeding through the same /shared parking lot to exit. The parking spaces on the quieter back side of the hotel has some lighting, but also seems like an easy spot for people to smash and grab break-in to guests' cars.  Breakfast is not good, but complimentary, and the seating is insufficient for the large number of guests.  The microwaves to heat these frozen breakfast sandwiches sometimes does not work, and they are just processed food type sandwiches--not fresh. Too many guests, esp. unsupervised children, make a mess, and it's not the hotel staff's fault when one spill they clean up gets replaced by a new dribbling mess of juice or waffle batter mix, and so on.  The neighborhood ambience is slightly mixed, and one morning when we were in the lobby we saw two police officers speak to the front desk staff discussing an apparent fight or issue that occurred on the premises the night before, but didn't make it feel all that safe.More</t>
   </si>
   <si>
+    <t>Jack50</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r540560744-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -883,6 +985,9 @@
   </si>
   <si>
     <t>Spent one night here with business at Azusa Pacific. It's very convenient to the school and center. Seemed like a safe area with a McDonald's right across the parking lot and other places to eat close to the hotel. Staff were very helpful and the rooms are awesome! Clean hotel. My only issues were the shower ran out of soap (wall mounted) and no water pressure in the kitchen faucet. To be fair, had I mentioned these to the staff I'm sure they would have fixed them. So I would highly recommend this hotel to business and family and would definitely stay here again! No major complaints! More</t>
+  </si>
+  <si>
+    <t>WA-Rider</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r540532377-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
@@ -904,6 +1009,9 @@
 The facilities include a fully equipped exercise room - complete with a filtered water dispenser, and a rack full of fresh, clean towels!; a laundry room with 2 washers and 2 dryers; a fairly well stocked "pantry" store; and outdoor seating area...Have you ever been traveling and wished you were back home - sleeping in your own bed or fixing a meal in your own kitchen? Well now you can have the next best thing! And you don't have to wear ruby slippers to get there (unless that's your thing)!My family and I had the pleasure of trying out the recently-opened (may 2017) Home2 Suites by Hilton in Azusa CA, and it is (quite literally) a home away from home. Our visit wasn't the usual 1 or 2 day stay, but a full week. So I had plenty of time to experience many of the amenities offered by this exceptional home away from home. The suites are set up like a small apartment, complete with a large flat screen TV; work desk and seating area; dishes, silverware and glasses; a refrigerator (not a tiny dorm room size either); a microwave; a kitchen sink; and, all the pots, pans and other kitchen accessories needed to make your stay amazing. The bathrooms are spacious, the showers large and equipped for people like my 88 year old dad, and the in-shower shampoo and body wash dispensers are filled with Neutrogena products!The facilities include a fully equipped exercise room - complete with a filtered water dispenser, and a rack full of fresh, clean towels!; a laundry room with 2 washers and 2 dryers; a fairly well stocked "pantry" store; and outdoor seating area with fire pit; and, a very relaxing and comfortable front lounging area equipped with sofas and lounge chairs. There is also a set of high stool dining tables in the area adjacent to the front lobby where they serve a very respectable breakfast in the morning, including make it yourself wheat waffles, a variety of cereals, oatmeal, fruit, yogurt, breads, drinks, boiled eggs, an assortment of heat-n-serve items, and more.But all of the amenities pale in comparison to the way staff treats you! Honestly - it only our walking in the door before everyone was treating us like family!! And I know why. We had the opportunity to meet the hotel's manager - Leo Flores, and he explained his hiring philosophy. Rather than hire people with years of hotel experience, he looks for people with exceptional customer service experience and great personalities. An=d it has REALLY paid off!!! If there was anything we needed, all we had to do was ask and the staff was there to help in every way possible. From the front desk, to the room service staff, and all the way to the maintenance crew, every single person on staff asked the same question, "How can I serve you?"In a 5-star rating system, this place gets 7.5 stars for being well-priced, exceptionally well planned, tailored to meet the needs of an individual or family, and for going far beyond any expectation to make you feel right at home... make that - "...right at Home2!"If you are   ANYWHERE NEAR Azusa   and looking for a place to stay - stop in, ask for Leo, take a quick tour, and you'll be glad you did!More</t>
   </si>
   <si>
+    <t>Brian W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r540038057-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -922,6 +1030,9 @@
     <t>It was evident this was a fairly new hotel (opened in May 2017) and has all the modern amenities you expect in a all-suites hotel.  It was very clean and the staff was friendly.  There was some noise from the road because my room was on the front side of the hotel facing the busy street, but the room was otherwise comfortable and provided a great night's sleep before my early morning marathon.More</t>
   </si>
   <si>
+    <t>929charif</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r539297011-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -940,6 +1051,9 @@
     <t>I've stay here during my Revel Cayon Marathon Race.  Great service and the shuttle come is very punctual .. I recommend this hotel for business or personal stay.  However the breakfast can be better then bagels or bread.  As a runner I love to see more eggs, protein of some kind.  Water dispenser..More</t>
   </si>
   <si>
+    <t>Jer S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r538071876-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -958,6 +1072,9 @@
     <t>I waa going to leave agood rwview until i mistakenly left my room keycard in my room when i went down for coffee in the morning.  Woman at the front desk wanted ID in addition to all the other verification info that it was really me trying to get into my room. Of course I didnt have my ID since it was in my wallet along with my room card. She was a complete !@#$% and I ened up having to wake up my family to het back into the room, which I was trying to avoid. It is nice that they want to verify who you are, but this chick wrnt to far. I just wonder what the outcome would have been if I had been alone or we all came down and left everything in the room. That chick turned my good review into a bad one.More</t>
   </si>
   <si>
+    <t>jencr202</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r537605952-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -979,6 +1096,9 @@
     <t>This place was great! We loved the spacious one bedroom suite and large bathroom.The pull out sofa was smaller than expected but still comfortable.Staff was very friendly.Location was nice and easily accessible from freeway but a little sketchy of people wandering around parking lot due to the McDonald's next door.Breakfast had a great variety.We had to stay at a residence inn the next night in Beverly Hills and our Home2Suites made Beverly Hills VERY disappointing in comparison! Will definitely stay here againMore</t>
   </si>
   <si>
+    <t>C929QXjohnj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r537268791-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -997,6 +1117,9 @@
     <t>Hotel nice and clean.  Very Friendly Staff.Breakfast Area Staff Unable to keep up with demand with poor selection and not clean during the morning.  Hotel very quiet at nite.  Parking Space was great for the area when coming in late at nite.   Access to Interstate 210 great!!More</t>
   </si>
   <si>
+    <t>miah919</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r537311525-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -1012,6 +1135,9 @@
     <t>Rough night because of the loud street noise through the night.  Also, we called twice for a blanket and pillows to be delivered to the room for our guests - sadly they which never arrived.  When we called a 2nd time they did tell us they were busy.  By midnight we went to sleep.More</t>
   </si>
   <si>
+    <t>Randy P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r535825135-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -1030,6 +1156,9 @@
     <t>Great staff. Loved the hot breakfast options. Could use a couple more cereal choices. Fully stocked kitchen with plates, bowls, utensils, dish washer, microwave and full size refrigerator. Convenient to Los Angeles, Hollywood, Beverly Hills, the pacific coast and mountains.More</t>
   </si>
   <si>
+    <t>constanttraveler5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r533929998-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -1048,6 +1177,9 @@
     <t>My family of 4 really enjoyed our one night stay here while we were in town for a quick visit with family.  The room was clean and well laid out, and I thought the full kitchen would have been very useful for a longer stay.  The bed was comfortable, the pull-out couch was perfect for the kids, and even the blinds were in good working order and easy to use (amazingly something that doesn't happen often).  The bathroom shower was big with a high shower head and a good strong water pressure.  Overall, the breakfast had a lot of options and lots of tables.  I wish there had been more fresh fruit and scrambled eggs.  We did not use the pool, but having a spa would be nice since evenings get cold.  I would definitely stay here again, just because everything was clean, in good working order, and the rooms pack a lot of organized function into a small space.More</t>
   </si>
   <si>
+    <t>Denise H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r527726154-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -1066,6 +1198,9 @@
     <t>Close to Azusa Pacific to visit my daughter. Beds were super comfy and the sheets were so soft. I want some of those! Not much in the area but shopping is not that far away. Would stay here again. Rooms were nice and clean.More</t>
   </si>
   <si>
+    <t>Thao P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r525289157-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -1084,6 +1219,9 @@
     <t>Really enjoyed the stay, customer service was good and so was housekeeping. I enjoyed the breakfast also. Good internet service and there's a pool and work out area. Would recommend to anyone coming to this area. More</t>
   </si>
   <si>
+    <t>ttieu66</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r521498313-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -1102,6 +1240,9 @@
     <t>First, this hotel just completed about two months.    Everything about it was great!   Nice and refreshing from the lobby to the room.    I would defintely stay here again, but they just need a quieter A/C unit in the room.More</t>
   </si>
   <si>
+    <t>markdU8380UW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r521616175-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -1117,6 +1258,9 @@
     <t>We evacuated our house due to the large fire in Los Angeles this past labor day weekend.  When booking the room with a reservation specialist over the phone and were told there was a $125 pet fee, which I had her clarify as a deposit that would be returned should our dog not make a mess.  After checking in to the hotel, the staff noticed my do and said I will need to pay a mandatory $125 pet fee.  I explained about being told it was a deposit and after some back and forth they reduced my fee to $100 and eventually $75.  I appreciate that they reduced the fee and they were very nice to deal with.  However I feel the fee should've been waived as there was a communication error on their part.    Aside from the pet fee mishap, the hotel was clean, and the suite was great.  The immediate area wasn't very nice but we weren't on vacation, but escaping a wild fire.More</t>
   </si>
   <si>
+    <t>Imajin26</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r516145831-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -1135,6 +1279,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>923JenniferH923</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r514621301-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -1151,6 +1298,9 @@
   </si>
   <si>
     <t>This hotel had only opened in the last two weeks.  We could still smell the paint/construction orders, but it wasn't too bad - it was just noticeable.    We were expecting a better area for our dog to go pee.  There are no grass areas nearby, so we used the small parking lot islands (covered with bark).  They should consider a better solution.  The free breakfast was pretty good.  I liked having more than just bagels, cereal, and hard boiled eggs to choose from.    The service was GREAT.  The staff was very friendly and helpful with all of our requests.  You did a very good job on the training and hiring for such a recently opened hotel.More</t>
+  </si>
+  <si>
+    <t>Angela J</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r511649102-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
@@ -1691,43 +1841,47 @@
       <c r="A2" t="n">
         <v>66188</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>193589</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -1749,56 +1903,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>66188</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>193590</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -1820,56 +1978,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>66188</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>193591</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1881,56 +2043,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>66188</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>193592</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -1952,56 +2118,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>66188</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" t="s">
         <v>78</v>
-      </c>
-      <c r="K6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" t="s">
-        <v>80</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>52</v>
-      </c>
-      <c r="O6" t="s">
-        <v>74</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -2023,56 +2193,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>66188</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>3981</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -2090,56 +2264,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="X7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>66188</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>193593</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -2161,56 +2339,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="X8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>66188</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>193594</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -2232,56 +2414,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="X9" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>66188</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>193595</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2305,50 +2491,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>66188</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>58848</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2370,56 +2560,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="X11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="Y11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>66188</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>193596</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -2441,56 +2635,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="X12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="Y12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>66188</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>193597</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="J13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="K13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="L13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -2512,56 +2710,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="X13" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="Y13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>66188</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>193598</v>
+      </c>
+      <c r="C14" t="s">
+        <v>143</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="J14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="K14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="L14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O14" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -2583,56 +2785,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="X14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="Y14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>66188</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>12875</v>
+      </c>
+      <c r="C15" t="s">
+        <v>152</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="J15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="K15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="L15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2650,56 +2856,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="X15" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="Y15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>66188</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>193599</v>
+      </c>
+      <c r="C16" t="s">
+        <v>160</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="J16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="K16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="L16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -2721,56 +2931,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="X16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="Y16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>66188</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>193600</v>
+      </c>
+      <c r="C17" t="s">
+        <v>169</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="J17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="K17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="L17" t="s">
+        <v>174</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
         <v>158</v>
       </c>
-      <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
-        <v>144</v>
-      </c>
       <c r="O17" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2794,50 +3008,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>66188</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>193601</v>
+      </c>
+      <c r="C18" t="s">
+        <v>175</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="J18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="K18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="L18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -2861,50 +3079,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>66188</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>193602</v>
+      </c>
+      <c r="C19" t="s">
+        <v>181</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="J19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="K19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="L19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -2928,50 +3150,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>66188</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>193603</v>
+      </c>
+      <c r="C20" t="s">
+        <v>187</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="J20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="K20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="L20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="O20" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2983,56 +3209,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="X20" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="Y20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>66188</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>23251</v>
+      </c>
+      <c r="C21" t="s">
+        <v>195</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="J21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="K21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="L21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="O21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3050,56 +3280,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="X21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="Y21" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>66188</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>193604</v>
+      </c>
+      <c r="C22" t="s">
+        <v>205</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="J22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="K22" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="L22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="O22" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3121,56 +3355,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="X22" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="Y22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>66188</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>193605</v>
+      </c>
+      <c r="C23" t="s">
+        <v>214</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="J23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="K23" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="L23" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="n">
         <v>4</v>
@@ -3192,56 +3430,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="X23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="Y23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>66188</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>23215</v>
+      </c>
+      <c r="C24" t="s">
+        <v>224</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="J24" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="K24" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="L24" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="O24" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3263,56 +3505,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="X24" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="Y24" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>66188</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>193606</v>
+      </c>
+      <c r="C25" t="s">
+        <v>230</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="J25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="K25" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="L25" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="O25" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -3334,56 +3580,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="X25" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="Y25" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>66188</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>193607</v>
+      </c>
+      <c r="C26" t="s">
+        <v>239</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="J26" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="K26" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="L26" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="O26" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3405,56 +3655,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="X26" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="Y26" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>66188</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>1237</v>
+      </c>
+      <c r="C27" t="s">
+        <v>248</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="J27" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="K27" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="L27" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="O27" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3466,56 +3720,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="X27" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="Y27" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>66188</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>193608</v>
+      </c>
+      <c r="C28" t="s">
+        <v>257</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="J28" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="K28" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="L28" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O28" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3531,56 +3789,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="X28" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="Y28" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>66188</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>193609</v>
+      </c>
+      <c r="C29" t="s">
+        <v>264</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="J29" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="K29" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="L29" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O29" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -3602,47 +3864,51 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="X29" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="Y29" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>66188</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>41053</v>
+      </c>
+      <c r="C30" t="s">
+        <v>273</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="J30" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="K30" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="L30" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
@@ -3659,56 +3925,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="X30" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="Y30" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>66188</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>193610</v>
+      </c>
+      <c r="C31" t="s">
+        <v>282</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="J31" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="K31" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="L31" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>2</v>
@@ -3728,56 +3998,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="X31" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="Y31" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>66188</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>193611</v>
+      </c>
+      <c r="C32" t="s">
+        <v>289</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="J32" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="K32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L32" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3799,56 +4073,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="X32" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="Y32" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>66188</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>193612</v>
+      </c>
+      <c r="C33" t="s">
+        <v>298</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="J33" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="K33" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="L33" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="O33" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3870,56 +4148,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="X33" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="Y33" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>66188</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>193613</v>
+      </c>
+      <c r="C34" t="s">
+        <v>306</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="J34" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="K34" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="L34" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -3935,56 +4217,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="X34" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="Y34" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>66188</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>193614</v>
+      </c>
+      <c r="C35" t="s">
+        <v>314</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="J35" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="K35" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="L35" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -3996,56 +4282,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="X35" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="Y35" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>66188</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>193615</v>
+      </c>
+      <c r="C36" t="s">
+        <v>321</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="J36" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="K36" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="L36" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="O36" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4063,56 +4353,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="X36" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="Y36" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>66188</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>7473</v>
+      </c>
+      <c r="C37" t="s">
+        <v>327</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="J37" t="s">
+        <v>330</v>
+      </c>
+      <c r="K37" t="s">
+        <v>331</v>
+      </c>
+      <c r="L37" t="s">
+        <v>332</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
         <v>294</v>
       </c>
-      <c r="K37" t="s">
-        <v>295</v>
-      </c>
-      <c r="L37" t="s">
-        <v>296</v>
-      </c>
-      <c r="M37" t="n">
-        <v>5</v>
-      </c>
-      <c r="N37" t="s">
-        <v>263</v>
-      </c>
       <c r="O37" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -4134,56 +4428,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="X37" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="Y37" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>66188</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>193616</v>
+      </c>
+      <c r="C38" t="s">
+        <v>334</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="J38" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="K38" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="L38" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="O38" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -4203,56 +4501,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="X38" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="Y38" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>66188</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>193617</v>
+      </c>
+      <c r="C39" t="s">
+        <v>341</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="J39" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="K39" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="L39" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="O39" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4264,56 +4566,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="X39" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="Y39" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>66188</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>193618</v>
+      </c>
+      <c r="C40" t="s">
+        <v>348</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="J40" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="K40" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="L40" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="O40" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4335,56 +4641,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="X40" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="Y40" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>66188</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>193619</v>
+      </c>
+      <c r="C41" t="s">
+        <v>356</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="J41" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="K41" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="L41" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="O41" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P41" t="n">
         <v>4</v>
@@ -4406,56 +4716,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="X41" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="Y41" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>66188</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>193620</v>
+      </c>
+      <c r="C42" t="s">
+        <v>363</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="J42" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="K42" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="L42" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="O42" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="P42" t="n">
         <v>3</v>
@@ -4477,56 +4791,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="X42" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="Y42" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>66188</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>42192</v>
+      </c>
+      <c r="C43" t="s">
+        <v>369</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="J43" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="K43" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="L43" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="O43" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4548,56 +4866,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="X43" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="Y43" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>66188</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>193621</v>
+      </c>
+      <c r="C44" t="s">
+        <v>376</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="J44" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="K44" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="L44" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="O44" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -4619,56 +4941,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="X44" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="Y44" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>66188</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>37418</v>
+      </c>
+      <c r="C45" t="s">
+        <v>383</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>340</v>
+        <v>384</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="J45" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="K45" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="L45" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="O45" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -4690,56 +5016,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="X45" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="Y45" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>66188</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>193622</v>
+      </c>
+      <c r="C46" t="s">
+        <v>390</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>347</v>
+        <v>392</v>
       </c>
       <c r="J46" t="s">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="K46" t="s">
-        <v>349</v>
+        <v>394</v>
       </c>
       <c r="L46" t="s">
-        <v>350</v>
+        <v>395</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="O46" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4761,56 +5091,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="X46" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="Y46" t="s">
-        <v>351</v>
+        <v>396</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>66188</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>193623</v>
+      </c>
+      <c r="C47" t="s">
+        <v>397</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>353</v>
+        <v>399</v>
       </c>
       <c r="J47" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="K47" t="s">
-        <v>355</v>
+        <v>401</v>
       </c>
       <c r="L47" t="s">
-        <v>356</v>
+        <v>402</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="O47" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -4828,56 +5162,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="X47" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="Y47" t="s">
-        <v>357</v>
+        <v>403</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>66188</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>193624</v>
+      </c>
+      <c r="C48" t="s">
+        <v>404</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>358</v>
+        <v>405</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>359</v>
+        <v>406</v>
       </c>
       <c r="J48" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="K48" t="s">
-        <v>360</v>
+        <v>407</v>
       </c>
       <c r="L48" t="s">
-        <v>361</v>
+        <v>408</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="O48" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -4899,56 +5237,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="X48" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="Y48" t="s">
-        <v>362</v>
+        <v>409</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>66188</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>193625</v>
+      </c>
+      <c r="C49" t="s">
+        <v>410</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>363</v>
+        <v>411</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>364</v>
+        <v>412</v>
       </c>
       <c r="J49" t="s">
-        <v>365</v>
+        <v>413</v>
       </c>
       <c r="K49" t="s">
-        <v>366</v>
+        <v>414</v>
       </c>
       <c r="L49" t="s">
-        <v>367</v>
+        <v>415</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="O49" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -4972,50 +5314,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>367</v>
+        <v>415</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>66188</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>193626</v>
+      </c>
+      <c r="C50" t="s">
+        <v>417</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>369</v>
+        <v>418</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>370</v>
+        <v>419</v>
       </c>
       <c r="J50" t="s">
-        <v>371</v>
+        <v>420</v>
       </c>
       <c r="K50" t="s">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="L50" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="O50" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -5037,56 +5383,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="X50" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="Y50" t="s">
-        <v>374</v>
+        <v>423</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>66188</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>5372</v>
+      </c>
+      <c r="C51" t="s">
+        <v>424</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>376</v>
+        <v>426</v>
       </c>
       <c r="J51" t="s">
-        <v>377</v>
+        <v>427</v>
       </c>
       <c r="K51" t="s">
-        <v>378</v>
+        <v>428</v>
       </c>
       <c r="L51" t="s">
-        <v>379</v>
+        <v>429</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="O51" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5108,56 +5458,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="X51" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="Y51" t="s">
-        <v>380</v>
+        <v>430</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>66188</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>3981</v>
+      </c>
+      <c r="C52" t="s">
+        <v>87</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>381</v>
+        <v>431</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>382</v>
+        <v>432</v>
       </c>
       <c r="J52" t="s">
-        <v>383</v>
+        <v>433</v>
       </c>
       <c r="K52" t="s">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="L52" t="s">
-        <v>385</v>
+        <v>435</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="O52" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5179,13 +5533,13 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="X52" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="Y52" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_392.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_392.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="663">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,234 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>lceco</t>
-  </si>
-  <si>
-    <t>07/04/2018</t>
+    <t>09/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r615783883-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>29125</t>
+  </si>
+  <si>
+    <t>12392421</t>
+  </si>
+  <si>
+    <t>615783883</t>
+  </si>
+  <si>
+    <t>09/11/2018</t>
+  </si>
+  <si>
+    <t>Never fails</t>
+  </si>
+  <si>
+    <t>Never fails, Home 2 Suites are always a great place to stay! Tasty breakfast, friendly staff, clean rooms, nice exercise facilities. I’ll definitely return for another stay. This was actually my third time so you know I’ll be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>LeoF1674, General Manager at Home2 Suites by Hilton Azusa, responded to this reviewResponded yesterday</t>
+  </si>
+  <si>
+    <t>Responded yesterday</t>
+  </si>
+  <si>
+    <t>Never fails, Home 2 Suites are always a great place to stay! Tasty breakfast, friendly staff, clean rooms, nice exercise facilities. I’ll definitely return for another stay. This was actually my third time so you know I’ll be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r600028640-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>600028640</t>
+  </si>
+  <si>
+    <t>07/26/2018</t>
+  </si>
+  <si>
+    <t>Comfortable and Clean</t>
+  </si>
+  <si>
+    <t>This hotel was pretty comfortable and clean.  I wish the breakfast was better, but it was cool.  The front desk staff was pretty nice and helpful.  It's a distance from Hollywood with traffic, but without traffic it's not that bad.  There's a In and Out Burger and Mcdonald's within walking distance.  Thank you to this hotel for a great stay..MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Leo F, General Manager at Home2 Suites by Hilton Azusa, responded to this reviewResponded July 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2018</t>
+  </si>
+  <si>
+    <t>This hotel was pretty comfortable and clean.  I wish the breakfast was better, but it was cool.  The front desk staff was pretty nice and helpful.  It's a distance from Hollywood with traffic, but without traffic it's not that bad.  There's a In and Out Burger and Mcdonald's within walking distance.  Thank you to this hotel for a great stay..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r614167218-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>614167218</t>
+  </si>
+  <si>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>Right off Freeway, easy access to 210 fwy</t>
+  </si>
+  <si>
+    <t>Squeezed between a Arco and McDonald's for easy gas and food fill up.  Hotel nice and breakfast was great.  No complaints.  Down the street there is a Wal Mart incase you forget something. Children happyMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Leo F, General Manager at Home2 Suites by Hilton Azusa, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Squeezed between a Arco and McDonald's for easy gas and food fill up.  Hotel nice and breakfast was great.  No complaints.  Down the street there is a Wal Mart incase you forget something. Children happyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r612656513-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>612656513</t>
+  </si>
+  <si>
+    <t>08/31/2018</t>
+  </si>
+  <si>
+    <t>Home 2 Suites - a surprisingly pleasant experience</t>
+  </si>
+  <si>
+    <t>Traveled to Azusa on a business trip. Hotel was conveniently located near freeway on-ramps, but not loud. Free &amp; easy parking onsite. Room was very spacious and clean with a mini kinchenette. Amenities are great- complimentary breakfast with a good selection (everything from fruits and cereal to breakfast egg sandwiches and a small waffle bar), free &amp; fast Wi-Fi, nice clean gym, good central AC, friendly staff. At night the area was well light and security staff patrolled the area so I felt safe, even as a single female. Would definitely stay here again if in the area! Will also look for other Home2Suite locations on future trips.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r607984403-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>607984403</t>
+  </si>
+  <si>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel, but location wasn’t the best</t>
+  </si>
+  <si>
+    <t>Hotel was nice, newer and modern, but the location felt a little sketchy. Room was nice with fridge, microwave, and dishes.   We used the pullout couch for our son since there were only rooms with king beds. MoreShow less</t>
+  </si>
+  <si>
+    <t>Leo F, General Manager at Home2 Suites by Hilton Azusa, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Hotel was nice, newer and modern, but the location felt a little sketchy. Room was nice with fridge, microwave, and dishes.   We used the pullout couch for our son since there were only rooms with king beds. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r606556047-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>606556047</t>
+  </si>
+  <si>
+    <t>08/14/2018</t>
+  </si>
+  <si>
+    <t>Excellent Accommodations</t>
+  </si>
+  <si>
+    <t>Our room was very clean. The breakfast is simple, however it was very good. They had several choices. All the employees were extremely friendly and helpful. They made us feel very welcome. I would recommend this facility to anyone. MoreShow less</t>
+  </si>
+  <si>
+    <t>Leo F, General Manager at Home2 Suites by Hilton Azusa, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Our room was very clean. The breakfast is simple, however it was very good. They had several choices. All the employees were extremely friendly and helpful. They made us feel very welcome. I would recommend this facility to anyone. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r601490009-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>601490009</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>The overall stay was great.,, Noice was a factor since you cold hear through the walls and the hallway noice.  Room service was slightly slow and at time unavailable.  The lobby staff was very friendly and helpful..MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>The overall stay was great.,, Noice was a factor since you cold hear through the walls and the hallway noice.  Room service was slightly slow and at time unavailable.  The lobby staff was very friendly and helpful..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r597386186-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>597386186</t>
+  </si>
+  <si>
+    <t>07/18/2018</t>
+  </si>
+  <si>
+    <t>Azusa in July</t>
+  </si>
+  <si>
+    <t>Great location, very clean and comfortable. Spacious room and great features. Large comfortable bed and well designed bathroom. Breakfast was fine but the hotel is busy so it was crowded and kind of congested. Pool was very clean and good spacing around it to relax.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great location, very clean and comfortable. Spacious room and great features. Large comfortable bed and well designed bathroom. Breakfast was fine but the hotel is busy so it was crowded and kind of congested. Pool was very clean and good spacing around it to relax.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r592221340-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>592221340</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>Great property!</t>
+  </si>
+  <si>
+    <t>Excellent place to stay. The staff is great especially the front desk gal with the flower in her hair (forgive me for not recalling her name, I believe she was on the evening shift) and warm, engaging personality. We stayed there because my Westie was entered at the Great Western Terrier Club’s Specialty. Really nice, clean rooms. Good coffee and breakfast offerings. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Leo F, General Manager at Home2 Suites by Hilton Azusa, responded to this reviewResponded July 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2018</t>
+  </si>
+  <si>
+    <t>Excellent place to stay. The staff is great especially the front desk gal with the flower in her hair (forgive me for not recalling her name, I believe she was on the evening shift) and warm, engaging personality. We stayed there because my Westie was entered at the Great Western Terrier Club’s Specialty. Really nice, clean rooms. Good coffee and breakfast offerings. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r591219877-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
-    <t>29125</t>
-  </si>
-  <si>
-    <t>12392421</t>
-  </si>
-  <si>
     <t>591219877</t>
   </si>
   <si>
@@ -177,24 +390,15 @@
     <t>This was my first time staying in a Home2 Suites room and it was a really great experience.   The small suite was comfortable, plenty of room, very clean, and very well appointed, with almost a full kitchen, minus a stove/oven.    The words that came to mind when I first walked in were MoreShow less</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Leo F, General Manager at Home2 Suites by Hilton Azusa, responded to this reviewResponded 6 days ago</t>
-  </si>
-  <si>
-    <t>Responded 6 days ago</t>
+    <t>Leo F, General Manager at Home2 Suites by Hilton Azusa, responded to this reviewResponded June 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2018</t>
   </si>
   <si>
     <t>This was my first time staying in a Home2 Suites room and it was a really great experience.   The small suite was comfortable, plenty of room, very clean, and very well appointed, with almost a full kitchen, minus a stove/oven.    The words that came to mind when I first walked in were More</t>
   </si>
   <si>
-    <t>Zefin G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r591164088-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -210,9 +414,6 @@
     <t>First time at a Home2, and was worth the chance, as the price and condition of this facility was excellent. Breakfast item choice was a little sparse, but consdiering it was free, better than not having an option. Coffee available all the time!More</t>
   </si>
   <si>
-    <t>George1133</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r590675315-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -234,7 +435,40 @@
     <t>This is rather new hotel and I would say a good 1 night stay.The rooms are basic but it's economy design is pretty smart so that you feel very comfortable. And also colourful design gives you a feeling of higher class.We have arrived rather late so the bar was closed.The breakfast area is basic and offering really economic. I recommend to skip it.In general it is a very good value hotel as it really reasonable priced.More</t>
   </si>
   <si>
-    <t>kyleeandpapa143</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r589824204-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>589824204</t>
+  </si>
+  <si>
+    <t>06/22/2018</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>Very clean, suites are very comfortable. Free breakfast everyday. Coffee and juices all day. Close to a lot of stores and freeway. Love that you can cook and have a full fridge and dishwasher. Excellent MoreShow less</t>
+  </si>
+  <si>
+    <t>Very clean, suites are very comfortable. Free breakfast everyday. Coffee and juices all day. Close to a lot of stores and freeway. Love that you can cook and have a full fridge and dishwasher. Excellent More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r589349250-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>589349250</t>
+  </si>
+  <si>
+    <t>06/20/2018</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>Went for business. The hotel was in an alright area, not an industrial park with other hotels, more of a local residential area. The room was good. The bed was very comfortable. The staff was amazing.MoreShow less</t>
+  </si>
+  <si>
+    <t>Went for business. The hotel was in an alright area, not an industrial park with other hotels, more of a local residential area. The room was good. The bed was very comfortable. The staff was amazing.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r589124108-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
@@ -243,24 +477,15 @@
     <t>589124108</t>
   </si>
   <si>
-    <t>06/20/2018</t>
-  </si>
-  <si>
     <t>Fantastic</t>
   </si>
   <si>
     <t>Everything went smooth clean, fancy, and i would say best hotel within 20 miles. I enjoyed the pool with the two grills they had. The breakfast and staff where as good as could be. I will stay there again soon.                                      MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Everything went smooth clean, fancy, and i would say best hotel within 20 miles. I enjoyed the pool with the two grills they had. The breakfast and staff where as good as could be. I will stay there again soon.                                      More</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r589064551-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -279,9 +504,6 @@
     <t>The staff are exceptional! The place was clean and cleaning services were provided daily, unlike most hotels. The price was low compared to area hotels and the rooms were much larger. This is the best hotel in the area! More</t>
   </si>
   <si>
-    <t>Julie F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r588543500-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -300,16 +522,49 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t>Leo F, General Manager at Home2 Suites by Hilton Azusa, responded to this reviewResponded 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 2 weeks ago</t>
+    <t>Leo F, General Manager at Home2 Suites by Hilton Azusa, responded to this reviewResponded June 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2018</t>
   </si>
   <si>
     <t>We always stay here when visiting our son at Azusa Pacific University.  It's close to the school, close to the freeway.  The hotel is clean.  They offer free breakfast.  Rooms are good size and have all the amenities for an extended stay.More</t>
   </si>
   <si>
-    <t>SusieP0728</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r588178741-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>588178741</t>
+  </si>
+  <si>
+    <t>06/17/2018</t>
+  </si>
+  <si>
+    <t>Excellent layout, friendly staff, disappointing noise level.</t>
+  </si>
+  <si>
+    <t>I’m really torn leaving 3 stars because the hotel was very clean, had great amenities, a convenient location, and the nicest customer facing staff. However, the rooms are not very well soundproofed, so I could hear my neighbors' TV so clearly, it might has well have been in my room. It wasn’t loud, just regular volume, as though I had my TV on, and when mine was on, I didn’t notice, but I don’t run my tv all the time, so it was annoying, especially when I wanted to sleep. There were also lots of families there, so you hear the general murmur of kids. MoreShow less</t>
+  </si>
+  <si>
+    <t>I’m really torn leaving 3 stars because the hotel was very clean, had great amenities, a convenient location, and the nicest customer facing staff. However, the rooms are not very well soundproofed, so I could hear my neighbors' TV so clearly, it might has well have been in my room. It wasn’t loud, just regular volume, as though I had my TV on, and when mine was on, I didn’t notice, but I don’t run my tv all the time, so it was annoying, especially when I wanted to sleep. There were also lots of families there, so you hear the general murmur of kids. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r587755160-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>587755160</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>Noisy and ants in the room</t>
+  </si>
+  <si>
+    <t>Stayed on the 4th floor apparently under the outside ac unit. It was very loud at night. The indoor unit also had a rattle. Moved the second night. The second room had ants throughout the room. One even made it into my mother’s ear. Tried to clean counters to get rid of ants but kitchen faucet had no water pressure. Staff tried to make it right, but it wasn’t enough to get us to stay there again. Great location and view of the mountains!MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed on the 4th floor apparently under the outside ac unit. It was very loud at night. The indoor unit also had a rattle. Moved the second night. The second room had ants throughout the room. One even made it into my mother’s ear. Tried to clean counters to get rid of ants but kitchen faucet had no water pressure. Staff tried to make it right, but it wasn’t enough to get us to stay there again. Great location and view of the mountains!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r586083297-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
@@ -330,9 +585,6 @@
     <t>Hotel close to everything.  Staff is very friendly and parking is easy. Lobby is nice and breakfast was good. Lots of room to work in lobby and snacks and waters were close by. Restaurants are in walking distance More</t>
   </si>
   <si>
-    <t>pioquinto216</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r586081672-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -348,9 +600,6 @@
     <t>Second time I stay. As exceptional as the first. Rooms are quiet, beds are comfortable, staff is nice. Good food close by, continental breakfast was good, and even though I210 is close by you cannot year the noise. More</t>
   </si>
   <si>
-    <t>tiggermm2018</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r585671579-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -366,10 +615,34 @@
     <t xml:space="preserve">Spacious and roomy. Excellent amenities for room and and kitchen. Not a wide breakfast selection, yet excellent coffee and superb staff. Loved the digital key and auto check in.  Would highly recommend to everyone. </t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Toni H</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r585569951-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>585569951</t>
+  </si>
+  <si>
+    <t>Home2Suites - Great Location</t>
+  </si>
+  <si>
+    <t>We enjoyed our three night stay.  The room was clean and well laid out.  Full kitchen with Fridge, microwave and dishwater, utensils, pans to accommodate microwave eating.  The bed was comfortable, the pull-out couch was perfect for the kids, blinds were great black out for the morning sun.  The bathroom shower has a high shower head and a good water pressure.  Breakfast has good options and lots of tables. I wish there had been more fresh fruit.   The kids used the pool, small but great for cooling off, no hot tub.    Front staff both shifts morning and evening very friendly and helpful.  I would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r583389984-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>583389984</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>Everything about my stay was terrific.</t>
+  </si>
+  <si>
+    <t>As soon I as walked in to the Home 2 Suites, I knew I had made a great choice for my business trip accommodations. Everything was beautiful, fresh and easy to access, and my room had every amenity I could have asked for, particularly for such a very reasonable price. My stay at Home 2 Suites was exactly what I needed to be rested and ready for my business purposes.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r579653936-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
@@ -387,9 +660,6 @@
     <t>This hotel met all of our expectations.   It was roomy, clean, great location, and priced right.  The staff was courteous, friendly, and helpful.   We loved the fact that the in room there was plenty of light and everything was easily accessible.  MoreShow less</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
     <t>Leo F, General Manager at Home2 Suites by Hilton Azusa, responded to this reviewResponded May 21, 2018</t>
   </si>
   <si>
@@ -399,7 +669,25 @@
     <t>This hotel met all of our expectations.   It was roomy, clean, great location, and priced right.  The staff was courteous, friendly, and helpful.   We loved the fact that the in room there was plenty of light and everything was easily accessible.  More</t>
   </si>
   <si>
-    <t>smiller0152</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r579505962-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>579505962</t>
+  </si>
+  <si>
+    <t>05/11/2018</t>
+  </si>
+  <si>
+    <t>This is a very nice and clean hotel. If you do not care for buckwheat pancakes, oatmeal, or microwavable eggs then be prepared to stay elsewhere. The staff, room, and grounds were in excellent condition.MoreShow less</t>
+  </si>
+  <si>
+    <t>Leo F, General Manager at Home2 Suites by Hilton Azusa, responded to this reviewResponded May 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2018</t>
+  </si>
+  <si>
+    <t>This is a very nice and clean hotel. If you do not care for buckwheat pancakes, oatmeal, or microwavable eggs then be prepared to stay elsewhere. The staff, room, and grounds were in excellent condition.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r579322561-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
@@ -417,18 +705,9 @@
     <t>Booked this hotel due to location, near Azusa Pacific University. It was my first time staying in this hotel. It was very clean, the staff was great and a nice breakfast was included. I will definitely stay again. And, it's located right off I-210.MoreShow less</t>
   </si>
   <si>
-    <t>Leo F, General Manager at Home2 Suites by Hilton Azusa, responded to this reviewResponded May 22, 2018</t>
-  </si>
-  <si>
-    <t>Responded May 22, 2018</t>
-  </si>
-  <si>
     <t>Booked this hotel due to location, near Azusa Pacific University. It was my first time staying in this hotel. It was very clean, the staff was great and a nice breakfast was included. I will definitely stay again. And, it's located right off I-210.More</t>
   </si>
   <si>
-    <t>cdbrussow</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r579062429-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -447,7 +726,46 @@
     <t>Very pleasant atmosphere with an efficiency-type apartment. The room was very clean and I was especially pleased with the cleanliness of the bathroom. I liked having the soap and shampoo in dispensers in the shower.More</t>
   </si>
   <si>
-    <t>miluska2018</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r574413452-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>574413452</t>
+  </si>
+  <si>
+    <t>04/19/2018</t>
+  </si>
+  <si>
+    <t>Clean as can be!</t>
+  </si>
+  <si>
+    <t>This was a wonderful hotel, newly built, friendly staff and very clean! We enjoyed the breakfast buffet which had alot to offer and their is coffee available at any time. The rooms had many new ammenities with very nice black out blinds for sleeping.MoreShow less</t>
+  </si>
+  <si>
+    <t>Leo F, General Manager at Home2 Suites by Hilton Azusa, responded to this reviewResponded April 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2018</t>
+  </si>
+  <si>
+    <t>This was a wonderful hotel, newly built, friendly staff and very clean! We enjoyed the breakfast buffet which had alot to offer and their is coffee available at any time. The rooms had many new ammenities with very nice black out blinds for sleeping.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r573375622-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>573375622</t>
+  </si>
+  <si>
+    <t>04/14/2018</t>
+  </si>
+  <si>
+    <t>Definitely stay here!</t>
+  </si>
+  <si>
+    <t>Excellent hotel with clean, comfortable rooms and a super friendly and helpful staff! Really enjoyed our stay and will stay here again! Great breakfast! Nice pool! Awesome workout room! Very reasonable price!MoreShow less</t>
+  </si>
+  <si>
+    <t>Excellent hotel with clean, comfortable rooms and a super friendly and helpful staff! Really enjoyed our stay and will stay here again! Great breakfast! Nice pool! Awesome workout room! Very reasonable price!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r572532603-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
@@ -459,24 +777,12 @@
     <t>04/10/2018</t>
   </si>
   <si>
-    <t>Great place</t>
-  </si>
-  <si>
     <t>This people were super friendly. The suite was roomy with a clean kitchen and a sofa sleeper. The bed was comfortable and clean. The location was perfect, easy access to freeway and to a variety of restaurants! I would definitely stay her again! MoreShow less</t>
   </si>
   <si>
-    <t>Leo F, General Manager at Home2 Suites by Hilton Azusa, responded to this reviewResponded April 25, 2018</t>
-  </si>
-  <si>
-    <t>Responded April 25, 2018</t>
-  </si>
-  <si>
     <t>This people were super friendly. The suite was roomy with a clean kitchen and a sofa sleeper. The bed was comfortable and clean. The location was perfect, easy access to freeway and to a variety of restaurants! I would definitely stay her again! More</t>
   </si>
   <si>
-    <t>Denise M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r571936402-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -498,9 +804,6 @@
     <t>Please check your room for bed bugs!! staff did nothing to help me find other accomodations...Oh wait, I did get 5 large garbage bags for my troubles....They stated they were going to call an exterminator &amp; mngmt was going to call me ... no one has called me yet!!!More</t>
   </si>
   <si>
-    <t>ken3212018</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r571542634-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -525,7 +828,52 @@
     <t>Hotel is clean and easy to access from the freeway. Staff are friendly and generally accommodating. Nice complementary breakfast but they do not offer dinner or a Managers Evening Social during the week. Rooms are new, clean and have nice kitchen area. More</t>
   </si>
   <si>
-    <t>Yelitza C</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r570213147-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>570213147</t>
+  </si>
+  <si>
+    <t>04/01/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Value </t>
+  </si>
+  <si>
+    <t>Excellent price, nice size room, convenient location, helpful staff...I couldn't have been more satisfied. I love the breakfast (free) sandwiches and sugar free drink options.  Will definitely stay here next time I'm in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Excellent price, nice size room, convenient location, helpful staff...I couldn't have been more satisfied. I love the breakfast (free) sandwiches and sugar free drink options.  Will definitely stay here next time I'm in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r569768972-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>569768972</t>
+  </si>
+  <si>
+    <t>03/30/2018</t>
+  </si>
+  <si>
+    <t>Best Value in the Area</t>
+  </si>
+  <si>
+    <t>The staff were great, the room was very comfortable and clean and quiet.  The free breakfast was so good that there were lineups at the busiest time in the morning.  There are several restaurants nearby.  Staying here was a pleasant experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Leo F, General Manager at Home2 Suites by Hilton Azusa, responded to this reviewResponded April 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2018</t>
+  </si>
+  <si>
+    <t>The staff were great, the room was very comfortable and clean and quiet.  The free breakfast was so good that there were lineups at the busiest time in the morning.  There are several restaurants nearby.  Staying here was a pleasant experience.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r566585686-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
@@ -543,9 +891,6 @@
     <t>It was amazing especially for the price! I was here for four nights and only paid 549. Although the window was dirty overall I had a great experience. I definitely recommend this hotel and if you don’t want to have breakfast at the hotel McDonalds is literally a few steps away.</t>
   </si>
   <si>
-    <t>destinivarrin</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r566080293-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -561,9 +906,6 @@
     <t>verall the hotel was nice. Clean rooms (aside from trash from previous guest left behind) Sheets were amazing!! I want to buy some for my house. UNBELIEVABLE comfy bed. Slept well, which is rare for a hotel experience.</t>
   </si>
   <si>
-    <t>art14244</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r565451872-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -579,7 +921,43 @@
     <t>Very clean...I would stay again.  Good location as well and though I did not not have time to eat breakfast, it looked like it would have been above average quality and selection.  I did try the coffee which was excellent.  Well appointed rooms.</t>
   </si>
   <si>
-    <t>hav2trvl</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r564385077-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>564385077</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t>Good hotel</t>
+  </si>
+  <si>
+    <t>Nice hotel and nice rooms with kitchen including a full size fridge/freezer and microwave and sink. Good breakfast included with microwavable sandwiches.  Best choices omelet and applewoodvwith aged cheddar on chiabatta sandwich. Greek vanilla yogurt also tasty. Stay away from decaf coffee bitter with after-taste regular coffee better. Overall very good stay and will be staying there again. Thanks!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r564106451-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>564106451</t>
+  </si>
+  <si>
+    <t>03/03/2018</t>
+  </si>
+  <si>
+    <t>Dog friendly home away from home</t>
+  </si>
+  <si>
+    <t>We were looking for a dog friendly hotel at a reasonable price in Azusa. While the nightly rate at Home2 Suites was within our budget, we were happy to find that we could use our Hilton Hhonors points to pay for our stay . Although there was an additional "pet fee" for the dogs, it seemed reasonable to us.
+This was our first time traveling with our two small dogs, so we were a little nervous about  how they would handle a few nights away from home. While not the largest suite room we've ever stayed in, the room at Home2 Suites was more than adequate for the four of us and our two dogs. Our dogs felt right at home in our room.
+The room was recently updated and had all that we really needed - 2 beds, a fridge, sink and plenty of room for the dog crates. It would have been nice to have some paper towels at the kitchen sink, but we just ended up grabbing some towels from the bathroom to cover.
+We didn't spent a lot of time on property with our dogs, but found that there was enough open areas in and around the hotel to keep our dogs occupied. With regards to the dogs, there wasn't much grassy for them to run/play on, except a small yard across the street from the hotel - that's probably our only "complaint" - but it...We were looking for a dog friendly hotel at a reasonable price in Azusa. While the nightly rate at Home2 Suites was within our budget, we were happy to find that we could use our Hilton Hhonors points to pay for our stay . Although there was an additional "pet fee" for the dogs, it seemed reasonable to us.This was our first time traveling with our two small dogs, so we were a little nervous about  how they would handle a few nights away from home. While not the largest suite room we've ever stayed in, the room at Home2 Suites was more than adequate for the four of us and our two dogs. Our dogs felt right at home in our room.The room was recently updated and had all that we really needed - 2 beds, a fridge, sink and plenty of room for the dog crates. It would have been nice to have some paper towels at the kitchen sink, but we just ended up grabbing some towels from the bathroom to cover.We didn't spent a lot of time on property with our dogs, but found that there was enough open areas in and around the hotel to keep our dogs occupied. With regards to the dogs, there wasn't much grassy for them to run/play on, except a small yard across the street from the hotel - that's probably our only "complaint" - but it wasn't a deal breaker.The breakfast was ok - we thought the coffee and "make it yourself" waffles were more than good enough. But if you're looking for a high protein breakfast, you'll have to look elsewhere.In the end we felt like Home2 Suites offered a good value and we'd probably return again even if we left the dogs at home.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were looking for a dog friendly hotel at a reasonable price in Azusa. While the nightly rate at Home2 Suites was within our budget, we were happy to find that we could use our Hilton Hhonors points to pay for our stay . Although there was an additional "pet fee" for the dogs, it seemed reasonable to us.
+This was our first time traveling with our two small dogs, so we were a little nervous about  how they would handle a few nights away from home. While not the largest suite room we've ever stayed in, the room at Home2 Suites was more than adequate for the four of us and our two dogs. Our dogs felt right at home in our room.
+The room was recently updated and had all that we really needed - 2 beds, a fridge, sink and plenty of room for the dog crates. It would have been nice to have some paper towels at the kitchen sink, but we just ended up grabbing some towels from the bathroom to cover.
+We didn't spent a lot of time on property with our dogs, but found that there was enough open areas in and around the hotel to keep our dogs occupied. With regards to the dogs, there wasn't much grassy for them to run/play on, except a small yard across the street from the hotel - that's probably our only "complaint" - but it...We were looking for a dog friendly hotel at a reasonable price in Azusa. While the nightly rate at Home2 Suites was within our budget, we were happy to find that we could use our Hilton Hhonors points to pay for our stay . Although there was an additional "pet fee" for the dogs, it seemed reasonable to us.This was our first time traveling with our two small dogs, so we were a little nervous about  how they would handle a few nights away from home. While not the largest suite room we've ever stayed in, the room at Home2 Suites was more than adequate for the four of us and our two dogs. Our dogs felt right at home in our room.The room was recently updated and had all that we really needed - 2 beds, a fridge, sink and plenty of room for the dog crates. It would have been nice to have some paper towels at the kitchen sink, but we just ended up grabbing some towels from the bathroom to cover.We didn't spent a lot of time on property with our dogs, but found that there was enough open areas in and around the hotel to keep our dogs occupied. With regards to the dogs, there wasn't much grassy for them to run/play on, except a small yard across the street from the hotel - that's probably our only "complaint" - but it wasn't a deal breaker.The breakfast was ok - we thought the coffee and "make it yourself" waffles were more than good enough. But if you're looking for a high protein breakfast, you'll have to look elsewhere.In the end we felt like Home2 Suites offered a good value and we'd probably return again even if we left the dogs at home.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r561797281-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
@@ -597,15 +975,9 @@
     <t>First, the good: Very modern attractive lobby and room decor matches the photos. All staff are very helpful. Front desk, housekeeping, all very friendly, pleasant and helpful.  Full supply of attractive dishes and flatware in kitchenette. Neutrogena amenities in room. Though the shower gel dispenser in shower was empty.   Now the challenges.  Bed was ok, but bedding was an odd mixture. 100% polyester sheets very soft but don’t breathe.  Covers consisted of upper sheet with what looked like a flanged mattress pad sandwiched between the sheet and the bedspread.  Have stayed in lots of hotels. Never seen that one. Shower water pressure was poor (water regulations apply, but not to that degree). Dehumidifier runs all the time, blowing cold air. Heater only turns on when set at a high temp. When you turn the heat off, it gets cold.  Bathroom always cold. Toilet paper and tissue were thin and had a sandpaper effect. About the cheapest available. Breakfast largely inedible. Stay away from the bagel, watery orange juice and coffee. Better to go with the English muffins or perhaps cereal. Would avoid this hotel in future, though the staff is so nice that it’s ok for one night. Hilton can do better. MoreShow less</t>
   </si>
   <si>
-    <t>February 2018</t>
-  </si>
-  <si>
     <t>First, the good: Very modern attractive lobby and room decor matches the photos. All staff are very helpful. Front desk, housekeeping, all very friendly, pleasant and helpful.  Full supply of attractive dishes and flatware in kitchenette. Neutrogena amenities in room. Though the shower gel dispenser in shower was empty.   Now the challenges.  Bed was ok, but bedding was an odd mixture. 100% polyester sheets very soft but don’t breathe.  Covers consisted of upper sheet with what looked like a flanged mattress pad sandwiched between the sheet and the bedspread.  Have stayed in lots of hotels. Never seen that one. Shower water pressure was poor (water regulations apply, but not to that degree). Dehumidifier runs all the time, blowing cold air. Heater only turns on when set at a high temp. When you turn the heat off, it gets cold.  Bathroom always cold. Toilet paper and tissue were thin and had a sandpaper effect. About the cheapest available. Breakfast largely inedible. Stay away from the bagel, watery orange juice and coffee. Better to go with the English muffins or perhaps cereal. Would avoid this hotel in future, though the staff is so nice that it’s ok for one night. Hilton can do better. More</t>
   </si>
   <si>
-    <t>Greg J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r561620868-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -633,9 +1005,6 @@
     <t>Check in was a breeze and the hotel is new, which is nice. My issue lies within my room location, the breakfast service and how customer service handled my issue. My room was on the first floor and shared a wall with the breakfast prep area that the staff uses to set up for the complimentary breakfast. Early in the morning, I was woken up by noise that sounded like plates tossed left and right, doors slammed and everything else in between. When I called the front desk, the only thing the agent could come up with was to move me to another room. Considering check out was in 4 hours, that was a pointless resolve. I asked for a late checkout and she only offered until 1 p.m., the standard late checkout time. I really wish they could have done more to resolve this inconvenience. BEWARE if you are placed on the first floor...More</t>
   </si>
   <si>
-    <t>mkR2463AE</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r558891789-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -660,7 +1029,52 @@
     <t>We booked this hotel as a weekend getaway for our family.  We were looking for something near home and inexpensive and this hotel exceeded our expectations.  The hotel was very modern, very clean and very comfortable.  More</t>
   </si>
   <si>
-    <t>483jennat</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r558320586-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>558320586</t>
+  </si>
+  <si>
+    <t>02/04/2018</t>
+  </si>
+  <si>
+    <t>Very Nice</t>
+  </si>
+  <si>
+    <t>Work out room has free weights and a nautilis machine.  Hotel was clean and staff friendly.  Security guard in duty at the late night for just in case, but never felt unsafe in area.  Alot of restaurants and stuff within a 5 min drive.  I'll stay there again next go around.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nicole H, Director of Sales at Home2 Suites by Hilton Azusa, responded to this reviewResponded February 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2018</t>
+  </si>
+  <si>
+    <t>Work out room has free weights and a nautilis machine.  Hotel was clean and staff friendly.  Security guard in duty at the late night for just in case, but never felt unsafe in area.  Alot of restaurants and stuff within a 5 min drive.  I'll stay there again next go around.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r557582551-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>557582551</t>
+  </si>
+  <si>
+    <t>01/31/2018</t>
+  </si>
+  <si>
+    <t>Best in Azusa</t>
+  </si>
+  <si>
+    <t>Stayed one night while visiting our son at Azusa Pacific University and were pleasantly suprised.  Clean and comfortable rooms at a reasonable rate.  We checked in late and appreciated the presence of the security guard as there are transients that frequent the area.  We decided to stay one more night but were told they were overbooked but would see what they could do.  Within an hour they had a cancellation and were quick to confirm our stay for the second night.  We've stayed at other hotels close to the unversity while visiting our son and this is by far the best.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nicole H, Director of Sales at Home2 Suites by Hilton Azusa, responded to this reviewResponded February 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2018</t>
+  </si>
+  <si>
+    <t>Stayed one night while visiting our son at Azusa Pacific University and were pleasantly suprised.  Clean and comfortable rooms at a reasonable rate.  We checked in late and appreciated the presence of the security guard as there are transients that frequent the area.  We decided to stay one more night but were told they were overbooked but would see what they could do.  Within an hour they had a cancellation and were quick to confirm our stay for the second night.  We've stayed at other hotels close to the unversity while visiting our son and this is by far the best.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r557230022-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
@@ -678,9 +1092,6 @@
     <t>Home2 Suite provides great accommodation for the price. Location was great. There is a McDonald located in the parking lot, an In and Out across the street and a Mongolia BBQ next door. I wish the staff would not have scare me by telling me that they did not have my credit card authorization on file when they did. Making large group accommodation should not be this stressful.   MoreShow less</t>
   </si>
   <si>
-    <t>January 2018</t>
-  </si>
-  <si>
     <t>Nicole H, Director of Sales at Home2 Suites by Hilton Azusa, responded to this reviewResponded January 31, 2018</t>
   </si>
   <si>
@@ -690,9 +1101,6 @@
     <t>Home2 Suite provides great accommodation for the price. Location was great. There is a McDonald located in the parking lot, an In and Out across the street and a Mongolia BBQ next door. I wish the staff would not have scare me by telling me that they did not have my credit card authorization on file when they did. Making large group accommodation should not be this stressful.   More</t>
   </si>
   <si>
-    <t>Gary W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r557181204-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -708,9 +1116,6 @@
     <t>The hotel is new so everything worked great and the staff were very accommodating. The hotel is close to everything you could need.  The breakfast is OK but could have a few more protein choices. The location is by a freeway but we did not hear it in the room.   More</t>
   </si>
   <si>
-    <t>armandoh746</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r556748793-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -726,16 +1131,55 @@
     <t>I'll definitely be coming back here.  This hotel is new. Looks modern. Isn't outdated. Loved everything about this place. Only thing I have negative to say the complimentary continental breakfast could've had more of a selection MoreShow less</t>
   </si>
   <si>
-    <t>Nicole H, Director of Sales at Home2 Suites by Hilton Azusa, responded to this reviewResponded February 2, 2018</t>
-  </si>
-  <si>
-    <t>Responded February 2, 2018</t>
-  </si>
-  <si>
     <t>I'll definitely be coming back here.  This hotel is new. Looks modern. Isn't outdated. Loved everything about this place. Only thing I have negative to say the complimentary continental breakfast could've had more of a selection More</t>
   </si>
   <si>
-    <t>gbarron01</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r555325879-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>555325879</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>Cannot get better than this...</t>
+  </si>
+  <si>
+    <t>Most conveniently located on 210 and 39 (Azusa Ave). Ample parking with a beautiful view. Surrounded with restaurants In-n-out burger is visible from front windows. Beautifully decorated lobby and equally beautiful rooms. I will not stay anywhere else if I am in Los Angeles. Thanks Leo for managing it so beautifully.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nicole H, Director of Sales at Home2 Suites by Hilton Azusa, responded to this reviewResponded January 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2018</t>
+  </si>
+  <si>
+    <t>Most conveniently located on 210 and 39 (Azusa Ave). Ample parking with a beautiful view. Surrounded with restaurants In-n-out burger is visible from front windows. Beautifully decorated lobby and equally beautiful rooms. I will not stay anywhere else if I am in Los Angeles. Thanks Leo for managing it so beautifully.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r554622184-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>554622184</t>
+  </si>
+  <si>
+    <t>01/18/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recommending this place to EVERYONE </t>
+  </si>
+  <si>
+    <t>Great GREAT hotel.  This hotel has become my home away from home for many reasons. 1. The staff is amazing.  They are courteous and helpful.  The staff was knowledgeable in recommending things to do and see. 2. The hotel is spotless.  Everything was clean and welcoming.  Free breakfast as well. 3. My room was extremely spacious and clean.  The  beds were comfortable as well. 4. Location! It's close to the 210 freeway! But No...you don't hear any noise. It's convenient if you plan to drive during your stay, a bonus in my opinion. Oh! In-n-out happens to be down the street as well. Brand new  McDonald's is right outside your door too. Overall, it's a great location.  5. Price! You get more for your money here. Will stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Nicole H, Director of Sales at Home2 Suites by Hilton Azusa, responded to this reviewResponded January 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2018</t>
+  </si>
+  <si>
+    <t>Great GREAT hotel.  This hotel has become my home away from home for many reasons. 1. The staff is amazing.  They are courteous and helpful.  The staff was knowledgeable in recommending things to do and see. 2. The hotel is spotless.  Everything was clean and welcoming.  Free breakfast as well. 3. My room was extremely spacious and clean.  The  beds were comfortable as well. 4. Location! It's close to the 210 freeway! But No...you don't hear any noise. It's convenient if you plan to drive during your stay, a bonus in my opinion. Oh! In-n-out happens to be down the street as well. Brand new  McDonald's is right outside your door too. Overall, it's a great location.  5. Price! You get more for your money here. Will stay here again. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r554283209-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
@@ -762,9 +1206,6 @@
     <t>I'm going to to admit that I was hesitant about staying here because this part of Azusa is a bit run down and not known for great hotels... until now.  From the moment I walked in I was pleasantly surprised.  The staff was courteous, the rooms were clean, the bed was very comfortable, and the complimentary breakfast was great for people on the go.  I only wish I didn't have to leave early so I could enjoy it a bit longer. I would definitely recommend and return.More</t>
   </si>
   <si>
-    <t>Laura H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r552403171-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -789,9 +1230,6 @@
     <t>Stayed in a king suite on the 4th floor. Very quiet despite next to fwy.Gas station in front, McDonald’s next door-handy.Pool is a small rectangle and was mildly heated.Staff was EXCELLENT. Automated blackout shades were great!Included breakfast was good with lots of options. Beds were comfy; sheets were soft &amp; pillows were plenty.Kitchen was ok-not a “full” kitchen as it didn’t have an oven or stove, but there is a microwave, dishwasher, coffeemaker, and full size fridge. And toaster. My only real complaint was a very tiny bottle of shampoo :(Otherwise a good place if you need to stay for business. Free WiFi More</t>
   </si>
   <si>
-    <t>KSHfromCA</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r552021257-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -810,7 +1248,49 @@
     <t>On a whim, we decide to spend the night in southern California so we could go to Santa Anita to see the races. We found this hotel on our Hilton app. We'd never even heard of a Home2 Suites. I have to say, it was awesome! Clean, nicely decorated, good breakfast, and friendly staff. I would stay there again and again!More</t>
   </si>
   <si>
-    <t>716angelicas</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r551633384-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>551633384</t>
+  </si>
+  <si>
+    <t>01/04/2018</t>
+  </si>
+  <si>
+    <t>Wouldn’t stay again</t>
+  </si>
+  <si>
+    <t>Noisy room - backed up to elevatorCouldn’t sleep at all. There is no way they should put anyone in room 112.Not very satisfied with the breakfast optionsThe staff was nice and friendly enough but that couldn’t make up for the inability to sleep due to elevator noise.MoreShow less</t>
+  </si>
+  <si>
+    <t>Noisy room - backed up to elevatorCouldn’t sleep at all. There is no way they should put anyone in room 112.Not very satisfied with the breakfast optionsThe staff was nice and friendly enough but that couldn’t make up for the inability to sleep due to elevator noise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r551074217-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>551074217</t>
+  </si>
+  <si>
+    <t>01/02/2018</t>
+  </si>
+  <si>
+    <t>Much needed sleep</t>
+  </si>
+  <si>
+    <t>After a long day of working at the float decorating building, this hotel was a God send!  We checked in late and the bed was like sleeping in a cloud. After a great night's sleep, we were rested and ready to go back to the building to work another day.  Sleep was very important to us.  Thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Nicole H, Director of Sales at Home2 Suites by Hilton Azusa, responded to this reviewResponded January 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2018</t>
+  </si>
+  <si>
+    <t>After a long day of working at the float decorating building, this hotel was a God send!  We checked in late and the bed was like sleeping in a cloud. After a great night's sleep, we were rested and ready to go back to the building to work another day.  Sleep was very important to us.  Thank you!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r551074839-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
@@ -819,27 +1299,15 @@
     <t>551074839</t>
   </si>
   <si>
-    <t>01/02/2018</t>
-  </si>
-  <si>
     <t>AMAZING!!</t>
   </si>
   <si>
     <t>I came here for a little gateway and it was very nice to be in a place as clean as my home.... Thank you for making our stay very good and comfy. I will send my friends and family to have an equal or better experience. I would like to thank the staff for making us feel appreciated and valued. We are very low maintenance people.MoreShow less</t>
   </si>
   <si>
-    <t>Nicole H, Director of Sales at Home2 Suites by Hilton Azusa, responded to this reviewResponded January 4, 2018</t>
-  </si>
-  <si>
-    <t>Responded January 4, 2018</t>
-  </si>
-  <si>
     <t>I came here for a little gateway and it was very nice to be in a place as clean as my home.... Thank you for making our stay very good and comfy. I will send my friends and family to have an equal or better experience. I would like to thank the staff for making us feel appreciated and valued. We are very low maintenance people.More</t>
   </si>
   <si>
-    <t>GweninTX</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r550534459-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -864,9 +1332,6 @@
     <t>This is a wonderful clean new hotel. It had more amenities than most Hilton properties and is perfect if you are staying more than a few days. The rooms have large refrigerators, full size microwave ovens, dishwasher, all the kitchen items you would ever need. A cool pull out table. Comfy beds and lots of plug ins!Breakfast had more offerings than Hampton inns do. Loved the Jimmy Dean breakfast items to cook in the microwave. Oatmeal with a lot of toppings. Waffle maker with lots of different syrups. Staff were very helpful and made us feel like a valued customer. We would definitely stay here again and will remember this new Hilton concept for the future!More</t>
   </si>
   <si>
-    <t>T9035LBlizc</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r549420334-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -885,7 +1350,49 @@
     <t>You Have seen my Review. Your hotel was not the Best in any means. We had No Choice but to stay there. I hope Not to stay in another one of your hotels, especially if I have to stay there for weeks. Please be advised everyone.More</t>
   </si>
   <si>
-    <t>B6605HWkevinc</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r549183633-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>549183633</t>
+  </si>
+  <si>
+    <t>12/25/2017</t>
+  </si>
+  <si>
+    <t>Weekend Get away</t>
+  </si>
+  <si>
+    <t>Enjoy the stay family friendly, staff efficient and kind. I will stay again. This location is close to shop, restaurant and freeway for good traveling in and out of town. The rooms are clean and dog friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nicole H, Director of Sales at Home2 Suites by Hilton Azusa, responded to this reviewResponded December 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 26, 2017</t>
+  </si>
+  <si>
+    <t>Enjoy the stay family friendly, staff efficient and kind. I will stay again. This location is close to shop, restaurant and freeway for good traveling in and out of town. The rooms are clean and dog friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r546948404-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>546948404</t>
+  </si>
+  <si>
+    <t>12/13/2017</t>
+  </si>
+  <si>
+    <t>New hotel, fresh and nice</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights and was really surprised when we noticed everything was so fresh. They lotd us this hotel was newly built this year and we could see that everything was so fresh. They have free parking, breakfast and wifi included. breakfast was ordinary, not that much to choose but it suited us. WiFi was fast. It is located in northe east area of LA and we didn´t have to be in any heavy traffic queues when we arrived from north california. It is also located quite close to the large Outlet Citadel. The are is quite safe and you also have close to McDonalds and other restaurants if needed. You get great value for money. Good serviceMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights and was really surprised when we noticed everything was so fresh. They lotd us this hotel was newly built this year and we could see that everything was so fresh. They have free parking, breakfast and wifi included. breakfast was ordinary, not that much to choose but it suited us. WiFi was fast. It is located in northe east area of LA and we didn´t have to be in any heavy traffic queues when we arrived from north california. It is also located quite close to the large Outlet Citadel. The are is quite safe and you also have close to McDonalds and other restaurants if needed. You get great value for money. Good serviceMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r543099103-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
@@ -900,9 +1407,6 @@
     <t>When I first walk into the hotel lobby is had a very freh look to it and was brightly lit.  Te check in process was efficient.  The room was quite satisfactory.  The complimentary breakfast items were sufficient.MoreShow less</t>
   </si>
   <si>
-    <t>November 2017</t>
-  </si>
-  <si>
     <t>Nicole H, Director of Sales at Home2 Suites by Hilton Azusa, responded to this reviewResponded December 12, 2017</t>
   </si>
   <si>
@@ -912,9 +1416,6 @@
     <t>When I first walk into the hotel lobby is had a very freh look to it and was brightly lit.  Te check in process was efficient.  The room was quite satisfactory.  The complimentary breakfast items were sufficient.More</t>
   </si>
   <si>
-    <t>786darlened</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r542300170-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -930,13 +1431,7 @@
     <t>The suite was Beautiful and clean. I loved the breakfast. Obplan to stay again. I would like to try a different area. That is the least negative of my stay. All was great and totally revcomemd to my friends.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>The suite was Beautiful and clean. I loved the breakfast. Obplan to stay again. I would like to try a different area. That is the least negative of my stay. All was great and totally revcomemd to my friends.More</t>
-  </si>
-  <si>
-    <t>radfahrenfaireduvelo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r541485451-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
@@ -966,7 +1461,37 @@
 The parking lot is a bit dangerous because the adjacent McDonald's Drive Thru has cars speeding through the same /shared parking lot to exit. The parking spaces on the quieter back side of the hotel...Convenient location for Azusa Pacific University visits, but not much else.The handicap accessible 1 bedroom suite room is much larger and nicer than the regular/standard sized room, since the spacious bathroom with a full tub is great. In contrast, the space between the toilet and the shower in the standard, regular rooms is extremely narrow and makes it awkward just to enter and exit the small shower.  The handicap room has a bathtub with multiple options for water sources depending upon a person's needs. The window shade in the regular room was slightly broken, and could not be pulled to close and cover the bright lights of the gas station, parking lot, and McDonald's. The solution was to climb up onto the heater and manually straighten out and pull down the window shade--after that we were able to use the shade pull properly to open and close the shade. In the handicap room there was an automated button control on the wall to open and close the shade, and it worked. Of the room selection offered, would definitely pay more and go for the one bedroom suite.The beds were fine, but the doors aren't soundproof, and hallway noise and conversations may be heard. The parking lot is a bit dangerous because the adjacent McDonald's Drive Thru has cars speeding through the same /shared parking lot to exit. The parking spaces on the quieter back side of the hotel has some lighting, but also seems like an easy spot for people to smash and grab break-in to guests' cars.  Breakfast is not good, but complimentary, and the seating is insufficient for the large number of guests.  The microwaves to heat these frozen breakfast sandwiches sometimes does not work, and they are just processed food type sandwiches--not fresh. Too many guests, esp. unsupervised children, make a mess, and it's not the hotel staff's fault when one spill they clean up gets replaced by a new dribbling mess of juice or waffle batter mix, and so on.  The neighborhood ambience is slightly mixed, and one morning when we were in the lobby we saw two police officers speak to the front desk staff discussing an apparent fight or issue that occurred on the premises the night before, but didn't make it feel all that safe.More</t>
   </si>
   <si>
-    <t>Jack50</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r541427511-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>541427511</t>
+  </si>
+  <si>
+    <t>Best hotel and Location</t>
+  </si>
+  <si>
+    <t>We are writing as a very satisfied guest at your hotel under difficult circumstances. My husband is getting medical treatment at City-of-Hope about 5 miles away from your Hotel.My husband and I want to express our appreciation for the quality of service you hotel offered us while we are staying at the Home 2 Suites by Hilton. The property is beautiful and the inside finishes are great and the staff is all very friendly and helpful. The morning breakfast is a plus so that we could have a few meals in the morning. There are few restaurant within walking distance or a short drive. We believe It was the best decision; We are enjoying the peace and the quiet environment we need. This definitely added to the excellent service of the staff, allowed us to focus on my husband health.We will definitely recommend your hotel to friends and family, and we are sure we’ll be back. We hope to get the same quality of service when we return. Thanks againMoreShow less</t>
+  </si>
+  <si>
+    <t>We are writing as a very satisfied guest at your hotel under difficult circumstances. My husband is getting medical treatment at City-of-Hope about 5 miles away from your Hotel.My husband and I want to express our appreciation for the quality of service you hotel offered us while we are staying at the Home 2 Suites by Hilton. The property is beautiful and the inside finishes are great and the staff is all very friendly and helpful. The morning breakfast is a plus so that we could have a few meals in the morning. There are few restaurant within walking distance or a short drive. We believe It was the best decision; We are enjoying the peace and the quiet environment we need. This definitely added to the excellent service of the staff, allowed us to focus on my husband health.We will definitely recommend your hotel to friends and family, and we are sure we’ll be back. We hope to get the same quality of service when we return. Thanks againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r541053507-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>541053507</t>
+  </si>
+  <si>
+    <t>11/13/2017</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>Clean place.  I recommend this place if you need to stay in the area.  We went to the Azusa College football game and the location was great.  We checked out other hotel and good ones were pricey and poor ones I would not stay at.  This place is great for the price...MoreShow less</t>
+  </si>
+  <si>
+    <t>Clean place.  I recommend this place if you need to stay in the area.  We went to the Azusa College football game and the location was great.  We checked out other hotel and good ones were pricey and poor ones I would not stay at.  This place is great for the price...More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r540560744-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
@@ -985,9 +1510,6 @@
   </si>
   <si>
     <t>Spent one night here with business at Azusa Pacific. It's very convenient to the school and center. Seemed like a safe area with a McDonald's right across the parking lot and other places to eat close to the hotel. Staff were very helpful and the rooms are awesome! Clean hotel. My only issues were the shower ran out of soap (wall mounted) and no water pressure in the kitchen faucet. To be fair, had I mentioned these to the staff I'm sure they would have fixed them. So I would highly recommend this hotel to business and family and would definitely stay here again! No major complaints! More</t>
-  </si>
-  <si>
-    <t>WA-Rider</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r540532377-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
@@ -1009,9 +1531,6 @@
 The facilities include a fully equipped exercise room - complete with a filtered water dispenser, and a rack full of fresh, clean towels!; a laundry room with 2 washers and 2 dryers; a fairly well stocked "pantry" store; and outdoor seating area...Have you ever been traveling and wished you were back home - sleeping in your own bed or fixing a meal in your own kitchen? Well now you can have the next best thing! And you don't have to wear ruby slippers to get there (unless that's your thing)!My family and I had the pleasure of trying out the recently-opened (may 2017) Home2 Suites by Hilton in Azusa CA, and it is (quite literally) a home away from home. Our visit wasn't the usual 1 or 2 day stay, but a full week. So I had plenty of time to experience many of the amenities offered by this exceptional home away from home. The suites are set up like a small apartment, complete with a large flat screen TV; work desk and seating area; dishes, silverware and glasses; a refrigerator (not a tiny dorm room size either); a microwave; a kitchen sink; and, all the pots, pans and other kitchen accessories needed to make your stay amazing. The bathrooms are spacious, the showers large and equipped for people like my 88 year old dad, and the in-shower shampoo and body wash dispensers are filled with Neutrogena products!The facilities include a fully equipped exercise room - complete with a filtered water dispenser, and a rack full of fresh, clean towels!; a laundry room with 2 washers and 2 dryers; a fairly well stocked "pantry" store; and outdoor seating area with fire pit; and, a very relaxing and comfortable front lounging area equipped with sofas and lounge chairs. There is also a set of high stool dining tables in the area adjacent to the front lobby where they serve a very respectable breakfast in the morning, including make it yourself wheat waffles, a variety of cereals, oatmeal, fruit, yogurt, breads, drinks, boiled eggs, an assortment of heat-n-serve items, and more.But all of the amenities pale in comparison to the way staff treats you! Honestly - it only our walking in the door before everyone was treating us like family!! And I know why. We had the opportunity to meet the hotel's manager - Leo Flores, and he explained his hiring philosophy. Rather than hire people with years of hotel experience, he looks for people with exceptional customer service experience and great personalities. An=d it has REALLY paid off!!! If there was anything we needed, all we had to do was ask and the staff was there to help in every way possible. From the front desk, to the room service staff, and all the way to the maintenance crew, every single person on staff asked the same question, "How can I serve you?"In a 5-star rating system, this place gets 7.5 stars for being well-priced, exceptionally well planned, tailored to meet the needs of an individual or family, and for going far beyond any expectation to make you feel right at home... make that - "...right at Home2!"If you are   ANYWHERE NEAR Azusa   and looking for a place to stay - stop in, ask for Leo, take a quick tour, and you'll be glad you did!More</t>
   </si>
   <si>
-    <t>Brian W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r540038057-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -1030,7 +1549,40 @@
     <t>It was evident this was a fairly new hotel (opened in May 2017) and has all the modern amenities you expect in a all-suites hotel.  It was very clean and the staff was friendly.  There was some noise from the road because my room was on the front side of the hotel facing the busy street, but the room was otherwise comfortable and provided a great night's sleep before my early morning marathon.More</t>
   </si>
   <si>
-    <t>929charif</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r539578131-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>539578131</t>
+  </si>
+  <si>
+    <t>11/08/2017</t>
+  </si>
+  <si>
+    <t>Fantastic hotel</t>
+  </si>
+  <si>
+    <t>What a treat! The hotel is brand new and everything still smells new. The rooms ar spacious and well appointed. The service is implacable. Everyone went above and beyond to make our stay special. It's easy access from the freeway. There is plenty of parking and a lot of nearby options for dinner. Would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>What a treat! The hotel is brand new and everything still smells new. The rooms ar spacious and well appointed. The service is implacable. Everyone went above and beyond to make our stay special. It's easy access from the freeway. There is plenty of parking and a lot of nearby options for dinner. Would definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r539597843-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>539597843</t>
+  </si>
+  <si>
+    <t>11/07/2017</t>
+  </si>
+  <si>
+    <t>Well located near Azusa Pacific University</t>
+  </si>
+  <si>
+    <t>Stayed here for University visit.  Very convenient.  Staff was very nice and helpful.  A couple of housekeeping issues were resolved right away.  The room is comfortable and provides good amenities with a fridge, dishes, etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for University visit.  Very convenient.  Staff was very nice and helpful.  A couple of housekeeping issues were resolved right away.  The room is comfortable and provides good amenities with a fridge, dishes, etc.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r539297011-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
@@ -1039,9 +1591,6 @@
     <t>539297011</t>
   </si>
   <si>
-    <t>11/07/2017</t>
-  </si>
-  <si>
     <t>best hotel in azusa for Marathon</t>
   </si>
   <si>
@@ -1051,9 +1600,6 @@
     <t>I've stay here during my Revel Cayon Marathon Race.  Great service and the shuttle come is very punctual .. I recommend this hotel for business or personal stay.  However the breakfast can be better then bagels or bread.  As a runner I love to see more eggs, protein of some kind.  Water dispenser..More</t>
   </si>
   <si>
-    <t>Jer S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r538071876-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -1072,9 +1618,6 @@
     <t>I waa going to leave agood rwview until i mistakenly left my room keycard in my room when i went down for coffee in the morning.  Woman at the front desk wanted ID in addition to all the other verification info that it was really me trying to get into my room. Of course I didnt have my ID since it was in my wallet along with my room card. She was a complete !@#$% and I ened up having to wake up my family to het back into the room, which I was trying to avoid. It is nice that they want to verify who you are, but this chick wrnt to far. I just wonder what the outcome would have been if I had been alone or we all came down and left everything in the room. That chick turned my good review into a bad one.More</t>
   </si>
   <si>
-    <t>jencr202</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r537605952-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -1096,7 +1639,37 @@
     <t>This place was great! We loved the spacious one bedroom suite and large bathroom.The pull out sofa was smaller than expected but still comfortable.Staff was very friendly.Location was nice and easily accessible from freeway but a little sketchy of people wandering around parking lot due to the McDonald's next door.Breakfast had a great variety.We had to stay at a residence inn the next night in Beverly Hills and our Home2Suites made Beverly Hills VERY disappointing in comparison! Will definitely stay here againMore</t>
   </si>
   <si>
-    <t>C929QXjohnj</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r537499937-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>537499937</t>
+  </si>
+  <si>
+    <t>10/31/2017</t>
+  </si>
+  <si>
+    <t>Howling dogs in a nearby room at 7:10am!</t>
+  </si>
+  <si>
+    <t>I was on a non-pet floor, but the front desk made an exception to allow two dogs to stay in a room near me. At 7:10 AM the dogs were barking and howling for 30 minutes! I called the front desk twice about the issue before it was finally resolved.  I went to the desk later to make sure this would not be a problem the next morning, and was told "we are pet friendly hotel" The following morning I intended to grab a yogurt from the breakfast before going to church,  they were all out of yogurt and I went without breakfast . I did not bring my laptop for this weekend, but needed to do some important tasks. I intended to use the business center computers, however they were not functioning during the entire three days stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was on a non-pet floor, but the front desk made an exception to allow two dogs to stay in a room near me. At 7:10 AM the dogs were barking and howling for 30 minutes! I called the front desk twice about the issue before it was finally resolved.  I went to the desk later to make sure this would not be a problem the next morning, and was told "we are pet friendly hotel" The following morning I intended to grab a yogurt from the breakfast before going to church,  they were all out of yogurt and I went without breakfast . I did not bring my laptop for this weekend, but needed to do some important tasks. I intended to use the business center computers, however they were not functioning during the entire three days stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r537550949-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>537550949</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>Stayed here two days with a group for a baseball tournament. One of the nicest and cleanest places I have ever stayed at. Friendly staff, comfy beds, awesome breakfast. We were all very satisfied. Lots of good restaurants nearby as well. Id highly recommend if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here two days with a group for a baseball tournament. One of the nicest and cleanest places I have ever stayed at. Friendly staff, comfy beds, awesome breakfast. We were all very satisfied. Lots of good restaurants nearby as well. Id highly recommend if in the area.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r537268791-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
@@ -1117,9 +1690,6 @@
     <t>Hotel nice and clean.  Very Friendly Staff.Breakfast Area Staff Unable to keep up with demand with poor selection and not clean during the morning.  Hotel very quiet at nite.  Parking Space was great for the area when coming in late at nite.   Access to Interstate 210 great!!More</t>
   </si>
   <si>
-    <t>miah919</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r537311525-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -1135,9 +1705,6 @@
     <t>Rough night because of the loud street noise through the night.  Also, we called twice for a blanket and pillows to be delivered to the room for our guests - sadly they which never arrived.  When we called a 2nd time they did tell us they were busy.  By midnight we went to sleep.More</t>
   </si>
   <si>
-    <t>Randy P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r535825135-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -1156,7 +1723,40 @@
     <t>Great staff. Loved the hot breakfast options. Could use a couple more cereal choices. Fully stocked kitchen with plates, bowls, utensils, dish washer, microwave and full size refrigerator. Convenient to Los Angeles, Hollywood, Beverly Hills, the pacific coast and mountains.More</t>
   </si>
   <si>
-    <t>constanttraveler5</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r535504265-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>535504265</t>
+  </si>
+  <si>
+    <t>10/23/2017</t>
+  </si>
+  <si>
+    <t>First time stay at Home 2 Suites</t>
+  </si>
+  <si>
+    <t>My understanding is this is a new hotel by Hilton.  It is a step up from the Hampton Inn, especially convenient if you are planning on staying a few days, it has a mini kitchen, comfortable beds, very clean. Close to college.  MoreShow less</t>
+  </si>
+  <si>
+    <t>My understanding is this is a new hotel by Hilton.  It is a step up from the Hampton Inn, especially convenient if you are planning on staying a few days, it has a mini kitchen, comfortable beds, very clean. Close to college.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r534454409-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>534454409</t>
+  </si>
+  <si>
+    <t>10/19/2017</t>
+  </si>
+  <si>
+    <t>Fantastic stay in Azusa</t>
+  </si>
+  <si>
+    <t>I recently stayed at Home2 suites and was very impressed with the hotel and staff. The rooms were spotless and equipped with everything you might need. Every room has a desk and small kitchen stocked with items you would find in your home. The hotel is brand new, clean and modern. They also have a gym and pool. MoreShow less</t>
+  </si>
+  <si>
+    <t>I recently stayed at Home2 suites and was very impressed with the hotel and staff. The rooms were spotless and equipped with everything you might need. Every room has a desk and small kitchen stocked with items you would find in your home. The hotel is brand new, clean and modern. They also have a gym and pool. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r533929998-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
@@ -1177,9 +1777,6 @@
     <t>My family of 4 really enjoyed our one night stay here while we were in town for a quick visit with family.  The room was clean and well laid out, and I thought the full kitchen would have been very useful for a longer stay.  The bed was comfortable, the pull-out couch was perfect for the kids, and even the blinds were in good working order and easy to use (amazingly something that doesn't happen often).  The bathroom shower was big with a high shower head and a good strong water pressure.  Overall, the breakfast had a lot of options and lots of tables.  I wish there had been more fresh fruit and scrambled eggs.  We did not use the pool, but having a spa would be nice since evenings get cold.  I would definitely stay here again, just because everything was clean, in good working order, and the rooms pack a lot of organized function into a small space.More</t>
   </si>
   <si>
-    <t>Denise H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r527726154-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -1198,9 +1795,6 @@
     <t>Close to Azusa Pacific to visit my daughter. Beds were super comfy and the sheets were so soft. I want some of those! Not much in the area but shopping is not that far away. Would stay here again. Rooms were nice and clean.More</t>
   </si>
   <si>
-    <t>Thao P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r525289157-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -1219,7 +1813,43 @@
     <t>Really enjoyed the stay, customer service was good and so was housekeeping. I enjoyed the breakfast also. Good internet service and there's a pool and work out area. Would recommend to anyone coming to this area. More</t>
   </si>
   <si>
-    <t>ttieu66</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r523849112-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>523849112</t>
+  </si>
+  <si>
+    <t>09/12/2017</t>
+  </si>
+  <si>
+    <t>Great friendly staff. Clean rooms</t>
+  </si>
+  <si>
+    <t>Comfortable beds. Including pulloutClean hotel Friendly staffMany snack items Maybe more fruit options for breakfast Ease of access on and off freeways. Rooms with many amenities and separate bedroom for splitting upMoreShow less</t>
+  </si>
+  <si>
+    <t>Comfortable beds. Including pulloutClean hotel Friendly staffMany snack items Maybe more fruit options for breakfast Ease of access on and off freeways. Rooms with many amenities and separate bedroom for splitting upMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r522149522-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>522149522</t>
+  </si>
+  <si>
+    <t>09/06/2017</t>
+  </si>
+  <si>
+    <t>Fantastic!</t>
+  </si>
+  <si>
+    <t>New, Clean, well located, great price!  We completely enjoyed our stay here.  We've used many hotels in the area and will definitely be back to Home2 Suite!!  Great Breakfast as well as a full kitchen which was very handy!  Only 5 minutes away from Azusa Pacific University!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>New, Clean, well located, great price!  We completely enjoyed our stay here.  We've used many hotels in the area and will definitely be back to Home2 Suite!!  Great Breakfast as well as a full kitchen which was very handy!  Only 5 minutes away from Azusa Pacific University!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r521498313-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
@@ -1240,9 +1870,6 @@
     <t>First, this hotel just completed about two months.    Everything about it was great!   Nice and refreshing from the lobby to the room.    I would defintely stay here again, but they just need a quieter A/C unit in the room.More</t>
   </si>
   <si>
-    <t>markdU8380UW</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r521616175-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -1258,9 +1885,6 @@
     <t>We evacuated our house due to the large fire in Los Angeles this past labor day weekend.  When booking the room with a reservation specialist over the phone and were told there was a $125 pet fee, which I had her clarify as a deposit that would be returned should our dog not make a mess.  After checking in to the hotel, the staff noticed my do and said I will need to pay a mandatory $125 pet fee.  I explained about being told it was a deposit and after some back and forth they reduced my fee to $100 and eventually $75.  I appreciate that they reduced the fee and they were very nice to deal with.  However I feel the fee should've been waived as there was a communication error on their part.    Aside from the pet fee mishap, the hotel was clean, and the suite was great.  The immediate area wasn't very nice but we weren't on vacation, but escaping a wild fire.More</t>
   </si>
   <si>
-    <t>Imajin26</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r516145831-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -1276,10 +1900,40 @@
     <t>Everything was brand new and super clean.  Felt like home.  Peace and quiet. The photos online does not do justice.  We originally booked for one night, but we ended up staying for two nights.  Definitely will be back!</t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
-    <t>923JenniferH923</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r515385583-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>515385583</t>
+  </si>
+  <si>
+    <t>08/19/2017</t>
+  </si>
+  <si>
+    <t>Please fix electrical</t>
+  </si>
+  <si>
+    <t>room was new and clean, bed was king and beautiful - only problem, i turned on lights sparks were everywhere.  Started to smell like smoke. I immediately packed my bags and went to check out at reception.MoreShow less</t>
+  </si>
+  <si>
+    <t>room was new and clean, bed was king and beautiful - only problem, i turned on lights sparks were everywhere.  Started to smell like smoke. I immediately packed my bags and went to check out at reception.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r514914862-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>514914862</t>
+  </si>
+  <si>
+    <t>08/18/2017</t>
+  </si>
+  <si>
+    <t>Nice and convenient hotel.</t>
+  </si>
+  <si>
+    <t>This hotel is fairly new. I could still smell the fresh paint. Rooms were roomy and nice. One of the most comfortable hotel beds I've ever slept in. It's very convenient considering it's adjacent to 210 Frwy. Fairly quiet. Considering my room was facing towards the main street. Have a small pool. Didn't use the exercise equipment but it looked nice. There is an In n Out right in front of the hotel and McDonalds next to the hotel too. Breakfast was good. Only thing is that I wasn't offered bottle water or snack when I checked in as like iother Hilton hotels. Overall hotels is nice and Nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is fairly new. I could still smell the fresh paint. Rooms were roomy and nice. One of the most comfortable hotel beds I've ever slept in. It's very convenient considering it's adjacent to 210 Frwy. Fairly quiet. Considering my room was facing towards the main street. Have a small pool. Didn't use the exercise equipment but it looked nice. There is an In n Out right in front of the hotel and McDonalds next to the hotel too. Breakfast was good. Only thing is that I wasn't offered bottle water or snack when I checked in as like iother Hilton hotels. Overall hotels is nice and Nice.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r514621301-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
@@ -1300,9 +1954,6 @@
     <t>This hotel had only opened in the last two weeks.  We could still smell the paint/construction orders, but it wasn't too bad - it was just noticeable.    We were expecting a better area for our dog to go pee.  There are no grass areas nearby, so we used the small parking lot islands (covered with bark).  They should consider a better solution.  The free breakfast was pretty good.  I liked having more than just bagels, cereal, and hard boiled eggs to choose from.    The service was GREAT.  The staff was very friendly and helpful with all of our requests.  You did a very good job on the training and hiring for such a recently opened hotel.More</t>
   </si>
   <si>
-    <t>Angela J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r511649102-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -1312,9 +1963,6 @@
     <t>08/11/2017</t>
   </si>
   <si>
-    <t>Great place to stay!</t>
-  </si>
-  <si>
     <t>This is one of my favorite hotels "HOME2" I search for them in every town I stay in. Always so clean, the staff is fantastic and the complimentary breakfast is phenomenal. We will always return! The rooms have full size fridges and dishwashers for longer term stays and a kitchen sink which is great for kids and food.MoreShow less</t>
   </si>
   <si>
@@ -1337,6 +1985,42 @@
   </si>
   <si>
     <t>This hotel was close to our son's college, APU, so we thought we would try it out.  Very clean, love the sheets (need some for my home), breakfast options were great, service was great, room was spacious, lots of kitchen benefits if someone is here for extended stay.  Would definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r509119711-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>509119711</t>
+  </si>
+  <si>
+    <t>08/05/2017</t>
+  </si>
+  <si>
+    <t>Home2.......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A few flukes for a new location were to be expected. Disappointed pool wasn't open for kids, which I felt was part of the cost. Staff was very helpful.  Breakfast didn't provide options I am used to,  but prepackaged options were available. </t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d12392421-r508795863-Home2_Suites_by_Hilton_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>508795863</t>
+  </si>
+  <si>
+    <t>08/04/2017</t>
+  </si>
+  <si>
+    <t>Customer service</t>
+  </si>
+  <si>
+    <t>Desk clerk needs customer training service Breakfast stafff was worried about cleaning the area but no interaction with guest and not refilling food The noise level next to other room is noisy No follow up from the dest staff of how is everything MoreShow less</t>
+  </si>
+  <si>
+    <t>Desk clerk needs customer training service Breakfast stafff was worried about cleaning the area but no interaction with guest and not refilling food The noise level next to other room is noisy No follow up from the dest staff of how is everything More</t>
   </si>
 </sst>
 </file>
@@ -1841,48 +2525,44 @@
       <c r="A2" t="n">
         <v>66188</v>
       </c>
-      <c r="B2" t="n">
-        <v>193589</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
       <c r="P2" t="n">
         <v>5</v>
       </c>
@@ -1890,7 +2570,7 @@
         <v>5</v>
       </c>
       <c r="R2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -1903,73 +2583,63 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>56</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>66188</v>
       </c>
-      <c r="B3" t="n">
-        <v>193590</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>62</v>
       </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>53</v>
       </c>
-      <c r="O3" t="s">
-        <v>54</v>
-      </c>
       <c r="P3" t="n">
         <v>5</v>
       </c>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
         <v>5</v>
@@ -1978,128 +2648,130 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>66188</v>
       </c>
-      <c r="B4" t="n">
-        <v>193591</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>66188</v>
       </c>
-      <c r="B5" t="n">
-        <v>193592</v>
-      </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
         <v>53</v>
       </c>
-      <c r="O5" t="s">
-        <v>78</v>
-      </c>
       <c r="P5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="n">
         <v>5</v>
@@ -2117,12 +2789,8 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>55</v>
-      </c>
-      <c r="X5" t="s">
-        <v>56</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
         <v>79</v>
       </c>
@@ -2131,26 +2799,22 @@
       <c r="A6" t="n">
         <v>66188</v>
       </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
         <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
         <v>82</v>
@@ -2165,94 +2829,94 @@
         <v>85</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="O6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="X6" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>66188</v>
       </c>
-      <c r="B7" t="n">
-        <v>3981</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="O7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P7" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
       <c r="Q7" t="n">
         <v>5</v>
       </c>
-      <c r="R7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
       <c r="S7" t="n">
         <v>5</v>
       </c>
@@ -2277,50 +2941,46 @@
       <c r="A8" t="n">
         <v>66188</v>
       </c>
-      <c r="B8" t="n">
-        <v>193593</v>
-      </c>
-      <c r="C8" t="s">
-        <v>97</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
         <v>98</v>
       </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>99</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>100</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>101</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>102</v>
       </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>53</v>
       </c>
-      <c r="O8" t="s">
-        <v>54</v>
-      </c>
       <c r="P8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
         <v>5</v>
@@ -2329,7 +2989,7 @@
         <v>5</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
@@ -2339,10 +2999,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="X8" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="Y8" t="s">
         <v>103</v>
@@ -2352,32 +3012,28 @@
       <c r="A9" t="n">
         <v>66188</v>
       </c>
-      <c r="B9" t="n">
-        <v>193594</v>
-      </c>
-      <c r="C9" t="s">
-        <v>104</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
         <v>105</v>
       </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>106</v>
-      </c>
-      <c r="J9" t="s">
-        <v>100</v>
       </c>
       <c r="K9" t="s">
         <v>107</v>
@@ -2389,10 +3045,10 @@
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="O9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -2408,16 +3064,16 @@
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="X9" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="Y9" t="s">
         <v>109</v>
@@ -2427,47 +3083,43 @@
       <c r="A10" t="n">
         <v>66188</v>
       </c>
-      <c r="B10" t="n">
-        <v>193595</v>
-      </c>
-      <c r="C10" t="s">
-        <v>110</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
         <v>111</v>
       </c>
-      <c r="G10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>112</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>113</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>114</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>62</v>
+      </c>
+      <c r="O10" t="s">
         <v>115</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O10" t="s">
-        <v>116</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2488,57 +3140,57 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>116</v>
+      </c>
+      <c r="X10" t="s">
+        <v>117</v>
+      </c>
       <c r="Y10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>66188</v>
       </c>
-      <c r="B11" t="n">
-        <v>58848</v>
-      </c>
-      <c r="C11" t="s">
-        <v>117</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="O11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2547,7 +3199,7 @@
         <v>5</v>
       </c>
       <c r="R11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -2573,47 +3225,43 @@
       <c r="A12" t="n">
         <v>66188</v>
       </c>
-      <c r="B12" t="n">
-        <v>193596</v>
-      </c>
-      <c r="C12" t="s">
-        <v>127</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
         <v>128</v>
       </c>
-      <c r="G12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s">
         <v>129</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>130</v>
       </c>
-      <c r="K12" t="s">
-        <v>131</v>
-      </c>
-      <c r="L12" t="s">
-        <v>132</v>
-      </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="O12" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -2635,144 +3283,126 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="X12" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="Y12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>66188</v>
       </c>
-      <c r="B13" t="n">
-        <v>193597</v>
-      </c>
-      <c r="C13" t="s">
-        <v>136</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="O13" t="s">
-        <v>78</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="n">
-        <v>4</v>
-      </c>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>4</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="X13" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="Y13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>66188</v>
       </c>
-      <c r="B14" t="n">
-        <v>193598</v>
-      </c>
-      <c r="C14" t="s">
-        <v>143</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="O14" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="P14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
         <v>5</v>
       </c>
       <c r="R14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2785,289 +3415,277 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="X14" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="Y14" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>66188</v>
       </c>
-      <c r="B15" t="n">
-        <v>12875</v>
-      </c>
-      <c r="C15" t="s">
-        <v>152</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="J15" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="O15" t="s">
-        <v>54</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
       <c r="R15" t="n">
         <v>3</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="X15" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y15" t="s">
         <v>150</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>66188</v>
       </c>
-      <c r="B16" t="n">
-        <v>193599</v>
-      </c>
-      <c r="C16" t="s">
-        <v>160</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="J16" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="K16" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="L16" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="O16" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q16" t="n">
         <v>5</v>
       </c>
       <c r="R16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="X16" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="Y16" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>66188</v>
       </c>
-      <c r="B17" t="n">
-        <v>193600</v>
-      </c>
-      <c r="C17" t="s">
-        <v>169</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="J17" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="K17" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="L17" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="O17" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="P17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>124</v>
+      </c>
+      <c r="X17" t="s">
+        <v>125</v>
+      </c>
       <c r="Y17" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>66188</v>
       </c>
-      <c r="B18" t="n">
-        <v>193601</v>
-      </c>
-      <c r="C18" t="s">
-        <v>175</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="J18" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="K18" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="L18" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="O18" t="s">
-        <v>54</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="n">
         <v>5</v>
       </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
+      <c r="R18" t="s"/>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
@@ -3076,267 +3694,273 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>168</v>
+      </c>
+      <c r="X18" t="s">
+        <v>169</v>
+      </c>
       <c r="Y18" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>66188</v>
       </c>
-      <c r="B19" t="n">
-        <v>193602</v>
-      </c>
-      <c r="C19" t="s">
-        <v>181</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="J19" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="K19" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="L19" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="O19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
         <v>4</v>
       </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
       <c r="R19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>168</v>
+      </c>
+      <c r="X19" t="s">
+        <v>169</v>
+      </c>
       <c r="Y19" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>66188</v>
       </c>
-      <c r="B20" t="n">
-        <v>193603</v>
-      </c>
-      <c r="C20" t="s">
-        <v>187</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="J20" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="K20" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="L20" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>62</v>
+      </c>
+      <c r="O20" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
         <v>3</v>
       </c>
-      <c r="N20" t="s">
-        <v>193</v>
-      </c>
-      <c r="O20" t="s">
-        <v>116</v>
-      </c>
-      <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
-      <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="X20" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Y20" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>66188</v>
       </c>
-      <c r="B21" t="n">
-        <v>23251</v>
-      </c>
-      <c r="C21" t="s">
-        <v>195</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="J21" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="K21" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="L21" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>193</v>
+        <v>62</v>
       </c>
       <c r="O21" t="s">
-        <v>201</v>
-      </c>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
       <c r="R21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="X21" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="Y21" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>66188</v>
       </c>
-      <c r="B22" t="n">
-        <v>193604</v>
-      </c>
-      <c r="C22" t="s">
-        <v>205</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="J22" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="K22" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="L22" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>193</v>
+        <v>62</v>
       </c>
       <c r="O22" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="P22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q22" t="n">
         <v>5</v>
@@ -3349,154 +3973,136 @@
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="X22" t="s">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="Y22" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>66188</v>
       </c>
-      <c r="B23" t="n">
-        <v>193605</v>
-      </c>
-      <c r="C23" t="s">
-        <v>214</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="J23" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="K23" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="L23" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>220</v>
+        <v>62</v>
       </c>
       <c r="O23" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
         <v>4</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
-      <c r="R23" t="n">
-        <v>5</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>221</v>
-      </c>
-      <c r="X23" t="s">
-        <v>222</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>66188</v>
       </c>
-      <c r="B24" t="n">
-        <v>23215</v>
-      </c>
-      <c r="C24" t="s">
-        <v>224</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="J24" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="K24" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="L24" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="O24" t="s">
-        <v>116</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
       <c r="R24" t="n">
         <v>5</v>
       </c>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
         <v>5</v>
@@ -3504,61 +4110,53 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>221</v>
-      </c>
-      <c r="X24" t="s">
-        <v>222</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>66188</v>
       </c>
-      <c r="B25" t="n">
-        <v>193606</v>
-      </c>
-      <c r="C25" t="s">
-        <v>230</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="J25" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="K25" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="L25" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="O25" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -3579,61 +4177,53 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>236</v>
-      </c>
-      <c r="X25" t="s">
-        <v>237</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>66188</v>
       </c>
-      <c r="B26" t="n">
-        <v>193607</v>
-      </c>
-      <c r="C26" t="s">
-        <v>239</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="J26" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="K26" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="L26" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="O26" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3642,7 +4232,7 @@
         <v>5</v>
       </c>
       <c r="R26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3655,129 +4245,131 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="X26" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="Y26" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>66188</v>
       </c>
-      <c r="B27" t="n">
-        <v>1237</v>
-      </c>
-      <c r="C27" t="s">
-        <v>248</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="J27" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="K27" t="s">
-        <v>252</v>
+        <v>186</v>
       </c>
       <c r="L27" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="O27" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
       <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="X27" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="Y27" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>66188</v>
       </c>
-      <c r="B28" t="n">
-        <v>193608</v>
-      </c>
-      <c r="C28" t="s">
-        <v>257</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="J28" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="K28" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="L28" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>93</v>
+        <v>203</v>
       </c>
       <c r="O28" t="s">
-        <v>78</v>
-      </c>
-      <c r="P28" t="s"/>
-      <c r="Q28" t="s"/>
-      <c r="R28" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
       <c r="S28" t="n">
         <v>5</v>
       </c>
@@ -3789,60 +4381,56 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="X28" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="Y28" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>66188</v>
       </c>
-      <c r="B29" t="n">
-        <v>193609</v>
-      </c>
-      <c r="C29" t="s">
-        <v>264</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="J29" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="K29" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="L29" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>93</v>
+        <v>203</v>
       </c>
       <c r="O29" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -3851,207 +4439,211 @@
         <v>5</v>
       </c>
       <c r="R29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="X29" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="Y29" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>66188</v>
       </c>
-      <c r="B30" t="n">
-        <v>41053</v>
-      </c>
-      <c r="C30" t="s">
-        <v>273</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="J30" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="K30" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="L30" t="s">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
-      <c r="N30" t="s"/>
-      <c r="O30" t="s"/>
-      <c r="P30" t="s"/>
-      <c r="Q30" t="s"/>
-      <c r="R30" t="s"/>
-      <c r="S30" t="s"/>
+      <c r="N30" t="s">
+        <v>137</v>
+      </c>
+      <c r="O30" t="s">
+        <v>71</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="X30" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="Y30" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>66188</v>
       </c>
-      <c r="B31" t="n">
-        <v>193610</v>
-      </c>
-      <c r="C31" t="s">
-        <v>282</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="J31" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="K31" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="L31" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="M31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="O31" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="P31" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q31" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
       <c r="R31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="X31" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="Y31" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>66188</v>
       </c>
-      <c r="B32" t="n">
-        <v>193611</v>
-      </c>
-      <c r="C32" t="s">
-        <v>289</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="J32" t="s">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="K32" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="L32" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>294</v>
+        <v>137</v>
       </c>
       <c r="O32" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4073,204 +4665,194 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
       <c r="X32" t="s">
-        <v>296</v>
+        <v>242</v>
       </c>
       <c r="Y32" t="s">
-        <v>297</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>66188</v>
       </c>
-      <c r="B33" t="n">
-        <v>193612</v>
-      </c>
-      <c r="C33" t="s">
-        <v>298</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="J33" t="s">
-        <v>301</v>
+        <v>257</v>
       </c>
       <c r="K33" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
       <c r="L33" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="O33" t="s">
-        <v>304</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
       <c r="R33" t="n">
         <v>3</v>
       </c>
       <c r="S33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
       <c r="X33" t="s">
-        <v>296</v>
+        <v>242</v>
       </c>
       <c r="Y33" t="s">
-        <v>305</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>66188</v>
       </c>
-      <c r="B34" t="n">
-        <v>193613</v>
-      </c>
-      <c r="C34" t="s">
-        <v>306</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>307</v>
+        <v>262</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>308</v>
+        <v>263</v>
       </c>
       <c r="J34" t="s">
-        <v>309</v>
+        <v>264</v>
       </c>
       <c r="K34" t="s">
-        <v>310</v>
+        <v>265</v>
       </c>
       <c r="L34" t="s">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>312</v>
+        <v>137</v>
       </c>
       <c r="O34" t="s">
-        <v>54</v>
-      </c>
-      <c r="P34" t="s"/>
-      <c r="Q34" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
       <c r="R34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
         <v>4</v>
       </c>
-      <c r="T34" t="s"/>
-      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="X34" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="Y34" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>66188</v>
       </c>
-      <c r="B35" t="n">
-        <v>193614</v>
-      </c>
-      <c r="C35" t="s">
-        <v>314</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
       <c r="J35" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
       <c r="K35" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
       <c r="L35" t="s">
-        <v>319</v>
+        <v>274</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="O35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4282,66 +4864,62 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="X35" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="Y35" t="s">
-        <v>320</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>66188</v>
       </c>
-      <c r="B36" t="n">
-        <v>193615</v>
-      </c>
-      <c r="C36" t="s">
-        <v>321</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>322</v>
+        <v>277</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>323</v>
+        <v>278</v>
       </c>
       <c r="J36" t="s">
-        <v>317</v>
+        <v>279</v>
       </c>
       <c r="K36" t="s">
-        <v>324</v>
+        <v>280</v>
       </c>
       <c r="L36" t="s">
-        <v>325</v>
+        <v>281</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="O36" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="s"/>
       <c r="S36" t="n">
         <v>5</v>
       </c>
@@ -4353,72 +4931,68 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="X36" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="Y36" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>66188</v>
       </c>
-      <c r="B37" t="n">
-        <v>7473</v>
-      </c>
-      <c r="C37" t="s">
-        <v>327</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>328</v>
+        <v>286</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
       <c r="J37" t="s">
-        <v>330</v>
+        <v>288</v>
       </c>
       <c r="K37" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="L37" t="s">
-        <v>332</v>
+        <v>290</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="O37" t="s">
-        <v>304</v>
+        <v>115</v>
       </c>
       <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
         <v>4</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
-      <c r="R37" t="n">
-        <v>4</v>
-      </c>
-      <c r="S37" t="n">
-        <v>5</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
@@ -4427,71 +5001,65 @@
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s">
-        <v>295</v>
-      </c>
-      <c r="X37" t="s">
-        <v>296</v>
-      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>333</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>66188</v>
       </c>
-      <c r="B38" t="n">
-        <v>193616</v>
-      </c>
-      <c r="C38" t="s">
-        <v>334</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>335</v>
+        <v>291</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="J38" t="s">
-        <v>337</v>
+        <v>293</v>
       </c>
       <c r="K38" t="s">
-        <v>338</v>
+        <v>294</v>
       </c>
       <c r="L38" t="s">
-        <v>339</v>
+        <v>295</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="O38" t="s">
-        <v>304</v>
-      </c>
-      <c r="P38" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
       <c r="Q38" t="n">
         <v>5</v>
       </c>
       <c r="R38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
@@ -4500,429 +5068,371 @@
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s">
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
         <v>295</v>
-      </c>
-      <c r="X38" t="s">
-        <v>296</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>66188</v>
       </c>
-      <c r="B39" t="n">
-        <v>193617</v>
-      </c>
-      <c r="C39" t="s">
-        <v>341</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>342</v>
+        <v>296</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>343</v>
+        <v>297</v>
       </c>
       <c r="J39" t="s">
-        <v>344</v>
+        <v>298</v>
       </c>
       <c r="K39" t="s">
-        <v>345</v>
+        <v>299</v>
       </c>
       <c r="L39" t="s">
-        <v>346</v>
+        <v>300</v>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="O39" t="s">
-        <v>78</v>
-      </c>
-      <c r="P39" t="s"/>
-      <c r="Q39" t="s"/>
-      <c r="R39" t="s"/>
-      <c r="S39" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
       <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s">
-        <v>295</v>
-      </c>
-      <c r="X39" t="s">
-        <v>296</v>
-      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>347</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>66188</v>
       </c>
-      <c r="B40" t="n">
-        <v>193618</v>
-      </c>
-      <c r="C40" t="s">
-        <v>348</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>349</v>
+        <v>301</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="J40" t="s">
-        <v>351</v>
+        <v>303</v>
       </c>
       <c r="K40" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
       <c r="L40" t="s">
-        <v>353</v>
+        <v>305</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>354</v>
+        <v>282</v>
       </c>
       <c r="O40" t="s">
-        <v>78</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>4</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
-        <v>295</v>
-      </c>
-      <c r="X40" t="s">
-        <v>296</v>
-      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>355</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>66188</v>
       </c>
-      <c r="B41" t="n">
-        <v>193619</v>
-      </c>
-      <c r="C41" t="s">
-        <v>356</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>357</v>
+        <v>306</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>358</v>
+        <v>307</v>
       </c>
       <c r="J41" t="s">
-        <v>359</v>
+        <v>308</v>
       </c>
       <c r="K41" t="s">
-        <v>360</v>
+        <v>309</v>
       </c>
       <c r="L41" t="s">
-        <v>361</v>
+        <v>310</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>354</v>
+        <v>282</v>
       </c>
       <c r="O41" t="s">
-        <v>78</v>
-      </c>
-      <c r="P41" t="n">
+        <v>71</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
         <v>4</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
-      <c r="R41" t="n">
-        <v>5</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s">
-        <v>295</v>
-      </c>
-      <c r="X41" t="s">
-        <v>296</v>
-      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>362</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>66188</v>
       </c>
-      <c r="B42" t="n">
-        <v>193620</v>
-      </c>
-      <c r="C42" t="s">
-        <v>363</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>364</v>
+        <v>312</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>365</v>
+        <v>313</v>
       </c>
       <c r="J42" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="K42" t="s">
-        <v>366</v>
+        <v>315</v>
       </c>
       <c r="L42" t="s">
-        <v>367</v>
+        <v>316</v>
       </c>
       <c r="M42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>354</v>
+        <v>282</v>
       </c>
       <c r="O42" t="s">
-        <v>201</v>
-      </c>
-      <c r="P42" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>4</v>
-      </c>
-      <c r="R42" t="n">
-        <v>3</v>
-      </c>
-      <c r="S42" t="n">
-        <v>4</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>2</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="X42" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="Y42" t="s">
-        <v>368</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>66188</v>
       </c>
-      <c r="B43" t="n">
-        <v>42192</v>
-      </c>
-      <c r="C43" t="s">
-        <v>369</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>370</v>
+        <v>318</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>371</v>
+        <v>319</v>
       </c>
       <c r="J43" t="s">
-        <v>372</v>
+        <v>320</v>
       </c>
       <c r="K43" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="L43" t="s">
-        <v>374</v>
+        <v>322</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>354</v>
+        <v>282</v>
       </c>
       <c r="O43" t="s">
-        <v>78</v>
-      </c>
-      <c r="P43" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
       <c r="R43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="X43" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="Y43" t="s">
-        <v>375</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>66188</v>
       </c>
-      <c r="B44" t="n">
-        <v>193621</v>
-      </c>
-      <c r="C44" t="s">
-        <v>376</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>377</v>
+        <v>327</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>378</v>
+        <v>328</v>
       </c>
       <c r="J44" t="s">
-        <v>379</v>
+        <v>329</v>
       </c>
       <c r="K44" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="L44" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>354</v>
+        <v>282</v>
       </c>
       <c r="O44" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="P44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q44" t="n">
         <v>5</v>
@@ -4941,356 +5451,320 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="X44" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="Y44" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>66188</v>
       </c>
-      <c r="B45" t="n">
-        <v>37418</v>
-      </c>
-      <c r="C45" t="s">
-        <v>383</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>384</v>
+        <v>335</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>385</v>
+        <v>336</v>
       </c>
       <c r="J45" t="s">
-        <v>386</v>
+        <v>337</v>
       </c>
       <c r="K45" t="s">
-        <v>387</v>
+        <v>338</v>
       </c>
       <c r="L45" t="s">
-        <v>388</v>
+        <v>339</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="O45" t="s">
-        <v>78</v>
-      </c>
-      <c r="P45" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>5</v>
-      </c>
-      <c r="R45" t="n">
-        <v>4</v>
-      </c>
-      <c r="S45" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>4</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>295</v>
+        <v>340</v>
       </c>
       <c r="X45" t="s">
-        <v>296</v>
+        <v>341</v>
       </c>
       <c r="Y45" t="s">
-        <v>389</v>
+        <v>342</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>66188</v>
       </c>
-      <c r="B46" t="n">
-        <v>193622</v>
-      </c>
-      <c r="C46" t="s">
-        <v>390</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>391</v>
+        <v>343</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>392</v>
+        <v>344</v>
       </c>
       <c r="J46" t="s">
-        <v>393</v>
+        <v>345</v>
       </c>
       <c r="K46" t="s">
-        <v>394</v>
+        <v>346</v>
       </c>
       <c r="L46" t="s">
-        <v>395</v>
+        <v>347</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>312</v>
+        <v>275</v>
       </c>
       <c r="O46" t="s">
-        <v>116</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>5</v>
-      </c>
-      <c r="R46" t="n">
-        <v>4</v>
-      </c>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>4</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>295</v>
+        <v>348</v>
       </c>
       <c r="X46" t="s">
-        <v>296</v>
+        <v>349</v>
       </c>
       <c r="Y46" t="s">
-        <v>396</v>
+        <v>350</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>66188</v>
       </c>
-      <c r="B47" t="n">
-        <v>193623</v>
-      </c>
-      <c r="C47" t="s">
-        <v>397</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>398</v>
+        <v>351</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
       <c r="J47" t="s">
-        <v>400</v>
+        <v>353</v>
       </c>
       <c r="K47" t="s">
-        <v>401</v>
+        <v>354</v>
       </c>
       <c r="L47" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
       <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>275</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
         <v>4</v>
       </c>
-      <c r="N47" t="s">
-        <v>312</v>
-      </c>
-      <c r="O47" t="s">
-        <v>78</v>
-      </c>
-      <c r="P47" t="n">
-        <v>5</v>
-      </c>
       <c r="Q47" t="n">
         <v>5</v>
       </c>
-      <c r="R47" t="s"/>
-      <c r="S47" t="s"/>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>295</v>
+        <v>356</v>
       </c>
       <c r="X47" t="s">
-        <v>296</v>
+        <v>357</v>
       </c>
       <c r="Y47" t="s">
-        <v>403</v>
+        <v>358</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>66188</v>
       </c>
-      <c r="B48" t="n">
-        <v>193624</v>
-      </c>
-      <c r="C48" t="s">
-        <v>404</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>405</v>
+        <v>359</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>406</v>
+        <v>360</v>
       </c>
       <c r="J48" t="s">
-        <v>400</v>
+        <v>353</v>
       </c>
       <c r="K48" t="s">
-        <v>407</v>
+        <v>361</v>
       </c>
       <c r="L48" t="s">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="M48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>312</v>
+        <v>275</v>
       </c>
       <c r="O48" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="P48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>295</v>
+        <v>356</v>
       </c>
       <c r="X48" t="s">
-        <v>296</v>
+        <v>357</v>
       </c>
       <c r="Y48" t="s">
-        <v>409</v>
+        <v>363</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>66188</v>
       </c>
-      <c r="B49" t="n">
-        <v>193625</v>
-      </c>
-      <c r="C49" t="s">
-        <v>410</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>411</v>
+        <v>364</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>412</v>
+        <v>365</v>
       </c>
       <c r="J49" t="s">
-        <v>413</v>
+        <v>366</v>
       </c>
       <c r="K49" t="s">
-        <v>414</v>
+        <v>367</v>
       </c>
       <c r="L49" t="s">
-        <v>415</v>
+        <v>368</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>416</v>
+        <v>275</v>
       </c>
       <c r="O49" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5311,69 +5785,63 @@
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>348</v>
+      </c>
+      <c r="X49" t="s">
+        <v>349</v>
+      </c>
       <c r="Y49" t="s">
-        <v>415</v>
+        <v>369</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>66188</v>
       </c>
-      <c r="B50" t="n">
-        <v>193626</v>
-      </c>
-      <c r="C50" t="s">
-        <v>417</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>418</v>
+        <v>370</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>419</v>
+        <v>371</v>
       </c>
       <c r="J50" t="s">
-        <v>420</v>
+        <v>372</v>
       </c>
       <c r="K50" t="s">
-        <v>421</v>
+        <v>373</v>
       </c>
       <c r="L50" t="s">
-        <v>422</v>
+        <v>374</v>
       </c>
       <c r="M50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>416</v>
+        <v>167</v>
       </c>
       <c r="O50" t="s">
-        <v>78</v>
-      </c>
-      <c r="P50" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>4</v>
-      </c>
-      <c r="R50" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
       <c r="S50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
@@ -5383,135 +5851,117 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>295</v>
+        <v>375</v>
       </c>
       <c r="X50" t="s">
-        <v>296</v>
+        <v>376</v>
       </c>
       <c r="Y50" t="s">
-        <v>423</v>
+        <v>377</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>66188</v>
       </c>
-      <c r="B51" t="n">
-        <v>5372</v>
-      </c>
-      <c r="C51" t="s">
-        <v>424</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>425</v>
+        <v>378</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>426</v>
+        <v>379</v>
       </c>
       <c r="J51" t="s">
-        <v>427</v>
+        <v>380</v>
       </c>
       <c r="K51" t="s">
-        <v>428</v>
+        <v>381</v>
       </c>
       <c r="L51" t="s">
-        <v>429</v>
+        <v>382</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>416</v>
+        <v>167</v>
       </c>
       <c r="O51" t="s">
-        <v>78</v>
-      </c>
-      <c r="P51" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>5</v>
-      </c>
-      <c r="R51" t="n">
-        <v>5</v>
-      </c>
-      <c r="S51" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="n">
-        <v>5</v>
-      </c>
+      <c r="U51" t="s"/>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>295</v>
+        <v>383</v>
       </c>
       <c r="X51" t="s">
-        <v>296</v>
+        <v>384</v>
       </c>
       <c r="Y51" t="s">
-        <v>430</v>
+        <v>385</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>66188</v>
       </c>
-      <c r="B52" t="n">
-        <v>3981</v>
-      </c>
-      <c r="C52" t="s">
-        <v>87</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>431</v>
+        <v>386</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>432</v>
+        <v>387</v>
       </c>
       <c r="J52" t="s">
-        <v>433</v>
+        <v>388</v>
       </c>
       <c r="K52" t="s">
-        <v>434</v>
+        <v>389</v>
       </c>
       <c r="L52" t="s">
-        <v>435</v>
+        <v>390</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>416</v>
+        <v>275</v>
       </c>
       <c r="O52" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5520,7 +5970,7 @@
         <v>5</v>
       </c>
       <c r="R52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S52" t="n">
         <v>5</v>
@@ -5533,13 +5983,3051 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>295</v>
+        <v>391</v>
       </c>
       <c r="X52" t="s">
-        <v>296</v>
+        <v>392</v>
       </c>
       <c r="Y52" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>394</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>395</v>
+      </c>
+      <c r="J53" t="s">
+        <v>396</v>
+      </c>
+      <c r="K53" t="s">
+        <v>397</v>
+      </c>
+      <c r="L53" t="s">
+        <v>398</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>275</v>
+      </c>
+      <c r="O53" t="s">
+        <v>71</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>399</v>
+      </c>
+      <c r="X53" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>402</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>403</v>
+      </c>
+      <c r="J54" t="s">
+        <v>404</v>
+      </c>
+      <c r="K54" t="s">
+        <v>405</v>
+      </c>
+      <c r="L54" t="s">
+        <v>406</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>167</v>
+      </c>
+      <c r="O54" t="s">
+        <v>71</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>399</v>
+      </c>
+      <c r="X54" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>408</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>409</v>
+      </c>
+      <c r="J55" t="s">
+        <v>410</v>
+      </c>
+      <c r="K55" t="s">
+        <v>411</v>
+      </c>
+      <c r="L55" t="s">
+        <v>412</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>167</v>
+      </c>
+      <c r="O55" t="s">
+        <v>71</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>399</v>
+      </c>
+      <c r="X55" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>414</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>415</v>
+      </c>
+      <c r="J56" t="s">
+        <v>416</v>
+      </c>
+      <c r="K56" t="s">
+        <v>417</v>
+      </c>
+      <c r="L56" t="s">
+        <v>418</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>167</v>
+      </c>
+      <c r="O56" t="s">
+        <v>419</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>420</v>
+      </c>
+      <c r="X56" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>423</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>424</v>
+      </c>
+      <c r="J57" t="s">
+        <v>416</v>
+      </c>
+      <c r="K57" t="s">
+        <v>425</v>
+      </c>
+      <c r="L57" t="s">
+        <v>426</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>167</v>
+      </c>
+      <c r="O57" t="s">
+        <v>115</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>420</v>
+      </c>
+      <c r="X57" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>428</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>429</v>
+      </c>
+      <c r="J58" t="s">
+        <v>430</v>
+      </c>
+      <c r="K58" t="s">
+        <v>431</v>
+      </c>
+      <c r="L58" t="s">
+        <v>432</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>433</v>
+      </c>
+      <c r="X58" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
         <v>436</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>437</v>
+      </c>
+      <c r="J59" t="s">
+        <v>438</v>
+      </c>
+      <c r="K59" t="s">
+        <v>439</v>
+      </c>
+      <c r="L59" t="s">
+        <v>440</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>167</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="n">
+        <v>2</v>
+      </c>
+      <c r="S59" t="n">
+        <v>2</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>2</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>433</v>
+      </c>
+      <c r="X59" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>442</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>443</v>
+      </c>
+      <c r="J60" t="s">
+        <v>444</v>
+      </c>
+      <c r="K60" t="s">
+        <v>445</v>
+      </c>
+      <c r="L60" t="s">
+        <v>446</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>167</v>
+      </c>
+      <c r="O60" t="s">
+        <v>71</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>447</v>
+      </c>
+      <c r="X60" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>450</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>451</v>
+      </c>
+      <c r="J61" t="s">
+        <v>452</v>
+      </c>
+      <c r="K61" t="s">
+        <v>453</v>
+      </c>
+      <c r="L61" t="s">
+        <v>454</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>455</v>
+      </c>
+      <c r="O61" t="s">
+        <v>115</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>447</v>
+      </c>
+      <c r="X61" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>457</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>458</v>
+      </c>
+      <c r="J62" t="s">
+        <v>459</v>
+      </c>
+      <c r="K62" t="s">
+        <v>129</v>
+      </c>
+      <c r="L62" t="s">
+        <v>460</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>455</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>461</v>
+      </c>
+      <c r="X62" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>464</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>465</v>
+      </c>
+      <c r="J63" t="s">
+        <v>466</v>
+      </c>
+      <c r="K63" t="s">
+        <v>467</v>
+      </c>
+      <c r="L63" t="s">
+        <v>468</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>455</v>
+      </c>
+      <c r="O63" t="s">
+        <v>419</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>461</v>
+      </c>
+      <c r="X63" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>470</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>471</v>
+      </c>
+      <c r="J64" t="s">
+        <v>472</v>
+      </c>
+      <c r="K64" t="s">
+        <v>473</v>
+      </c>
+      <c r="L64" t="s">
+        <v>474</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>475</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>461</v>
+      </c>
+      <c r="X64" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>477</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>478</v>
+      </c>
+      <c r="J65" t="s">
+        <v>472</v>
+      </c>
+      <c r="K65" t="s">
+        <v>479</v>
+      </c>
+      <c r="L65" t="s">
+        <v>480</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>455</v>
+      </c>
+      <c r="O65" t="s">
+        <v>71</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>461</v>
+      </c>
+      <c r="X65" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>482</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>483</v>
+      </c>
+      <c r="J66" t="s">
+        <v>484</v>
+      </c>
+      <c r="K66" t="s">
+        <v>485</v>
+      </c>
+      <c r="L66" t="s">
+        <v>486</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>455</v>
+      </c>
+      <c r="O66" t="s">
+        <v>115</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>461</v>
+      </c>
+      <c r="X66" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>488</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>489</v>
+      </c>
+      <c r="J67" t="s">
+        <v>490</v>
+      </c>
+      <c r="K67" t="s">
+        <v>491</v>
+      </c>
+      <c r="L67" t="s">
+        <v>492</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>455</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>461</v>
+      </c>
+      <c r="X67" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>494</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>495</v>
+      </c>
+      <c r="J68" t="s">
+        <v>490</v>
+      </c>
+      <c r="K68" t="s">
+        <v>496</v>
+      </c>
+      <c r="L68" t="s">
+        <v>497</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>455</v>
+      </c>
+      <c r="O68" t="s">
+        <v>71</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>461</v>
+      </c>
+      <c r="X68" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>499</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>500</v>
+      </c>
+      <c r="J69" t="s">
+        <v>501</v>
+      </c>
+      <c r="K69" t="s">
+        <v>502</v>
+      </c>
+      <c r="L69" t="s">
+        <v>503</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>455</v>
+      </c>
+      <c r="O69" t="s">
+        <v>419</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>461</v>
+      </c>
+      <c r="X69" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>505</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>506</v>
+      </c>
+      <c r="J70" t="s">
+        <v>507</v>
+      </c>
+      <c r="K70" t="s">
+        <v>508</v>
+      </c>
+      <c r="L70" t="s">
+        <v>509</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>455</v>
+      </c>
+      <c r="O70" t="s">
+        <v>323</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>461</v>
+      </c>
+      <c r="X70" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>511</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>512</v>
+      </c>
+      <c r="J71" t="s">
+        <v>513</v>
+      </c>
+      <c r="K71" t="s">
+        <v>514</v>
+      </c>
+      <c r="L71" t="s">
+        <v>515</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>455</v>
+      </c>
+      <c r="O71" t="s">
+        <v>71</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>461</v>
+      </c>
+      <c r="X71" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>517</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>518</v>
+      </c>
+      <c r="J72" t="s">
+        <v>513</v>
+      </c>
+      <c r="K72" t="s">
+        <v>519</v>
+      </c>
+      <c r="L72" t="s">
+        <v>520</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>455</v>
+      </c>
+      <c r="O72" t="s">
+        <v>419</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>461</v>
+      </c>
+      <c r="X72" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>522</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>523</v>
+      </c>
+      <c r="J73" t="s">
+        <v>524</v>
+      </c>
+      <c r="K73" t="s">
+        <v>525</v>
+      </c>
+      <c r="L73" t="s">
+        <v>526</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="s">
+        <v>455</v>
+      </c>
+      <c r="O73" t="s">
+        <v>71</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>461</v>
+      </c>
+      <c r="X73" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>528</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>529</v>
+      </c>
+      <c r="J74" t="s">
+        <v>530</v>
+      </c>
+      <c r="K74" t="s">
+        <v>531</v>
+      </c>
+      <c r="L74" t="s">
+        <v>532</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>533</v>
+      </c>
+      <c r="O74" t="s">
+        <v>71</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>461</v>
+      </c>
+      <c r="X74" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>535</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>536</v>
+      </c>
+      <c r="J75" t="s">
+        <v>537</v>
+      </c>
+      <c r="K75" t="s">
+        <v>538</v>
+      </c>
+      <c r="L75" t="s">
+        <v>539</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="s">
+        <v>533</v>
+      </c>
+      <c r="O75" t="s">
+        <v>71</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>461</v>
+      </c>
+      <c r="X75" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>541</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>542</v>
+      </c>
+      <c r="J76" t="s">
+        <v>537</v>
+      </c>
+      <c r="K76" t="s">
+        <v>543</v>
+      </c>
+      <c r="L76" t="s">
+        <v>544</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>533</v>
+      </c>
+      <c r="O76" t="s">
+        <v>323</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>461</v>
+      </c>
+      <c r="X76" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>546</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>547</v>
+      </c>
+      <c r="J77" t="s">
+        <v>548</v>
+      </c>
+      <c r="K77" t="s">
+        <v>549</v>
+      </c>
+      <c r="L77" t="s">
+        <v>550</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>533</v>
+      </c>
+      <c r="O77" t="s">
+        <v>71</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>461</v>
+      </c>
+      <c r="X77" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>552</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>553</v>
+      </c>
+      <c r="J78" t="s">
+        <v>548</v>
+      </c>
+      <c r="K78" t="s">
+        <v>554</v>
+      </c>
+      <c r="L78" t="s">
+        <v>555</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="s">
+        <v>533</v>
+      </c>
+      <c r="O78" t="s">
+        <v>323</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>2</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>461</v>
+      </c>
+      <c r="X78" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>557</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>558</v>
+      </c>
+      <c r="J79" t="s">
+        <v>559</v>
+      </c>
+      <c r="K79" t="s">
+        <v>560</v>
+      </c>
+      <c r="L79" t="s">
+        <v>561</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>533</v>
+      </c>
+      <c r="O79" t="s">
+        <v>71</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>461</v>
+      </c>
+      <c r="X79" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>563</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>564</v>
+      </c>
+      <c r="J80" t="s">
+        <v>565</v>
+      </c>
+      <c r="K80" t="s">
+        <v>566</v>
+      </c>
+      <c r="L80" t="s">
+        <v>567</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>533</v>
+      </c>
+      <c r="O80" t="s">
+        <v>71</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>461</v>
+      </c>
+      <c r="X80" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>569</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>570</v>
+      </c>
+      <c r="J81" t="s">
+        <v>571</v>
+      </c>
+      <c r="K81" t="s">
+        <v>572</v>
+      </c>
+      <c r="L81" t="s">
+        <v>573</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>533</v>
+      </c>
+      <c r="O81" t="s">
+        <v>419</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>461</v>
+      </c>
+      <c r="X81" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>575</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>576</v>
+      </c>
+      <c r="J82" t="s">
+        <v>577</v>
+      </c>
+      <c r="K82" t="s">
+        <v>578</v>
+      </c>
+      <c r="L82" t="s">
+        <v>579</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>533</v>
+      </c>
+      <c r="O82" t="s">
+        <v>71</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>461</v>
+      </c>
+      <c r="X82" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>581</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>582</v>
+      </c>
+      <c r="J83" t="s">
+        <v>583</v>
+      </c>
+      <c r="K83" t="s">
+        <v>584</v>
+      </c>
+      <c r="L83" t="s">
+        <v>585</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>475</v>
+      </c>
+      <c r="O83" t="s">
+        <v>71</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>461</v>
+      </c>
+      <c r="X83" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>587</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>588</v>
+      </c>
+      <c r="J84" t="s">
+        <v>589</v>
+      </c>
+      <c r="K84" t="s">
+        <v>590</v>
+      </c>
+      <c r="L84" t="s">
+        <v>591</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>475</v>
+      </c>
+      <c r="O84" t="s">
+        <v>115</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>461</v>
+      </c>
+      <c r="X84" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>593</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>594</v>
+      </c>
+      <c r="J85" t="s">
+        <v>595</v>
+      </c>
+      <c r="K85" t="s">
+        <v>596</v>
+      </c>
+      <c r="L85" t="s">
+        <v>597</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>475</v>
+      </c>
+      <c r="O85" t="s">
+        <v>71</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>461</v>
+      </c>
+      <c r="X85" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>599</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>600</v>
+      </c>
+      <c r="J86" t="s">
+        <v>601</v>
+      </c>
+      <c r="K86" t="s">
+        <v>602</v>
+      </c>
+      <c r="L86" t="s">
+        <v>603</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>604</v>
+      </c>
+      <c r="O86" t="s">
+        <v>71</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>461</v>
+      </c>
+      <c r="X86" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>606</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>607</v>
+      </c>
+      <c r="J87" t="s">
+        <v>608</v>
+      </c>
+      <c r="K87" t="s">
+        <v>609</v>
+      </c>
+      <c r="L87" t="s">
+        <v>610</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>475</v>
+      </c>
+      <c r="O87" t="s">
+        <v>71</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>461</v>
+      </c>
+      <c r="X87" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>612</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>613</v>
+      </c>
+      <c r="J88" t="s">
+        <v>608</v>
+      </c>
+      <c r="K88" t="s">
+        <v>614</v>
+      </c>
+      <c r="L88" t="s">
+        <v>615</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>475</v>
+      </c>
+      <c r="O88" t="s">
+        <v>71</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>2</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>461</v>
+      </c>
+      <c r="X88" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>617</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>618</v>
+      </c>
+      <c r="J89" t="s">
+        <v>619</v>
+      </c>
+      <c r="K89" t="s">
+        <v>620</v>
+      </c>
+      <c r="L89" t="s">
+        <v>621</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>604</v>
+      </c>
+      <c r="O89" t="s">
+        <v>115</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>622</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>623</v>
+      </c>
+      <c r="J90" t="s">
+        <v>624</v>
+      </c>
+      <c r="K90" t="s">
+        <v>625</v>
+      </c>
+      <c r="L90" t="s">
+        <v>626</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>604</v>
+      </c>
+      <c r="O90" t="s">
+        <v>419</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>461</v>
+      </c>
+      <c r="X90" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>628</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>629</v>
+      </c>
+      <c r="J91" t="s">
+        <v>630</v>
+      </c>
+      <c r="K91" t="s">
+        <v>631</v>
+      </c>
+      <c r="L91" t="s">
+        <v>632</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>604</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>461</v>
+      </c>
+      <c r="X91" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>634</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>635</v>
+      </c>
+      <c r="J92" t="s">
+        <v>636</v>
+      </c>
+      <c r="K92" t="s">
+        <v>637</v>
+      </c>
+      <c r="L92" t="s">
+        <v>638</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>604</v>
+      </c>
+      <c r="O92" t="s">
+        <v>71</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>3</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>461</v>
+      </c>
+      <c r="X92" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>640</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>641</v>
+      </c>
+      <c r="J93" t="s">
+        <v>642</v>
+      </c>
+      <c r="K93" t="s">
+        <v>543</v>
+      </c>
+      <c r="L93" t="s">
+        <v>643</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>604</v>
+      </c>
+      <c r="O93" t="s">
+        <v>71</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>461</v>
+      </c>
+      <c r="X93" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>645</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>646</v>
+      </c>
+      <c r="J94" t="s">
+        <v>647</v>
+      </c>
+      <c r="K94" t="s">
+        <v>648</v>
+      </c>
+      <c r="L94" t="s">
+        <v>649</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>604</v>
+      </c>
+      <c r="O94" t="s">
+        <v>71</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>461</v>
+      </c>
+      <c r="X94" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>651</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>652</v>
+      </c>
+      <c r="J95" t="s">
+        <v>653</v>
+      </c>
+      <c r="K95" t="s">
+        <v>654</v>
+      </c>
+      <c r="L95" t="s">
+        <v>655</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>656</v>
+      </c>
+      <c r="O95" t="s">
+        <v>71</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>66188</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>657</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>658</v>
+      </c>
+      <c r="J96" t="s">
+        <v>659</v>
+      </c>
+      <c r="K96" t="s">
+        <v>660</v>
+      </c>
+      <c r="L96" t="s">
+        <v>661</v>
+      </c>
+      <c r="M96" t="n">
+        <v>3</v>
+      </c>
+      <c r="N96" t="s">
+        <v>604</v>
+      </c>
+      <c r="O96" t="s">
+        <v>419</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>3</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>2</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>461</v>
+      </c>
+      <c r="X96" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>662</v>
       </c>
     </row>
   </sheetData>
